--- a/CURRENT WORK/SALT WORK - CODES/N = 3/MgSO4 - Done/Test_excelsheet for MgSO4 n=3.xlsx
+++ b/CURRENT WORK/SALT WORK - CODES/N = 3/MgSO4 - Done/Test_excelsheet for MgSO4 n=3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\FYP\Current Work\SALT WORK\N = 3\MgSO4 - Done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\Final-Year-Project\CURRENT WORK\SALT WORK - CODES\N = 3\MgSO4 - Done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE66C52-4DA3-4795-B178-6E9F0DA8C32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5901D2C-A850-454E-8C1C-976E7363C533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="794" activeTab="4" xr2:uid="{9CF19269-4578-4920-A34F-84FB49B64E6E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="794" activeTab="1" xr2:uid="{9CF19269-4578-4920-A34F-84FB49B64E6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp - Osmotic Coefficient" sheetId="1" r:id="rId1"/>
@@ -669,7 +669,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -717,7 +717,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -756,22 +755,38 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t>Parity Plot for MgSO4 for n=3</a:t>
+              <a:rPr lang="en-IN" sz="1320"/>
+              <a:t>Fig 10.Parity Plot for MgSO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="900"/>
+              <a:t>4</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1320"/>
+              <a:t> for n=3</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23892962962962963"/>
+          <c:y val="0.92604166666666665"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -785,11 +800,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -800,7 +815,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17634467592592593"/>
+          <c:y val="6.3264814814814815E-2"/>
+          <c:w val="0.77220856481481481"/>
+          <c:h val="0.71248611111111115"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1066,6 +1091,8 @@
         <c:axId val="964017007"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.4"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1076,11 +1103,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -1105,11 +1132,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -1137,11 +1164,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1152,6 +1179,7 @@
         <c:crossAx val="1292910400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1292910400"/>
@@ -1167,11 +1195,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -1196,11 +1224,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -1227,11 +1255,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1284,7 +1312,12 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -9660,34 +9693,38 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t>Temperature vs </a:t>
+              <a:rPr lang="en-IN" sz="1400"/>
+              <a:t>Fig 9 .Temperature vs Ø for MgSO</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-IN">
-                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Ø</a:t>
+              <a:rPr lang="en-IN" sz="1000"/>
+              <a:t>4</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t> for MgSO4 n=3</a:t>
+              <a:rPr lang="en-IN" sz="1400"/>
+              <a:t> n=3</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20559212962962967"/>
+          <c:y val="0.8907638888888888"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9701,11 +9738,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -12356,24 +12393,19 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN" sz="1100">
-                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
+                  <a:rPr lang="en-IN"/>
                   <a:t>Ø</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-IN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -12390,11 +12422,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -12422,11 +12454,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -12453,11 +12485,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -12482,11 +12514,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -12513,11 +12545,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -12545,10 +12577,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15162637887047334"/>
-          <c:y val="0.16343982997700512"/>
-          <c:w val="0.23287777838958945"/>
-          <c:h val="0.10647167444777367"/>
+          <c:x val="0.18102453703703703"/>
+          <c:y val="0.12228240740740741"/>
+          <c:w val="0.36810925925925925"/>
+          <c:h val="0.13293009259259259"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -12566,11 +12598,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -12610,7 +12642,12 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -17737,13 +17774,13 @@
       <xdr:col>47</xdr:col>
       <xdr:colOff>516856</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>14033</xdr:rowOff>
+      <xdr:rowOff>14032</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>569656</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>135412</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17771,15 +17808,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17794,7 +17831,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="37216080" y="2346960"/>
+          <a:off x="37261800" y="2019300"/>
           <a:ext cx="1310640" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17858,15 +17895,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17881,7 +17918,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="37360860" y="2407920"/>
+          <a:off x="37398960" y="2072640"/>
           <a:ext cx="114300" cy="121920"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -17921,15 +17958,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -17944,7 +17981,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="37322760" y="2621280"/>
+          <a:off x="37338000" y="2308860"/>
           <a:ext cx="266700" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -17975,12 +18012,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.12252</cdr:x>
-      <cdr:y>0.15905</cdr:y>
+      <cdr:x>0.17669</cdr:x>
+      <cdr:y>0.0638</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.95413</cdr:x>
-      <cdr:y>0.83149</cdr:y>
+      <cdr:x>0.9506</cdr:x>
+      <cdr:y>0.77463</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -17995,8 +18032,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="588363" y="519653"/>
-          <a:ext cx="3993547" cy="2197007"/>
+          <a:off x="763304" y="275616"/>
+          <a:ext cx="3343298" cy="3070772"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -18258,10 +18295,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>52800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19991,8 +20028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CF3460-0F13-4869-941B-1FBF8E166A15}">
   <dimension ref="A1:AU72"/>
   <sheetViews>
-    <sheetView topLeftCell="AP6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BF24" sqref="BF24"/>
+    <sheetView tabSelected="1" topLeftCell="AO7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BD14" sqref="BD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31479,8 +31516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556E2A7A-4B7B-4A50-AF35-9F50D05A118E}">
   <dimension ref="A1:F354"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34059,10 +34096,6 @@
         <v>399</v>
       </c>
     </row>
-    <row r="270" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D270" s="27"/>
-      <c r="E270" s="27"/>
-    </row>
     <row r="271" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D271">
         <v>0.13967299999999999</v>
@@ -34745,23 +34778,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010054E8EBE579ED724DA6862405C7970F81" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="86c5e3b6225d101e522740491cefce85">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xmlns:ns4="5d848a0f-dbe6-471c-a407-bb7a402dc859" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6c024ab2e87b0647c7181ba4225cb0c" ns3:_="" ns4:_="">
     <xsd:import namespace="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
@@ -34990,10 +35006,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{621CF4D0-A048-4BAF-9D55-9260AD6C0748}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E5E9353-D2AC-43E7-9389-832F28C1F153}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
+    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -35016,20 +35060,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E5E9353-D2AC-43E7-9389-832F28C1F153}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{621CF4D0-A048-4BAF-9D55-9260AD6C0748}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
-    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/CURRENT WORK/SALT WORK - CODES/N = 3/MgSO4 - Done/Test_excelsheet for MgSO4 n=3.xlsx
+++ b/CURRENT WORK/SALT WORK - CODES/N = 3/MgSO4 - Done/Test_excelsheet for MgSO4 n=3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\Final-Year-Project\CURRENT WORK\SALT WORK - CODES\N = 3\MgSO4 - Done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jda365-my.sharepoint.com/personal/dhanush_tamilselvan_jda_com/Documents/Desktop/Final-Year-Project/CURRENT WORK/SALT WORK - CODES/N = 3/MgSO4 - Done/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5901D2C-A850-454E-8C1C-976E7363C533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="794" activeTab="1" xr2:uid="{9CF19269-4578-4920-A34F-84FB49B64E6E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="794" activeTab="4" xr2:uid="{9CF19269-4578-4920-A34F-84FB49B64E6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp - Osmotic Coefficient" sheetId="1" r:id="rId1"/>
@@ -18805,21 +18805,21 @@
       <selection activeCell="E5" sqref="E5:G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.08984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.08984375" style="1" customWidth="1"/>
     <col min="10" max="10" width="15" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.36328125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.36328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -18830,7 +18830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -18841,7 +18841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -18857,7 +18857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -18889,7 +18889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>0.2</v>
       </c>
@@ -18921,7 +18921,7 @@
         <v>0.89070000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>0.3</v>
       </c>
@@ -18954,7 +18954,7 @@
         <v>0.88539999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>0.4</v>
       </c>
@@ -18987,7 +18987,7 @@
         <v>0.87590000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
@@ -19020,7 +19020,7 @@
         <v>0.86209999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>0.6</v>
       </c>
@@ -19053,7 +19053,7 @@
         <v>0.84289999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0.7</v>
       </c>
@@ -19086,7 +19086,7 @@
         <v>0.81669999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0.8</v>
       </c>
@@ -19119,7 +19119,7 @@
         <v>0.78169999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>0.9</v>
       </c>
@@ -19151,7 +19151,7 @@
         <v>0.74619999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -19184,7 +19184,7 @@
         <v>0.73799999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1.2</v>
       </c>
@@ -19217,7 +19217,7 @@
         <v>0.72309999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1.4</v>
       </c>
@@ -19250,7 +19250,7 @@
         <v>0.70269999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1.6</v>
       </c>
@@ -19283,7 +19283,7 @@
         <v>0.67730000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1.8</v>
       </c>
@@ -19316,7 +19316,7 @@
         <v>0.64759999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -19349,7 +19349,7 @@
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2.5</v>
       </c>
@@ -19381,7 +19381,7 @@
         <v>0.60250000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>3</v>
       </c>
@@ -19414,7 +19414,7 @@
         <v>0.59550000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E21" s="1">
         <v>2.4</v>
       </c>
@@ -19438,7 +19438,7 @@
         <v>0.57889999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E22" s="1">
         <v>2.6</v>
       </c>
@@ -19462,7 +19462,7 @@
         <v>0.5554</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E23" s="1">
         <v>2.8</v>
       </c>
@@ -19486,7 +19486,7 @@
         <v>0.52690000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E24" s="1">
         <v>3</v>
       </c>
@@ -19510,7 +19510,7 @@
         <v>0.49530000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E25" s="1">
         <v>3.2</v>
       </c>
@@ -19534,7 +19534,7 @@
         <v>0.4622</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E26" s="1">
         <v>3.4</v>
       </c>
@@ -19557,7 +19557,7 @@
         <v>0.52400000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E27" s="1">
         <v>3.6</v>
       </c>
@@ -19581,7 +19581,7 @@
         <v>0.52290000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E28" s="1">
         <v>3.6175999999999999</v>
       </c>
@@ -19605,7 +19605,7 @@
         <v>0.50470000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="I29" s="1">
         <v>0.5</v>
       </c>
@@ -19620,7 +19620,7 @@
         <v>0.47570000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="I30" s="1">
         <v>0.5</v>
       </c>
@@ -19635,7 +19635,7 @@
         <v>0.439</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="I31" s="1">
         <v>0.5</v>
       </c>
@@ -19650,7 +19650,7 @@
         <v>0.3967</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="I32" s="1">
         <v>0.5</v>
       </c>
@@ -19665,7 +19665,7 @@
         <v>0.35249999999999998</v>
       </c>
     </row>
-    <row r="33" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I33" s="1">
         <v>1</v>
       </c>
@@ -19679,7 +19679,7 @@
         <v>0.52890000000000004</v>
       </c>
     </row>
-    <row r="34" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I34" s="1">
         <v>1</v>
       </c>
@@ -19694,7 +19694,7 @@
         <v>0.5292</v>
       </c>
     </row>
-    <row r="35" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I35" s="1">
         <v>1</v>
       </c>
@@ -19709,7 +19709,7 @@
         <v>0.5071</v>
       </c>
     </row>
-    <row r="36" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I36" s="1">
         <v>1</v>
       </c>
@@ -19724,7 +19724,7 @@
         <v>0.47099999999999997</v>
       </c>
     </row>
-    <row r="37" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I37" s="1">
         <v>1</v>
       </c>
@@ -19739,7 +19739,7 @@
         <v>0.42559999999999998</v>
       </c>
     </row>
-    <row r="38" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I38" s="1">
         <v>1</v>
       </c>
@@ -19754,7 +19754,7 @@
         <v>0.37490000000000001</v>
       </c>
     </row>
-    <row r="39" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I39" s="1">
         <v>1</v>
       </c>
@@ -19769,7 +19769,7 @@
         <v>0.32369999999999999</v>
       </c>
     </row>
-    <row r="40" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I40" s="1">
         <v>2</v>
       </c>
@@ -19783,7 +19783,7 @@
         <v>0.67910000000000004</v>
       </c>
     </row>
-    <row r="41" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I41" s="1">
         <v>2</v>
       </c>
@@ -19798,7 +19798,7 @@
         <v>0.66269999999999996</v>
       </c>
     </row>
-    <row r="42" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I42" s="1">
         <v>2</v>
       </c>
@@ -19813,7 +19813,7 @@
         <v>0.61980000000000002</v>
       </c>
     </row>
-    <row r="43" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I43" s="1">
         <v>2</v>
       </c>
@@ -19828,7 +19828,7 @@
         <v>0.55940000000000001</v>
       </c>
     </row>
-    <row r="44" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I44" s="1">
         <v>2</v>
       </c>
@@ -19843,7 +19843,7 @@
         <v>0.48780000000000001</v>
       </c>
     </row>
-    <row r="45" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I45" s="1">
         <v>2</v>
       </c>
@@ -19858,7 +19858,7 @@
         <v>0.41020000000000001</v>
       </c>
     </row>
-    <row r="46" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I46" s="1">
         <v>2</v>
       </c>
@@ -19873,7 +19873,7 @@
         <v>0.33160000000000001</v>
       </c>
     </row>
-    <row r="47" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I47" s="1">
         <v>3</v>
       </c>
@@ -19887,7 +19887,7 @@
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="48" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I48" s="1">
         <v>3</v>
       </c>
@@ -19902,7 +19902,7 @@
         <v>0.92579999999999996</v>
       </c>
     </row>
-    <row r="49" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I49" s="1">
         <v>3</v>
       </c>
@@ -19917,7 +19917,7 @@
         <v>0.84470000000000001</v>
       </c>
     </row>
-    <row r="50" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I50" s="1">
         <v>3</v>
       </c>
@@ -19932,7 +19932,7 @@
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="51" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I51" s="1">
         <v>3</v>
       </c>
@@ -19947,7 +19947,7 @@
         <v>0.62719999999999998</v>
       </c>
     </row>
-    <row r="52" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I52" s="1">
         <v>3</v>
       </c>
@@ -19962,7 +19962,7 @@
         <v>0.50309999999999999</v>
       </c>
     </row>
-    <row r="53" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I53" s="1">
         <v>3</v>
       </c>
@@ -19977,7 +19977,7 @@
         <v>0.37540000000000001</v>
       </c>
     </row>
-    <row r="54" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I54" s="1">
         <v>5</v>
       </c>
@@ -19991,7 +19991,7 @@
         <v>1.3436999999999999</v>
       </c>
     </row>
-    <row r="55" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I55" s="1">
         <v>5</v>
       </c>
@@ -20005,7 +20005,7 @@
         <v>1.0866</v>
       </c>
     </row>
-    <row r="56" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I56" s="1">
         <v>5</v>
       </c>
@@ -20028,44 +20028,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CF3460-0F13-4869-941B-1FBF8E166A15}">
   <dimension ref="A1:AU72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="AO10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BD14" sqref="BD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="9"/>
-    <col min="10" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="7.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="1"/>
-    <col min="14" max="14" width="11.88671875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.44140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.88671875" style="9"/>
-    <col min="19" max="19" width="9.109375" customWidth="1"/>
-    <col min="21" max="21" width="14.21875" customWidth="1"/>
-    <col min="22" max="22" width="8.88671875" style="9"/>
-    <col min="25" max="25" width="8.88671875" style="9"/>
+    <col min="3" max="3" width="9.08984375" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="9"/>
+    <col min="10" max="11" width="8.90625" style="1"/>
+    <col min="12" max="12" width="7.08984375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.90625" style="1"/>
+    <col min="14" max="14" width="11.90625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.54296875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.90625" style="9"/>
+    <col min="19" max="19" width="9.08984375" customWidth="1"/>
+    <col min="21" max="21" width="14.1796875" customWidth="1"/>
+    <col min="22" max="22" width="8.90625" style="9"/>
+    <col min="25" max="25" width="8.90625" style="9"/>
     <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="12" style="9" customWidth="1"/>
     <col min="31" max="32" width="12" customWidth="1"/>
     <col min="33" max="33" width="12" style="11" customWidth="1"/>
     <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.21875" customWidth="1"/>
-    <col min="38" max="38" width="8.88671875" style="9"/>
-    <col min="40" max="42" width="21.5546875" style="1" customWidth="1"/>
-    <col min="44" max="44" width="13.44140625" style="1" customWidth="1"/>
+    <col min="37" max="37" width="13.1796875" customWidth="1"/>
+    <col min="38" max="38" width="8.90625" style="9"/>
+    <col min="40" max="42" width="21.54296875" style="1" customWidth="1"/>
+    <col min="44" max="44" width="13.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:46" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="6" t="s">
         <v>38</v>
       </c>
@@ -20084,7 +20084,7 @@
       <c r="AG1"/>
       <c r="AL1"/>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
       <c r="H2"/>
       <c r="K2" s="8" t="s">
         <v>12</v>
@@ -20107,7 +20107,7 @@
       <c r="AG2" s="1"/>
       <c r="AL2"/>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
       <c r="H3"/>
       <c r="K3" s="8" t="s">
         <v>13</v>
@@ -20130,7 +20130,7 @@
       <c r="AG3" s="1"/>
       <c r="AL3"/>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
       <c r="H4"/>
       <c r="R4"/>
       <c r="V4"/>
@@ -20147,7 +20147,7 @@
       <c r="AG4" s="1"/>
       <c r="AL4"/>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
       <c r="H5"/>
       <c r="R5"/>
       <c r="V5"/>
@@ -20156,7 +20156,7 @@
       <c r="AG5"/>
       <c r="AL5"/>
     </row>
-    <row r="6" spans="1:46" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:46" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -20266,7 +20266,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>0.1</v>
       </c>
@@ -20402,7 +20402,7 @@
         <v>0.60050000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>0.1</v>
       </c>
@@ -20535,7 +20535,7 @@
         <v>0.59550000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>0.1</v>
       </c>
@@ -20674,7 +20674,7 @@
         <v>0.57840000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0.1</v>
       </c>
@@ -20813,7 +20813,7 @@
         <v>0.55569999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0.1</v>
       </c>
@@ -20952,7 +20952,7 @@
         <v>0.52980000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>0.1</v>
       </c>
@@ -21091,7 +21091,7 @@
         <v>0.50129999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>0.1</v>
       </c>
@@ -21230,7 +21230,7 @@
         <v>0.47010000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>0.5</v>
       </c>
@@ -21368,7 +21368,7 @@
         <v>0.51680000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>0.5</v>
       </c>
@@ -21507,7 +21507,7 @@
         <v>0.52439999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>0.5</v>
       </c>
@@ -21646,7 +21646,7 @@
         <v>0.50670000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>0.5</v>
       </c>
@@ -21785,7 +21785,7 @@
         <v>0.47789999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>0.5</v>
       </c>
@@ -21924,7 +21924,7 @@
         <v>0.44280000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>0.5</v>
       </c>
@@ -22063,7 +22063,7 @@
         <v>0.40350000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>0.5</v>
       </c>
@@ -22210,7 +22210,7 @@
         <v>0.36070000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -22342,7 +22342,7 @@
         <v>0.52459999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:47" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:47" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -22475,7 +22475,7 @@
         <v>0.52990000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -22616,7 +22616,7 @@
         <v>0.505</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -22757,7 +22757,7 @@
         <v>0.46679999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -22898,7 +22898,7 @@
         <v>0.42130000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -23039,7 +23039,7 @@
         <v>0.37169999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -23180,7 +23180,7 @@
         <v>0.31979999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -23320,7 +23320,7 @@
         <v>0.67179999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -23461,7 +23461,7 @@
         <v>0.66320000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>2</v>
       </c>
@@ -23602,7 +23602,7 @@
         <v>0.61760000000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>2</v>
       </c>
@@ -23743,7 +23743,7 @@
         <v>0.55449999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>2</v>
       </c>
@@ -23884,7 +23884,7 @@
         <v>0.48220000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -24025,7 +24025,7 @@
         <v>0.40620000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -24166,7 +24166,7 @@
         <v>0.33119999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>3</v>
       </c>
@@ -24306,7 +24306,7 @@
         <v>0.97589999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>3</v>
       </c>
@@ -24447,7 +24447,7 @@
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>3</v>
       </c>
@@ -24588,7 +24588,7 @@
         <v>0.83540000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>3</v>
       </c>
@@ -24729,7 +24729,7 @@
         <v>0.73170000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>3</v>
       </c>
@@ -24870,7 +24870,7 @@
         <v>0.62429999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>3</v>
       </c>
@@ -25011,7 +25011,7 @@
         <v>0.52170000000000005</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>3</v>
       </c>
@@ -25152,7 +25152,7 @@
         <v>0.43290000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>0.2</v>
       </c>
@@ -25292,7 +25292,7 @@
         <v>0.55779999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>0.3</v>
       </c>
@@ -25424,7 +25424,7 @@
         <v>0.53959999999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>0.4</v>
       </c>
@@ -25556,7 +25556,7 @@
         <v>0.52859999999999996</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>0.6</v>
       </c>
@@ -25688,7 +25688,7 @@
         <v>0.51880000000000004</v>
       </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>0.7</v>
       </c>
@@ -25820,7 +25820,7 @@
         <v>0.51829999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>0.8</v>
       </c>
@@ -25952,7 +25952,7 @@
         <v>0.51990000000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>0.9</v>
       </c>
@@ -26084,7 +26084,7 @@
         <v>0.52359999999999995</v>
       </c>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>1.2</v>
       </c>
@@ -26224,7 +26224,7 @@
         <v>0.54479999999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>1.4</v>
       </c>
@@ -26364,7 +26364,7 @@
         <v>0.56630000000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>1.6</v>
       </c>
@@ -26504,7 +26504,7 @@
         <v>0.59309999999999996</v>
       </c>
     </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>1.8</v>
       </c>
@@ -26644,7 +26644,7 @@
         <v>0.62490000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -26784,7 +26784,7 @@
         <v>0.70320000000000005</v>
       </c>
     </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>2.4</v>
       </c>
@@ -26924,7 +26924,7 @@
         <v>0.74960000000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>2.6</v>
       </c>
@@ -27064,7 +27064,7 @@
         <v>0.80100000000000005</v>
       </c>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>2.8</v>
       </c>
@@ -27204,7 +27204,7 @@
         <v>0.85750000000000004</v>
       </c>
     </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>3.2</v>
       </c>
@@ -27344,7 +27344,7 @@
         <v>0.98660000000000003</v>
       </c>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>3.4</v>
       </c>
@@ -27484,7 +27484,7 @@
         <v>1.0596000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>3.6</v>
       </c>
@@ -27624,7 +27624,7 @@
         <v>1.1384000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>3.6175999999999999</v>
       </c>
@@ -27764,51 +27764,51 @@
         <v>1.1456</v>
       </c>
     </row>
-    <row r="61" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
     </row>
@@ -27826,13 +27826,13 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -27840,7 +27840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>3.940093261019946E-2</v>
       </c>
@@ -27848,7 +27848,7 @@
         <v>272.19626168224198</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>5.8075911624839695E-2</v>
       </c>
@@ -27856,7 +27856,7 @@
         <v>270.09345794392499</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>6.4606194837027023E-2</v>
       </c>
@@ -27864,7 +27864,7 @@
         <v>270.09345794392499</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>7.2425751990408904E-2</v>
       </c>
@@ -27872,7 +27872,7 @@
         <v>273.59813084112102</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>7.9673742064779007E-2</v>
       </c>
@@ -27880,7 +27880,7 @@
         <v>279.20560747663501</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>8.4150645386805334E-2</v>
       </c>
@@ -27888,7 +27888,7 @@
         <v>284.11214953271002</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8.9901610308777843E-2</v>
       </c>
@@ -27896,7 +27896,7 @@
         <v>289.01869158878498</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9.1223386184597008E-2</v>
       </c>
@@ -27904,7 +27904,7 @@
         <v>291.822429906541</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9.6442023145290726E-2</v>
       </c>
@@ -27912,7 +27912,7 @@
         <v>292.52336448598101</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9.9477533598176196E-2</v>
       </c>
@@ -27920,7 +27920,7 @@
         <v>299.53271028037301</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>9.6884126112510627E-2</v>
       </c>
@@ -27928,7 +27928,7 @@
         <v>296.02803738317698</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>9.471388056444241E-2</v>
       </c>
@@ -27936,7 +27936,7 @@
         <v>293.92523364485902</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>9.254540266239869E-2</v>
       </c>
@@ -27944,7 +27944,7 @@
         <v>296.02803738317698</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0.10289507447968271</v>
       </c>
@@ -27952,7 +27952,7 @@
         <v>298.130841121495</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.10672719379747495</v>
       </c>
@@ -27960,7 +27960,7 @@
         <v>303.03738317757001</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.10290901110390512</v>
       </c>
@@ -27968,7 +27968,7 @@
         <v>303.03738317757001</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.11220286676966544</v>
       </c>
@@ -27976,7 +27976,7 @@
         <v>309.34579439252298</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.10968430012204518</v>
       </c>
@@ -27984,7 +27984,7 @@
         <v>306.54205607476598</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.11966420440438919</v>
       </c>
@@ -27992,7 +27992,7 @@
         <v>314.25233644859799</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.11719556472063039</v>
       </c>
@@ -28000,7 +28000,7 @@
         <v>314.25233644859799</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.12497342208992307</v>
       </c>
@@ -28008,7 +28008,7 @@
         <v>317.05607476635498</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.13022459953393611</v>
       </c>
@@ -28016,7 +28016,7 @@
         <v>321.96261682242903</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.1346227723613071</v>
       </c>
@@ -28024,7 +28024,7 @@
         <v>327.57009345794302</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.13897668870504512</v>
       </c>
@@ -28032,7 +28032,7 @@
         <v>333.17757009345701</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.1452254450266946</v>
       </c>
@@ -28040,7 +28040,7 @@
         <v>338.785046728971</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.1517652399550746</v>
       </c>
@@ -28048,7 +28048,7 @@
         <v>344.39252336448499</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.14717491728440613</v>
       </c>
@@ -28056,7 +28056,7 @@
         <v>346.495327102803</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.14525617175323022</v>
       </c>
@@ -28064,7 +28064,7 @@
         <v>350.70093457943898</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.14294006894173114</v>
       </c>
@@ -28072,7 +28072,7 @@
         <v>354.90654205607399</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.13983050546898024</v>
       </c>
@@ -28080,7 +28080,7 @@
         <v>359.813084112149</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.13511344325649974</v>
       </c>
@@ -28088,7 +28088,7 @@
         <v>363.31775700934497</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.13313811864284408</v>
       </c>
@@ -28096,7 +28096,7 @@
         <v>366.822429906541</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.13195790735523699</v>
       </c>
@@ -28104,7 +28104,7 @@
         <v>372.42990654205602</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.11409605166393115</v>
       </c>
@@ -28112,7 +28112,7 @@
         <v>391.35514018691498</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.10573316483687741</v>
       </c>
@@ -28120,7 +28120,7 @@
         <v>400.46728971962602</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.10020318391545151</v>
       </c>
@@ -28128,7 +28128,7 @@
         <v>403.27102803738302</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>8.7637920155527863E-2</v>
       </c>
@@ -28136,7 +28136,7 @@
         <v>416.58878504672799</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>6.7856844539121858E-2</v>
       </c>
@@ -28144,7 +28144,7 @@
         <v>426.40186915887801</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>5.6691101599657748E-2</v>
       </c>
@@ -28152,7 +28152,7 @@
         <v>428.50467289719597</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>4.3820512652031338E-2</v>
       </c>
@@ -28160,7 +28160,7 @@
         <v>435.51401869158798</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>3.7500188504979277E-2</v>
       </c>
@@ -28168,7 +28168,7 @@
         <v>439.71962616822401</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2.8102218641202464E-2</v>
       </c>
@@ -28176,7 +28176,7 @@
         <v>443.22429906541998</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2.2071139351636924E-2</v>
       </c>
@@ -28184,7 +28184,7 @@
         <v>445.327102803738</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2.056411522452042E-2</v>
       </c>
@@ -28192,7 +28192,7 @@
         <v>449.53271028037301</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1.5478208863131698E-2</v>
       </c>
@@ -28200,7 +28200,7 @@
         <v>455.140186915887</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1.2401715239417915E-2</v>
       </c>
@@ -28208,7 +28208,7 @@
         <v>458.644859813084</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>9.8252660039917054E-3</v>
       </c>
@@ -28216,7 +28216,7 @@
         <v>462.14953271028003</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>8.2899653283124413E-3</v>
       </c>
@@ -28224,7 +28224,7 @@
         <v>469.15887850467197</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>6.2200028955656577E-3</v>
       </c>
@@ -28232,7 +28232,7 @@
         <v>474.06542056074699</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>5.1854503313268213E-3</v>
       </c>
@@ -28240,7 +28240,7 @@
         <v>477.57009345794302</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>6.2688646389597938E-3</v>
       </c>
@@ -28248,7 +28248,7 @@
         <v>488.08411214953202</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>3.682376789907313E-3</v>
       </c>
@@ -28256,7 +28256,7 @@
         <v>497.89719626168198</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.16936979186525777</v>
       </c>
@@ -28264,7 +28264,7 @@
         <v>373.83177570093397</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0.16678957932722038</v>
       </c>
@@ -28272,7 +28272,7 @@
         <v>367.52336448598101</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.16419674321610564</v>
       </c>
@@ -28280,7 +28280,7 @@
         <v>362.61682242990599</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.16270613010506427</v>
       </c>
@@ -28288,7 +28288,7 @@
         <v>359.11214953271002</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0.16232092825340913</v>
       </c>
@@ -28296,7 +28296,7 @@
         <v>353.50467289719597</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0.16786675620829028</v>
       </c>
@@ -28304,7 +28304,7 @@
         <v>357.71028037383098</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0.17261374229897372</v>
       </c>
@@ -28312,7 +28312,7 @@
         <v>361.21495327102798</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0.17694840158764344</v>
       </c>
@@ -28320,7 +28320,7 @@
         <v>364.71962616822401</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0.17874766920552052</v>
       </c>
@@ -28328,7 +28328,7 @@
         <v>368.92523364485902</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0.1833667199715546</v>
       </c>
@@ -28336,7 +28336,7 @@
         <v>370.327102803738</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.11672681001201546</v>
       </c>
@@ -28344,7 +28344,7 @@
         <v>293.92523364485902</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.11296266811466504</v>
       </c>
@@ -28352,7 +28352,7 @@
         <v>282.71028037383098</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0.10747865664497834</v>
       </c>
@@ -28360,7 +28360,7 @@
         <v>270.09345794392499</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0.10627491799126541</v>
       </c>
@@ -28368,7 +28368,7 @@
         <v>292.52336448598101</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0.11384746094644395</v>
       </c>
@@ -28376,7 +28376,7 @@
         <v>301.63551401869103</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0.11386300195349584</v>
       </c>
@@ -28384,7 +28384,7 @@
         <v>307.24299065420502</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>7.789131638745278E-2</v>
       </c>
@@ -28406,17 +28406,17 @@
       <selection activeCell="M4" sqref="M4:N87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" customWidth="1"/>
+    <col min="8" max="8" width="12.36328125" customWidth="1"/>
+    <col min="11" max="11" width="12.36328125" customWidth="1"/>
+    <col min="14" max="14" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -28424,7 +28424,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -28444,7 +28444,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3.940093261019946E-2</v>
       </c>
@@ -28476,7 +28476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>5.8075911624839695E-2</v>
       </c>
@@ -28508,7 +28508,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>6.4606194837027023E-2</v>
       </c>
@@ -28540,7 +28540,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>7.2425751990408904E-2</v>
       </c>
@@ -28572,7 +28572,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7.9673742064779007E-2</v>
       </c>
@@ -28604,7 +28604,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8.4150645386805334E-2</v>
       </c>
@@ -28636,7 +28636,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8.9901610308777843E-2</v>
       </c>
@@ -28668,7 +28668,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9.1223386184597008E-2</v>
       </c>
@@ -28700,7 +28700,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9.6442023145290726E-2</v>
       </c>
@@ -28732,7 +28732,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>9.9477533598176196E-2</v>
       </c>
@@ -28764,7 +28764,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>9.6884126112510627E-2</v>
       </c>
@@ -28796,7 +28796,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>9.471388056444241E-2</v>
       </c>
@@ -28828,7 +28828,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>9.254540266239869E-2</v>
       </c>
@@ -28860,7 +28860,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.10289507447968271</v>
       </c>
@@ -28892,7 +28892,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.10672719379747495</v>
       </c>
@@ -28924,7 +28924,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.10290901110390512</v>
       </c>
@@ -28956,7 +28956,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.11220286676966544</v>
       </c>
@@ -28988,7 +28988,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.10968430012204518</v>
       </c>
@@ -29020,7 +29020,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.11966420440438919</v>
       </c>
@@ -29052,7 +29052,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.11719556472063039</v>
       </c>
@@ -29084,7 +29084,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.12497342208992307</v>
       </c>
@@ -29116,7 +29116,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.13022459953393611</v>
       </c>
@@ -29148,7 +29148,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.1346227723613071</v>
       </c>
@@ -29180,7 +29180,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.13897668870504512</v>
       </c>
@@ -29212,7 +29212,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.1452254450266946</v>
       </c>
@@ -29244,7 +29244,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.1517652399550746</v>
       </c>
@@ -29276,7 +29276,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.14717491728440613</v>
       </c>
@@ -29308,7 +29308,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.14525617175323022</v>
       </c>
@@ -29340,7 +29340,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.14294006894173114</v>
       </c>
@@ -29372,7 +29372,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.13983050546898024</v>
       </c>
@@ -29404,7 +29404,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.13511344325649974</v>
       </c>
@@ -29436,7 +29436,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.13313811864284408</v>
       </c>
@@ -29468,7 +29468,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.13195790735523699</v>
       </c>
@@ -29500,7 +29500,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.11409605166393115</v>
       </c>
@@ -29532,7 +29532,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.10573316483687741</v>
       </c>
@@ -29564,7 +29564,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.10020318391545151</v>
       </c>
@@ -29596,7 +29596,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>8.7637920155527863E-2</v>
       </c>
@@ -29628,7 +29628,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>6.7856844539121858E-2</v>
       </c>
@@ -29660,7 +29660,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>5.6691101599657748E-2</v>
       </c>
@@ -29692,7 +29692,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>4.3820512652031338E-2</v>
       </c>
@@ -29724,7 +29724,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>3.7500188504979277E-2</v>
       </c>
@@ -29750,7 +29750,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2.8102218641202464E-2</v>
       </c>
@@ -29776,7 +29776,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2.2071139351636924E-2</v>
       </c>
@@ -29802,7 +29802,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2.056411522452042E-2</v>
       </c>
@@ -29828,7 +29828,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1.5478208863131698E-2</v>
       </c>
@@ -29854,7 +29854,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>1.2401715239417915E-2</v>
       </c>
@@ -29880,7 +29880,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>9.8252660039917054E-3</v>
       </c>
@@ -29906,7 +29906,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>8.2899653283124413E-3</v>
       </c>
@@ -29932,7 +29932,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>6.2200028955656577E-3</v>
       </c>
@@ -29958,7 +29958,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>5.1854503313268213E-3</v>
       </c>
@@ -29984,7 +29984,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>6.2688646389597938E-3</v>
       </c>
@@ -30010,7 +30010,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>3.682376789907313E-3</v>
       </c>
@@ -30036,7 +30036,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0.16936979186525777</v>
       </c>
@@ -30062,7 +30062,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.16678957932722038</v>
       </c>
@@ -30088,7 +30088,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.16419674321610564</v>
       </c>
@@ -30114,7 +30114,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0.16270613010506427</v>
       </c>
@@ -30140,7 +30140,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0.16232092825340913</v>
       </c>
@@ -30166,7 +30166,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0.16786675620829028</v>
       </c>
@@ -30192,7 +30192,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0.17261374229897372</v>
       </c>
@@ -30218,7 +30218,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0.17694840158764344</v>
       </c>
@@ -30244,7 +30244,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0.17874766920552052</v>
       </c>
@@ -30270,7 +30270,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.1833667199715546</v>
       </c>
@@ -30296,7 +30296,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.11672681001201546</v>
       </c>
@@ -30322,7 +30322,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0.11296266811466504</v>
       </c>
@@ -30348,7 +30348,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0.10747865664497834</v>
       </c>
@@ -30374,7 +30374,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0.10627491799126541</v>
       </c>
@@ -30400,7 +30400,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0.11384746094644395</v>
       </c>
@@ -30426,7 +30426,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0.11386300195349584</v>
       </c>
@@ -30452,7 +30452,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>7.789131638745278E-2</v>
       </c>
@@ -30478,7 +30478,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D72">
         <v>8.8831999999999994E-2</v>
       </c>
@@ -30498,7 +30498,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D73">
         <v>8.7299100000000004E-2</v>
       </c>
@@ -30518,7 +30518,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D74">
         <v>8.5748099999999994E-2</v>
       </c>
@@ -30538,7 +30538,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D75">
         <v>8.4179100000000007E-2</v>
       </c>
@@ -30558,7 +30558,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D76">
         <v>8.2592100000000002E-2</v>
       </c>
@@ -30578,7 +30578,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D77">
         <v>8.0987100000000006E-2</v>
       </c>
@@ -30598,7 +30598,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D78">
         <v>7.9364100000000007E-2</v>
       </c>
@@ -30618,7 +30618,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D79">
         <v>7.7723100000000003E-2</v>
       </c>
@@ -30638,7 +30638,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D80">
         <v>7.6064099999999996E-2</v>
       </c>
@@ -30658,7 +30658,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="81" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D81">
         <v>7.4387099999999998E-2</v>
       </c>
@@ -30678,7 +30678,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="82" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D82">
         <v>7.2692099999999996E-2</v>
       </c>
@@ -30698,7 +30698,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="83" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D83">
         <v>7.0979100000000003E-2</v>
       </c>
@@ -30718,7 +30718,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="84" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D84">
         <v>6.9248100000000007E-2</v>
       </c>
@@ -30738,7 +30738,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="85" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D85">
         <v>6.7499199999999995E-2</v>
       </c>
@@ -30758,7 +30758,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="86" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D86">
         <v>6.5732200000000005E-2</v>
       </c>
@@ -30778,7 +30778,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="87" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D87">
         <v>6.3947199999999996E-2</v>
       </c>
@@ -30798,7 +30798,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="88" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D88">
         <v>6.2144199999999997E-2</v>
       </c>
@@ -30812,7 +30812,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="89" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D89">
         <v>6.03232E-2</v>
       </c>
@@ -30826,7 +30826,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="90" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D90">
         <v>5.84842E-2</v>
       </c>
@@ -30840,7 +30840,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="91" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D91">
         <v>5.6627200000000003E-2</v>
       </c>
@@ -30854,7 +30854,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="92" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D92">
         <v>5.4752200000000001E-2</v>
       </c>
@@ -30868,7 +30868,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="93" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D93">
         <v>5.2859200000000002E-2</v>
       </c>
@@ -30882,7 +30882,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="94" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D94">
         <v>5.0948199999999999E-2</v>
       </c>
@@ -30896,7 +30896,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="95" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D95">
         <v>4.9019199999999999E-2</v>
       </c>
@@ -30910,7 +30910,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="96" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D96">
         <v>4.7072200000000002E-2</v>
       </c>
@@ -30924,7 +30924,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="97" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D97">
         <v>4.5107300000000003E-2</v>
       </c>
@@ -30938,7 +30938,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="98" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D98">
         <v>4.3124299999999997E-2</v>
       </c>
@@ -30952,7 +30952,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="99" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D99">
         <v>4.1123300000000002E-2</v>
       </c>
@@ -30966,7 +30966,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="100" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D100">
         <v>3.9104300000000002E-2</v>
       </c>
@@ -30980,7 +30980,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="101" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D101">
         <v>3.7067299999999997E-2</v>
       </c>
@@ -30994,7 +30994,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="102" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D102">
         <v>3.5012300000000003E-2</v>
       </c>
@@ -31008,7 +31008,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="103" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D103">
         <v>3.2939299999999998E-2</v>
       </c>
@@ -31022,7 +31022,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="104" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D104">
         <v>3.0848299999999999E-2</v>
       </c>
@@ -31036,7 +31036,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="105" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D105">
         <v>2.8739299999999999E-2</v>
       </c>
@@ -31050,7 +31050,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="106" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D106">
         <v>2.6612299999999998E-2</v>
       </c>
@@ -31064,7 +31064,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="107" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D107">
         <v>2.4467300000000001E-2</v>
       </c>
@@ -31078,7 +31078,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="108" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D108">
         <v>2.2304299999999999E-2</v>
       </c>
@@ -31092,7 +31092,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="109" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D109">
         <v>2.01234E-2</v>
       </c>
@@ -31106,7 +31106,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="110" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D110">
         <v>1.79244E-2</v>
       </c>
@@ -31120,7 +31120,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="111" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D111">
         <v>1.57074E-2</v>
       </c>
@@ -31134,7 +31134,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="112" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D112">
         <v>1.3472400000000001E-2</v>
       </c>
@@ -31148,7 +31148,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="113" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D113">
         <v>1.1219399999999999E-2</v>
       </c>
@@ -31162,7 +31162,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="114" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D114">
         <v>8.9483900000000005E-3</v>
       </c>
@@ -31176,7 +31176,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="115" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D115">
         <v>6.6593900000000003E-3</v>
       </c>
@@ -31190,7 +31190,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="116" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D116">
         <v>4.3523700000000004E-3</v>
       </c>
@@ -31204,7 +31204,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="117" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D117">
         <v>2.0271099999999999E-3</v>
       </c>
@@ -31218,7 +31218,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="118" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:11" x14ac:dyDescent="0.35">
       <c r="J118">
         <v>0.16517200000000001</v>
       </c>
@@ -31226,7 +31226,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="119" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:11" x14ac:dyDescent="0.35">
       <c r="J119">
         <v>0.16569800000000001</v>
       </c>
@@ -31234,7 +31234,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="120" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:11" x14ac:dyDescent="0.35">
       <c r="J120">
         <v>0.166212</v>
       </c>
@@ -31242,7 +31242,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="121" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:11" x14ac:dyDescent="0.35">
       <c r="J121">
         <v>0.166714</v>
       </c>
@@ -31250,7 +31250,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="122" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:11" x14ac:dyDescent="0.35">
       <c r="J122">
         <v>0.16720399999999999</v>
       </c>
@@ -31258,7 +31258,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="123" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:11" x14ac:dyDescent="0.35">
       <c r="J123">
         <v>0.167682</v>
       </c>
@@ -31266,7 +31266,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="124" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:11" x14ac:dyDescent="0.35">
       <c r="J124">
         <v>0.16814799999999999</v>
       </c>
@@ -31274,7 +31274,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="125" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:11" x14ac:dyDescent="0.35">
       <c r="J125">
         <v>0.168602</v>
       </c>
@@ -31282,7 +31282,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="126" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:11" x14ac:dyDescent="0.35">
       <c r="J126">
         <v>0.169044</v>
       </c>
@@ -31290,7 +31290,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="127" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:11" x14ac:dyDescent="0.35">
       <c r="J127">
         <v>0.16947400000000001</v>
       </c>
@@ -31298,7 +31298,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="128" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="4:11" x14ac:dyDescent="0.35">
       <c r="J128">
         <v>0.16989099999999999</v>
       </c>
@@ -31306,7 +31306,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="129" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J129">
         <v>0.170297</v>
       </c>
@@ -31314,7 +31314,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="130" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J130">
         <v>0.17069100000000001</v>
       </c>
@@ -31322,7 +31322,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="131" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J131">
         <v>0.171073</v>
       </c>
@@ -31330,7 +31330,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="132" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J132">
         <v>0.17144300000000001</v>
       </c>
@@ -31338,7 +31338,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="133" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J133">
         <v>0.17180100000000001</v>
       </c>
@@ -31346,7 +31346,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="134" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J134">
         <v>0.17214699999999999</v>
       </c>
@@ -31354,7 +31354,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="135" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J135">
         <v>0.172481</v>
       </c>
@@ -31362,7 +31362,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="136" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J136">
         <v>0.17280300000000001</v>
       </c>
@@ -31370,7 +31370,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="137" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J137">
         <v>0.17311299999999999</v>
       </c>
@@ -31378,7 +31378,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="138" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J138">
         <v>0.17341100000000001</v>
       </c>
@@ -31386,7 +31386,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="139" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J139">
         <v>0.17369699999999999</v>
       </c>
@@ -31394,7 +31394,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="140" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J140">
         <v>0.17397099999999999</v>
       </c>
@@ -31402,7 +31402,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="141" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J141">
         <v>0.174233</v>
       </c>
@@ -31410,7 +31410,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="142" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J142">
         <v>0.174483</v>
       </c>
@@ -31418,7 +31418,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="143" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J143">
         <v>0.17472099999999999</v>
       </c>
@@ -31426,7 +31426,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="144" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J144">
         <v>0.17494699999999999</v>
       </c>
@@ -31434,7 +31434,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="145" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J145">
         <v>0.17516100000000001</v>
       </c>
@@ -31442,7 +31442,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="146" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J146">
         <v>0.17536299999999999</v>
       </c>
@@ -31450,7 +31450,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="147" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J147">
         <v>0.17555299999999999</v>
       </c>
@@ -31458,7 +31458,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="148" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J148">
         <v>0.175731</v>
       </c>
@@ -31466,7 +31466,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="149" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J149">
         <v>0.175897</v>
       </c>
@@ -31474,7 +31474,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="150" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J150">
         <v>0.17605100000000001</v>
       </c>
@@ -31482,7 +31482,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="151" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J151">
         <v>0.17619299999999999</v>
       </c>
@@ -31490,7 +31490,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="152" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J152">
         <v>0.17632300000000001</v>
       </c>
@@ -31498,7 +31498,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="153" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J153">
         <v>0.17644099999999999</v>
       </c>
@@ -31516,18 +31516,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556E2A7A-4B7B-4A50-AF35-9F50D05A118E}">
   <dimension ref="A1:F354"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -31535,7 +31535,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -31549,7 +31549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3.940093261019946E-2</v>
       </c>
@@ -31566,7 +31566,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>5.8075911624839695E-2</v>
       </c>
@@ -31580,7 +31580,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>6.4606194837027023E-2</v>
       </c>
@@ -31594,7 +31594,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>7.2425751990408904E-2</v>
       </c>
@@ -31608,7 +31608,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7.9673742064779007E-2</v>
       </c>
@@ -31622,7 +31622,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8.4150645386805334E-2</v>
       </c>
@@ -31636,7 +31636,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8.9901610308777843E-2</v>
       </c>
@@ -31650,7 +31650,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9.1223386184597008E-2</v>
       </c>
@@ -31664,7 +31664,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9.6442023145290726E-2</v>
       </c>
@@ -31678,7 +31678,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>9.9477533598176196E-2</v>
       </c>
@@ -31692,7 +31692,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>9.6884126112510627E-2</v>
       </c>
@@ -31706,7 +31706,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>9.471388056444241E-2</v>
       </c>
@@ -31720,7 +31720,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>9.254540266239869E-2</v>
       </c>
@@ -31734,7 +31734,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.10289507447968271</v>
       </c>
@@ -31748,7 +31748,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.10672719379747495</v>
       </c>
@@ -31762,7 +31762,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.10290901110390512</v>
       </c>
@@ -31776,7 +31776,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.11220286676966544</v>
       </c>
@@ -31790,7 +31790,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.10968430012204518</v>
       </c>
@@ -31804,7 +31804,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.11966420440438919</v>
       </c>
@@ -31818,7 +31818,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.11719556472063039</v>
       </c>
@@ -31832,7 +31832,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.12497342208992307</v>
       </c>
@@ -31846,7 +31846,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.13022459953393611</v>
       </c>
@@ -31860,7 +31860,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.1346227723613071</v>
       </c>
@@ -31874,7 +31874,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.13897668870504512</v>
       </c>
@@ -31888,7 +31888,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.1452254450266946</v>
       </c>
@@ -31902,7 +31902,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.1517652399550746</v>
       </c>
@@ -31916,7 +31916,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.14717491728440613</v>
       </c>
@@ -31930,7 +31930,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.14525617175323022</v>
       </c>
@@ -31944,7 +31944,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.14294006894173114</v>
       </c>
@@ -31958,7 +31958,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.13983050546898024</v>
       </c>
@@ -31972,7 +31972,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.13511344325649974</v>
       </c>
@@ -31986,7 +31986,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.13313811864284408</v>
       </c>
@@ -32000,7 +32000,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.13195790735523699</v>
       </c>
@@ -32014,7 +32014,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.11409605166393115</v>
       </c>
@@ -32028,7 +32028,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.10573316483687741</v>
       </c>
@@ -32042,7 +32042,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.10020318391545151</v>
       </c>
@@ -32056,7 +32056,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>8.7637920155527863E-2</v>
       </c>
@@ -32070,7 +32070,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>6.7856844539121858E-2</v>
       </c>
@@ -32084,7 +32084,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>5.6691101599657748E-2</v>
       </c>
@@ -32098,7 +32098,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>4.3820512652031338E-2</v>
       </c>
@@ -32112,7 +32112,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>3.7500188504979277E-2</v>
       </c>
@@ -32126,7 +32126,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2.8102218641202464E-2</v>
       </c>
@@ -32140,7 +32140,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2.2071139351636924E-2</v>
       </c>
@@ -32154,7 +32154,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2.056411522452042E-2</v>
       </c>
@@ -32168,7 +32168,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1.5478208863131698E-2</v>
       </c>
@@ -32182,7 +32182,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>1.2401715239417915E-2</v>
       </c>
@@ -32196,7 +32196,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>9.8252660039917054E-3</v>
       </c>
@@ -32210,7 +32210,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>8.2899653283124413E-3</v>
       </c>
@@ -32224,7 +32224,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>6.2200028955656577E-3</v>
       </c>
@@ -32238,7 +32238,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>5.1854503313268213E-3</v>
       </c>
@@ -32252,7 +32252,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>6.2688646389597938E-3</v>
       </c>
@@ -32266,7 +32266,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>3.682376789907313E-3</v>
       </c>
@@ -32280,7 +32280,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0.16936979186525777</v>
       </c>
@@ -32294,7 +32294,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.16678957932722038</v>
       </c>
@@ -32308,7 +32308,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.16419674321610564</v>
       </c>
@@ -32322,7 +32322,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0.16270613010506427</v>
       </c>
@@ -32336,7 +32336,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0.16232092825340913</v>
       </c>
@@ -32350,7 +32350,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0.16786675620829028</v>
       </c>
@@ -32364,7 +32364,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0.17261374229897372</v>
       </c>
@@ -32378,7 +32378,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0.17694840158764344</v>
       </c>
@@ -32392,7 +32392,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0.17874766920552052</v>
       </c>
@@ -32406,7 +32406,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.1833667199715546</v>
       </c>
@@ -32420,7 +32420,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.11672681001201546</v>
       </c>
@@ -32434,7 +32434,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0.11296266811466504</v>
       </c>
@@ -32448,7 +32448,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0.10747865664497834</v>
       </c>
@@ -32462,7 +32462,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0.10627491799126541</v>
       </c>
@@ -32476,7 +32476,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0.11384746094644395</v>
       </c>
@@ -32490,7 +32490,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0.11386300195349584</v>
       </c>
@@ -32504,7 +32504,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>7.789131638745278E-2</v>
       </c>
@@ -32518,7 +32518,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D72" s="19">
         <v>8.7299100000000004E-2</v>
       </c>
@@ -32526,7 +32526,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D73" s="19">
         <v>8.5748099999999994E-2</v>
       </c>
@@ -32534,7 +32534,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D74" s="19">
         <v>8.4179100000000007E-2</v>
       </c>
@@ -32542,7 +32542,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D75" s="19">
         <v>8.2592100000000002E-2</v>
       </c>
@@ -32550,7 +32550,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D76" s="19">
         <v>8.0987100000000006E-2</v>
       </c>
@@ -32558,7 +32558,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D77" s="19">
         <v>7.9364100000000007E-2</v>
       </c>
@@ -32566,7 +32566,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D78" s="19">
         <v>7.7723100000000003E-2</v>
       </c>
@@ -32574,7 +32574,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D79" s="19">
         <v>7.6064099999999996E-2</v>
       </c>
@@ -32582,7 +32582,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D80" s="19">
         <v>7.4387099999999998E-2</v>
       </c>
@@ -32590,7 +32590,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D81" s="19">
         <v>7.2692099999999996E-2</v>
       </c>
@@ -32598,7 +32598,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D82" s="19">
         <v>7.0979100000000003E-2</v>
       </c>
@@ -32606,7 +32606,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D83" s="19">
         <v>6.9248100000000007E-2</v>
       </c>
@@ -32614,7 +32614,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D84" s="19">
         <v>6.7499199999999995E-2</v>
       </c>
@@ -32622,7 +32622,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D85" s="19">
         <v>6.5732200000000005E-2</v>
       </c>
@@ -32630,7 +32630,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D86" s="19">
         <v>6.3947199999999996E-2</v>
       </c>
@@ -32638,7 +32638,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D87" s="19">
         <v>6.2144199999999997E-2</v>
       </c>
@@ -32646,7 +32646,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D88" s="19">
         <v>6.03232E-2</v>
       </c>
@@ -32654,7 +32654,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D89" s="19">
         <v>5.84842E-2</v>
       </c>
@@ -32662,7 +32662,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D90" s="19">
         <v>5.6627200000000003E-2</v>
       </c>
@@ -32670,7 +32670,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D91" s="19">
         <v>5.4752200000000001E-2</v>
       </c>
@@ -32678,7 +32678,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D92" s="19">
         <v>5.2859200000000002E-2</v>
       </c>
@@ -32686,7 +32686,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D93" s="19">
         <v>5.0948199999999999E-2</v>
       </c>
@@ -32694,7 +32694,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D94" s="19">
         <v>4.9019199999999999E-2</v>
       </c>
@@ -32702,7 +32702,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D95" s="19">
         <v>4.7072200000000002E-2</v>
       </c>
@@ -32710,7 +32710,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D96" s="19">
         <v>4.5107300000000003E-2</v>
       </c>
@@ -32718,7 +32718,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D97" s="19">
         <v>4.3124299999999997E-2</v>
       </c>
@@ -32726,7 +32726,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D98" s="19">
         <v>4.1123300000000002E-2</v>
       </c>
@@ -32734,7 +32734,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D99" s="19">
         <v>3.9104300000000002E-2</v>
       </c>
@@ -32742,7 +32742,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D100" s="19">
         <v>3.7067299999999997E-2</v>
       </c>
@@ -32750,7 +32750,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D101" s="19">
         <v>3.5012300000000003E-2</v>
       </c>
@@ -32758,7 +32758,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D102" s="19">
         <v>3.2939299999999998E-2</v>
       </c>
@@ -32766,7 +32766,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="103" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D103" s="19">
         <v>3.0848299999999999E-2</v>
       </c>
@@ -32774,7 +32774,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D104" s="19">
         <v>2.8739299999999999E-2</v>
       </c>
@@ -32782,7 +32782,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="105" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D105" s="19">
         <v>2.6612299999999998E-2</v>
       </c>
@@ -32790,7 +32790,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D106" s="19">
         <v>2.4467300000000001E-2</v>
       </c>
@@ -32798,7 +32798,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D107" s="19">
         <v>2.2304299999999999E-2</v>
       </c>
@@ -32806,7 +32806,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D108" s="19">
         <v>2.01234E-2</v>
       </c>
@@ -32814,7 +32814,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D109" s="19">
         <v>1.79244E-2</v>
       </c>
@@ -32822,7 +32822,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D110" s="19">
         <v>1.57074E-2</v>
       </c>
@@ -32830,7 +32830,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D111" s="19">
         <v>1.3472400000000001E-2</v>
       </c>
@@ -32838,7 +32838,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D112" s="19">
         <v>1.1219399999999999E-2</v>
       </c>
@@ -32846,7 +32846,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="113" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D113" s="19">
         <v>8.9483900000000005E-3</v>
       </c>
@@ -32854,7 +32854,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="114" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D114" s="19">
         <v>6.6593900000000003E-3</v>
       </c>
@@ -32862,7 +32862,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="115" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D115" s="19">
         <v>4.3523700000000004E-3</v>
       </c>
@@ -32870,7 +32870,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="116" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D116" s="21">
         <v>2.0271099999999999E-3</v>
       </c>
@@ -32878,22 +32878,22 @@
         <v>463</v>
       </c>
     </row>
-    <row r="117" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D117" s="15"/>
       <c r="E117" s="16"/>
       <c r="F117" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="118" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D118" s="15"/>
       <c r="E118" s="16"/>
     </row>
-    <row r="119" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D119" s="15"/>
       <c r="E119" s="16"/>
     </row>
-    <row r="120" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D120" s="23">
         <v>2.65483E-2</v>
       </c>
@@ -32904,7 +32904,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="121" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D121" s="25">
         <v>2.84423E-2</v>
       </c>
@@ -32912,7 +32912,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="122" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D122" s="25">
         <v>3.0324299999999998E-2</v>
       </c>
@@ -32920,7 +32920,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="123" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D123" s="25">
         <v>3.2194300000000002E-2</v>
       </c>
@@ -32928,7 +32928,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="124" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D124" s="25">
         <v>3.4052300000000001E-2</v>
       </c>
@@ -32936,7 +32936,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="125" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D125" s="25">
         <v>3.5898300000000001E-2</v>
       </c>
@@ -32944,7 +32944,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="126" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D126" s="25">
         <v>3.7732300000000003E-2</v>
       </c>
@@ -32952,7 +32952,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="127" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D127" s="25">
         <v>3.9554300000000001E-2</v>
       </c>
@@ -32960,7 +32960,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="128" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D128" s="25">
         <v>4.13643E-2</v>
       </c>
@@ -32968,7 +32968,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D129" s="25">
         <v>4.3162300000000001E-2</v>
       </c>
@@ -32976,7 +32976,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D130" s="25">
         <v>4.4948299999999997E-2</v>
       </c>
@@ -32984,7 +32984,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D131" s="25">
         <v>4.6722199999999998E-2</v>
       </c>
@@ -32992,7 +32992,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D132" s="25">
         <v>4.8484199999999998E-2</v>
       </c>
@@ -33000,7 +33000,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="133" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D133" s="25">
         <v>5.02342E-2</v>
       </c>
@@ -33008,7 +33008,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="134" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D134" s="25">
         <v>5.1972200000000003E-2</v>
       </c>
@@ -33016,7 +33016,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="135" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D135" s="25">
         <v>5.3698200000000001E-2</v>
       </c>
@@ -33024,7 +33024,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="136" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D136" s="25">
         <v>5.5412200000000002E-2</v>
       </c>
@@ -33032,7 +33032,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="137" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D137" s="25">
         <v>5.7114199999999997E-2</v>
       </c>
@@ -33040,7 +33040,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="138" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D138" s="25">
         <v>5.8804200000000001E-2</v>
       </c>
@@ -33048,7 +33048,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="139" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D139" s="25">
         <v>6.04822E-2</v>
       </c>
@@ -33056,7 +33056,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="140" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D140" s="25">
         <v>6.2148200000000001E-2</v>
       </c>
@@ -33064,7 +33064,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="141" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D141" s="25">
         <v>6.3802200000000003E-2</v>
       </c>
@@ -33072,7 +33072,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="142" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D142" s="25">
         <v>6.5444199999999994E-2</v>
       </c>
@@ -33080,7 +33080,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="143" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D143" s="25">
         <v>6.70742E-2</v>
       </c>
@@ -33088,7 +33088,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="144" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D144" s="25">
         <v>6.8692100000000006E-2</v>
       </c>
@@ -33096,7 +33096,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="145" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D145" s="25">
         <v>7.0298100000000002E-2</v>
       </c>
@@ -33104,7 +33104,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="146" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D146" s="25">
         <v>7.18921E-2</v>
       </c>
@@ -33112,7 +33112,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="147" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D147" s="25">
         <v>7.3474100000000001E-2</v>
       </c>
@@ -33120,7 +33120,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="148" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D148" s="25">
         <v>7.5044100000000002E-2</v>
       </c>
@@ -33128,7 +33128,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="149" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D149" s="25">
         <v>7.6602100000000006E-2</v>
       </c>
@@ -33136,7 +33136,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="150" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D150" s="25">
         <v>7.8148099999999998E-2</v>
       </c>
@@ -33144,7 +33144,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="151" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D151" s="25">
         <v>7.9682100000000006E-2</v>
       </c>
@@ -33152,7 +33152,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="152" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D152" s="25">
         <v>8.1204100000000001E-2</v>
       </c>
@@ -33160,7 +33160,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="153" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D153" s="25">
         <v>8.2714099999999999E-2</v>
       </c>
@@ -33168,7 +33168,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="154" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D154" s="25">
         <v>8.4212099999999998E-2</v>
       </c>
@@ -33176,7 +33176,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="155" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D155" s="25">
         <v>8.5698099999999999E-2</v>
       </c>
@@ -33184,7 +33184,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="156" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D156" s="25">
         <v>8.7172100000000002E-2</v>
       </c>
@@ -33192,7 +33192,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="157" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D157" s="25">
         <v>8.8634000000000004E-2</v>
       </c>
@@ -33200,7 +33200,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="158" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D158" s="25">
         <v>9.0083999999999997E-2</v>
       </c>
@@ -33208,7 +33208,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="159" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D159" s="25">
         <v>9.1522000000000006E-2</v>
       </c>
@@ -33216,7 +33216,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="160" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D160" s="25">
         <v>9.2948000000000003E-2</v>
       </c>
@@ -33224,7 +33224,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="161" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D161" s="25">
         <v>9.4362000000000001E-2</v>
       </c>
@@ -33232,7 +33232,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="162" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D162" s="25">
         <v>9.5764000000000002E-2</v>
       </c>
@@ -33240,7 +33240,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="163" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D163" s="25">
         <v>9.7154000000000004E-2</v>
       </c>
@@ -33248,7 +33248,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D164" s="25">
         <v>9.8531999999999995E-2</v>
       </c>
@@ -33256,7 +33256,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="165" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D165" s="25">
         <v>9.9898000000000001E-2</v>
       </c>
@@ -33264,7 +33264,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D166" s="25">
         <v>0.10125199999999999</v>
       </c>
@@ -33272,7 +33272,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D167" s="25">
         <v>0.102594</v>
       </c>
@@ -33280,7 +33280,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D168" s="25">
         <v>0.103924</v>
       </c>
@@ -33288,7 +33288,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="169" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D169" s="25">
         <v>0.105242</v>
       </c>
@@ -33296,7 +33296,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="170" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D170" s="25">
         <v>0.106548</v>
       </c>
@@ -33304,7 +33304,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D171" s="25">
         <v>0.10784199999999999</v>
       </c>
@@ -33312,7 +33312,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="172" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D172" s="25">
         <v>0.109124</v>
       </c>
@@ -33320,7 +33320,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="173" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D173" s="25">
         <v>0.11039400000000001</v>
       </c>
@@ -33328,7 +33328,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="174" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D174" s="25">
         <v>0.111652</v>
       </c>
@@ -33336,7 +33336,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="175" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D175" s="25">
         <v>0.112898</v>
       </c>
@@ -33344,7 +33344,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="176" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D176" s="25">
         <v>0.114132</v>
       </c>
@@ -33352,7 +33352,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D177" s="25">
         <v>0.115354</v>
       </c>
@@ -33360,7 +33360,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D178" s="25">
         <v>0.116564</v>
       </c>
@@ -33368,7 +33368,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D179" s="25">
         <v>0.11776200000000001</v>
       </c>
@@ -33376,7 +33376,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="180" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D180" s="25">
         <v>0.118948</v>
       </c>
@@ -33384,7 +33384,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="181" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D181" s="25">
         <v>0.12012200000000001</v>
       </c>
@@ -33392,7 +33392,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="182" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D182" s="25">
         <v>0.121284</v>
       </c>
@@ -33400,7 +33400,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="183" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D183" s="25">
         <v>0.122434</v>
       </c>
@@ -33408,7 +33408,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="184" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D184" s="25">
         <v>0.123572</v>
       </c>
@@ -33416,7 +33416,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="185" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D185" s="25">
         <v>0.124698</v>
       </c>
@@ -33424,7 +33424,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="186" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D186" s="25">
         <v>0.12581200000000001</v>
       </c>
@@ -33432,7 +33432,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="187" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D187" s="25">
         <v>0.126914</v>
       </c>
@@ -33440,7 +33440,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="188" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D188" s="25">
         <v>0.12800400000000001</v>
       </c>
@@ -33448,7 +33448,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="189" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D189" s="25">
         <v>0.129082</v>
       </c>
@@ -33456,7 +33456,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="190" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D190" s="25">
         <v>0.13014800000000001</v>
       </c>
@@ -33464,7 +33464,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="191" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D191" s="25">
         <v>0.13120200000000001</v>
       </c>
@@ -33472,7 +33472,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="192" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D192" s="25">
         <v>0.132244</v>
       </c>
@@ -33480,7 +33480,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="193" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D193" s="25">
         <v>0.133274</v>
       </c>
@@ -33488,7 +33488,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="194" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D194" s="25">
         <v>0.13429199999999999</v>
       </c>
@@ -33496,7 +33496,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="195" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D195" s="25">
         <v>0.135298</v>
       </c>
@@ -33504,7 +33504,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="196" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D196" s="25">
         <v>0.136292</v>
       </c>
@@ -33512,7 +33512,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="197" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D197" s="25">
         <v>0.13727400000000001</v>
       </c>
@@ -33520,7 +33520,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="198" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D198" s="25">
         <v>0.13824400000000001</v>
       </c>
@@ -33528,7 +33528,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="199" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D199" s="25">
         <v>0.13920199999999999</v>
       </c>
@@ -33536,7 +33536,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="200" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D200" s="25">
         <v>0.14014799999999999</v>
       </c>
@@ -33544,7 +33544,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="201" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D201" s="25">
         <v>0.14108200000000001</v>
       </c>
@@ -33552,7 +33552,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="202" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D202" s="25">
         <v>0.14200399999999999</v>
       </c>
@@ -33560,7 +33560,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="203" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D203" s="25">
         <v>0.14291400000000001</v>
       </c>
@@ -33568,7 +33568,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="204" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D204" s="25">
         <v>0.143812</v>
       </c>
@@ -33576,7 +33576,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="205" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D205" s="25">
         <v>0.14469799999999999</v>
       </c>
@@ -33584,7 +33584,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="206" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D206" s="25">
         <v>0.14557200000000001</v>
       </c>
@@ -33592,7 +33592,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="207" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D207" s="25">
         <v>0.14643400000000001</v>
       </c>
@@ -33600,7 +33600,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="208" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D208" s="25">
         <v>0.147284</v>
       </c>
@@ -33608,7 +33608,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="209" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D209" s="25">
         <v>0.148122</v>
       </c>
@@ -33616,7 +33616,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="210" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D210" s="25">
         <v>0.148948</v>
       </c>
@@ -33624,7 +33624,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="211" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D211" s="25">
         <v>0.14976200000000001</v>
       </c>
@@ -33632,7 +33632,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="212" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D212" s="25">
         <v>0.150564</v>
       </c>
@@ -33640,7 +33640,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="213" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D213" s="25">
         <v>0.15135399999999999</v>
       </c>
@@ -33648,7 +33648,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="214" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D214" s="25">
         <v>0.15213199999999999</v>
       </c>
@@ -33656,7 +33656,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="215" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D215" s="25">
         <v>0.15289800000000001</v>
       </c>
@@ -33664,7 +33664,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="216" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D216" s="25">
         <v>0.15365200000000001</v>
       </c>
@@ -33672,7 +33672,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="217" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D217" s="25">
         <v>0.154394</v>
       </c>
@@ -33680,7 +33680,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="218" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D218" s="25">
         <v>0.15512400000000001</v>
       </c>
@@ -33688,7 +33688,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="219" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D219" s="25">
         <v>0.15584200000000001</v>
       </c>
@@ -33696,7 +33696,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="220" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D220" s="25">
         <v>0.15654799999999999</v>
       </c>
@@ -33704,7 +33704,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="221" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D221" s="25">
         <v>0.15724199999999999</v>
       </c>
@@ -33712,7 +33712,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="222" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D222" s="25">
         <v>0.15792400000000001</v>
       </c>
@@ -33720,7 +33720,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="223" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D223" s="25">
         <v>0.15859400000000001</v>
       </c>
@@ -33728,7 +33728,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="224" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D224" s="25">
         <v>0.159252</v>
       </c>
@@ -33736,7 +33736,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="225" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D225" s="25">
         <v>0.15989800000000001</v>
       </c>
@@ -33744,7 +33744,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="226" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D226" s="25">
         <v>0.16053200000000001</v>
       </c>
@@ -33752,7 +33752,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="227" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D227" s="25">
         <v>0.16115399999999999</v>
       </c>
@@ -33760,7 +33760,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="228" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D228" s="25">
         <v>0.16176399999999999</v>
       </c>
@@ -33768,7 +33768,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="229" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D229" s="25">
         <v>0.16236200000000001</v>
       </c>
@@ -33776,7 +33776,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="230" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D230" s="25">
         <v>0.16294800000000001</v>
       </c>
@@ -33784,7 +33784,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="231" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D231" s="25">
         <v>0.163522</v>
       </c>
@@ -33792,7 +33792,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="232" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D232" s="25">
         <v>0.16408400000000001</v>
       </c>
@@ -33800,7 +33800,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="233" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D233" s="25">
         <v>0.164634</v>
       </c>
@@ -33808,7 +33808,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="234" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D234" s="25">
         <v>0.16517200000000001</v>
       </c>
@@ -33816,7 +33816,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="235" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D235" s="25">
         <v>0.16569800000000001</v>
       </c>
@@ -33824,7 +33824,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="236" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D236" s="25">
         <v>0.166212</v>
       </c>
@@ -33832,7 +33832,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="237" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D237" s="25">
         <v>0.166714</v>
       </c>
@@ -33840,7 +33840,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="238" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D238" s="25">
         <v>0.16720399999999999</v>
       </c>
@@ -33848,7 +33848,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="239" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D239" s="25">
         <v>0.167682</v>
       </c>
@@ -33856,7 +33856,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="240" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D240" s="25">
         <v>0.16814799999999999</v>
       </c>
@@ -33864,7 +33864,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="241" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D241" s="25">
         <v>0.168602</v>
       </c>
@@ -33872,7 +33872,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="242" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D242" s="25">
         <v>0.169044</v>
       </c>
@@ -33880,7 +33880,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="243" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D243" s="25">
         <v>0.16947400000000001</v>
       </c>
@@ -33888,7 +33888,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="244" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D244" s="25">
         <v>0.16989099999999999</v>
       </c>
@@ -33896,7 +33896,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="245" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D245" s="25">
         <v>0.170297</v>
       </c>
@@ -33904,7 +33904,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="246" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D246" s="25">
         <v>0.17069100000000001</v>
       </c>
@@ -33912,7 +33912,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="247" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D247" s="25">
         <v>0.171073</v>
       </c>
@@ -33920,7 +33920,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="248" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D248" s="25">
         <v>0.17144300000000001</v>
       </c>
@@ -33928,7 +33928,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="249" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D249" s="25">
         <v>0.17180100000000001</v>
       </c>
@@ -33936,7 +33936,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="250" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D250" s="25">
         <v>0.17214699999999999</v>
       </c>
@@ -33944,7 +33944,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="251" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D251" s="25">
         <v>0.172481</v>
       </c>
@@ -33952,7 +33952,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="252" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D252" s="25">
         <v>0.17280300000000001</v>
       </c>
@@ -33960,7 +33960,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="253" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D253" s="25">
         <v>0.17311299999999999</v>
       </c>
@@ -33968,7 +33968,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="254" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D254" s="25">
         <v>0.17341100000000001</v>
       </c>
@@ -33976,7 +33976,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="255" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D255" s="25">
         <v>0.17369699999999999</v>
       </c>
@@ -33984,7 +33984,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="256" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D256" s="25">
         <v>0.17397099999999999</v>
       </c>
@@ -33992,7 +33992,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="257" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D257" s="25">
         <v>0.174233</v>
       </c>
@@ -34000,7 +34000,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="258" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D258" s="25">
         <v>0.174483</v>
       </c>
@@ -34008,7 +34008,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="259" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D259" s="25">
         <v>0.17472099999999999</v>
       </c>
@@ -34016,7 +34016,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="260" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D260" s="25">
         <v>0.17494699999999999</v>
       </c>
@@ -34024,7 +34024,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="261" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D261" s="25">
         <v>0.17516100000000001</v>
       </c>
@@ -34032,7 +34032,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="262" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D262" s="25">
         <v>0.17536299999999999</v>
       </c>
@@ -34040,7 +34040,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="263" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D263" s="25">
         <v>0.17555299999999999</v>
       </c>
@@ -34048,7 +34048,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="264" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D264" s="25">
         <v>0.175731</v>
       </c>
@@ -34056,7 +34056,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="265" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D265" s="25">
         <v>0.175897</v>
       </c>
@@ -34064,7 +34064,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="266" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D266" s="25">
         <v>0.17605100000000001</v>
       </c>
@@ -34072,7 +34072,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="267" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D267" s="25">
         <v>0.17619299999999999</v>
       </c>
@@ -34080,7 +34080,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="268" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D268" s="25">
         <v>0.17632300000000001</v>
       </c>
@@ -34088,7 +34088,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="269" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D269" s="25">
         <v>0.17644099999999999</v>
       </c>
@@ -34096,7 +34096,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="271" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D271">
         <v>0.13967299999999999</v>
       </c>
@@ -34107,7 +34107,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="272" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D272">
         <v>0.13952800000000001</v>
       </c>
@@ -34115,7 +34115,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="273" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D273">
         <v>0.13939299999999999</v>
       </c>
@@ -34123,7 +34123,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="274" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D274">
         <v>0.139268</v>
       </c>
@@ -34131,7 +34131,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="275" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D275">
         <v>0.139153</v>
       </c>
@@ -34139,7 +34139,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="276" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D276">
         <v>0.139048</v>
       </c>
@@ -34147,7 +34147,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="277" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D277">
         <v>0.13895299999999999</v>
       </c>
@@ -34155,7 +34155,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="278" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D278">
         <v>0.13886799999999999</v>
       </c>
@@ -34163,7 +34163,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="279" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D279">
         <v>0.138793</v>
       </c>
@@ -34171,7 +34171,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="280" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D280">
         <v>0.13872799999999999</v>
       </c>
@@ -34179,7 +34179,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="281" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D281">
         <v>0.13867299999999999</v>
       </c>
@@ -34187,7 +34187,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="282" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D282">
         <v>0.138628</v>
       </c>
@@ -34195,7 +34195,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="283" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D283">
         <v>0.13859299999999999</v>
       </c>
@@ -34203,7 +34203,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="284" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D284">
         <v>0.138568</v>
       </c>
@@ -34211,7 +34211,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="285" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D285">
         <v>0.13855300000000001</v>
       </c>
@@ -34219,7 +34219,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="286" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D286">
         <v>0.138548</v>
       </c>
@@ -34227,7 +34227,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="287" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D287">
         <v>0.13855300000000001</v>
       </c>
@@ -34235,7 +34235,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="288" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D288">
         <v>0.138568</v>
       </c>
@@ -34243,7 +34243,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="289" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D289">
         <v>0.13859299999999999</v>
       </c>
@@ -34251,7 +34251,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="290" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D290">
         <v>0.138628</v>
       </c>
@@ -34259,7 +34259,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="291" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D291">
         <v>0.13867299999999999</v>
       </c>
@@ -34267,7 +34267,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="292" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D292">
         <v>0.13872799999999999</v>
       </c>
@@ -34275,7 +34275,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="293" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D293">
         <v>0.138793</v>
       </c>
@@ -34283,7 +34283,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="294" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D294">
         <v>0.13886799999999999</v>
       </c>
@@ -34291,7 +34291,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="295" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D295">
         <v>0.13895299999999999</v>
       </c>
@@ -34299,7 +34299,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="296" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D296">
         <v>0.139048</v>
       </c>
@@ -34307,7 +34307,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="297" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D297">
         <v>0.139153</v>
       </c>
@@ -34315,7 +34315,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="298" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D298">
         <v>0.139268</v>
       </c>
@@ -34323,7 +34323,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="299" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D299">
         <v>0.13939299999999999</v>
       </c>
@@ -34331,7 +34331,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="300" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D300">
         <v>0.13952800000000001</v>
       </c>
@@ -34339,7 +34339,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="301" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D301">
         <v>0.13967299999999999</v>
       </c>
@@ -34347,7 +34347,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="302" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D302">
         <v>0.13982800000000001</v>
       </c>
@@ -34355,7 +34355,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="303" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D303">
         <v>0.13999300000000001</v>
       </c>
@@ -34363,7 +34363,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="304" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D304">
         <v>0.14016799999999999</v>
       </c>
@@ -34371,7 +34371,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="305" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D305">
         <v>0.14035300000000001</v>
       </c>
@@ -34379,7 +34379,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="306" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D306">
         <v>0.14054800000000001</v>
       </c>
@@ -34387,7 +34387,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="307" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D307">
         <v>0.14075299999999999</v>
       </c>
@@ -34395,7 +34395,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="308" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D308">
         <v>0.14096800000000001</v>
       </c>
@@ -34403,7 +34403,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="309" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D309">
         <v>0.14119300000000001</v>
       </c>
@@ -34411,7 +34411,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="310" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D310">
         <v>0.141428</v>
       </c>
@@ -34419,7 +34419,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="311" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D311">
         <v>0.14167299999999999</v>
       </c>
@@ -34427,7 +34427,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="312" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D312">
         <v>0.141928</v>
       </c>
@@ -34435,7 +34435,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="313" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D313">
         <v>0.14219300000000001</v>
       </c>
@@ -34443,7 +34443,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="314" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D314">
         <v>0.14246800000000001</v>
       </c>
@@ -34451,7 +34451,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="315" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D315">
         <v>0.14275299999999999</v>
       </c>
@@ -34459,7 +34459,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="316" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D316">
         <v>0.14304800000000001</v>
       </c>
@@ -34467,7 +34467,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="317" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D317">
         <v>0.14335300000000001</v>
       </c>
@@ -34475,7 +34475,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="318" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D318">
         <v>0.14366799999999999</v>
       </c>
@@ -34483,7 +34483,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="319" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D319">
         <v>0.14399300000000001</v>
       </c>
@@ -34491,7 +34491,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="320" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D320">
         <v>0.14432800000000001</v>
       </c>
@@ -34499,7 +34499,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="321" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D321">
         <v>0.144673</v>
       </c>
@@ -34507,7 +34507,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="322" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D322">
         <v>0.14502799999999999</v>
       </c>
@@ -34515,7 +34515,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="323" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D323">
         <v>0.14539299999999999</v>
       </c>
@@ -34523,7 +34523,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="324" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D324">
         <v>0.14576800000000001</v>
       </c>
@@ -34531,7 +34531,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="325" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D325">
         <v>0.14615300000000001</v>
       </c>
@@ -34539,7 +34539,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="326" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D326">
         <v>0.14654800000000001</v>
       </c>
@@ -34547,7 +34547,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="327" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D327">
         <v>0.146953</v>
       </c>
@@ -34555,7 +34555,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="328" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D328">
         <v>0.147368</v>
       </c>
@@ -34563,7 +34563,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="329" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D329">
         <v>0.14779300000000001</v>
       </c>
@@ -34571,7 +34571,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="330" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D330">
         <v>0.148228</v>
       </c>
@@ -34579,7 +34579,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="331" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D331">
         <v>0.148673</v>
       </c>
@@ -34587,7 +34587,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="332" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D332">
         <v>0.14912800000000001</v>
       </c>
@@ -34595,7 +34595,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="333" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D333">
         <v>0.149593</v>
       </c>
@@ -34603,7 +34603,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="334" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D334">
         <v>0.15006800000000001</v>
       </c>
@@ -34611,7 +34611,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="335" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D335">
         <v>0.15055299999999999</v>
       </c>
@@ -34619,7 +34619,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="336" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D336">
         <v>0.15104799999999999</v>
       </c>
@@ -34627,7 +34627,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="337" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D337">
         <v>0.15155299999999999</v>
       </c>
@@ -34635,7 +34635,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="338" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D338">
         <v>0.15206800000000001</v>
       </c>
@@ -34643,7 +34643,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="339" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D339">
         <v>0.15259300000000001</v>
       </c>
@@ -34651,7 +34651,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="340" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D340">
         <v>0.15312799999999999</v>
       </c>
@@ -34659,7 +34659,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="341" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D341">
         <v>0.153673</v>
       </c>
@@ -34667,7 +34667,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="342" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D342">
         <v>0.154228</v>
       </c>
@@ -34675,7 +34675,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="343" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D343">
         <v>0.15479299999999999</v>
       </c>
@@ -34683,7 +34683,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="344" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D344">
         <v>0.15536800000000001</v>
       </c>
@@ -34691,7 +34691,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="345" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D345">
         <v>0.15595300000000001</v>
       </c>
@@ -34699,7 +34699,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="346" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D346">
         <v>0.15654799999999999</v>
       </c>
@@ -34707,7 +34707,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="347" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D347">
         <v>0.15715299999999999</v>
       </c>
@@ -34715,7 +34715,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="348" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D348">
         <v>0.15776799999999999</v>
       </c>
@@ -34723,7 +34723,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="349" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D349">
         <v>0.15839300000000001</v>
       </c>
@@ -34731,7 +34731,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="350" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D350">
         <v>0.159028</v>
       </c>
@@ -34739,7 +34739,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="351" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D351">
         <v>0.15967300000000001</v>
       </c>
@@ -34747,7 +34747,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="352" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D352">
         <v>0.160328</v>
       </c>
@@ -34755,7 +34755,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="353" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D353">
         <v>0.160993</v>
       </c>
@@ -34763,7 +34763,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="354" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D354">
         <v>0.16166800000000001</v>
       </c>
@@ -34778,6 +34778,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010054E8EBE579ED724DA6862405C7970F81" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="86c5e3b6225d101e522740491cefce85">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xmlns:ns4="5d848a0f-dbe6-471c-a407-bb7a402dc859" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6c024ab2e87b0647c7181ba4225cb0c" ns3:_="" ns4:_="">
     <xsd:import namespace="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
@@ -35006,38 +35023,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E5E9353-D2AC-43E7-9389-832F28C1F153}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{621CF4D0-A048-4BAF-9D55-9260AD6C0748}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
-    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -35060,9 +35049,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{621CF4D0-A048-4BAF-9D55-9260AD6C0748}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E5E9353-D2AC-43E7-9389-832F28C1F153}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
+    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/CURRENT WORK/SALT WORK - CODES/N = 3/MgSO4 - Done/Test_excelsheet for MgSO4 n=3.xlsx
+++ b/CURRENT WORK/SALT WORK - CODES/N = 3/MgSO4 - Done/Test_excelsheet for MgSO4 n=3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jda365-my.sharepoint.com/personal/dhanush_tamilselvan_jda_com/Documents/Desktop/Final-Year-Project/CURRENT WORK/SALT WORK - CODES/N = 3/MgSO4 - Done/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\Final-Year-Project\CURRENT WORK\SALT WORK - CODES\N = 3\MgSO4 - Done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5901D2C-A850-454E-8C1C-976E7363C533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FD5317-8E3C-4277-B403-8DF1FCC482FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="794" activeTab="4" xr2:uid="{9CF19269-4578-4920-A34F-84FB49B64E6E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="794" activeTab="1" xr2:uid="{9CF19269-4578-4920-A34F-84FB49B64E6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp - Osmotic Coefficient" sheetId="1" r:id="rId1"/>
@@ -832,6 +832,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Data Points</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -1073,6 +1076,139 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3CA5-4F5B-AADF-1DC6730239C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Parity Line</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'For finding 12 unknown'!$AW$10:$AW$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'For finding 12 unknown'!$AX$10:$AX$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5397-4381-9255-4344DB454678}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1146,8 +1282,8 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1180,11 +1316,13 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
+        <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1292910400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1238,8 +1376,8 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1270,6 +1408,7 @@
         <c:crossAx val="964017007"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1281,6 +1420,46 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17409166666666667"/>
+          <c:y val="6.4102777777777772E-2"/>
+          <c:w val="0.34313611111111109"/>
+          <c:h val="0.11179537037037036"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1327,7 +1506,6 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -12404,7 +12582,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-IN"/>
-                  <a:t>Ø</a:t>
+                  <a:t>Volume Fraction</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -12436,8 +12614,8 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -12469,12 +12647,15 @@
         <c:crossAx val="1770756463"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="4.0000000000000008E-2"/>
+        <c:minorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1770756463"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="700"/>
+          <c:max val="600"/>
+          <c:min val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -12528,8 +12709,8 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -12560,6 +12741,7 @@
         <c:crossAx val="1593290335"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:minorUnit val="25"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -12579,8 +12761,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.18102453703703703"/>
           <c:y val="0.12228240740740741"/>
-          <c:w val="0.36810925925925925"/>
-          <c:h val="0.13293009259259259"/>
+          <c:w val="0.35047037037037038"/>
+          <c:h val="0.12411064814814815"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -17771,16 +17953,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>516856</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>14032</xdr:rowOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>189196</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>143572</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>569656</xdr:colOff>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>241996</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>135412</xdr:rowOff>
+      <xdr:rowOff>82072</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17805,261 +17987,10 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AD36C36-2688-408C-8FDF-EE186870F52F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="37261800" y="2019300"/>
-          <a:ext cx="1310640" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1000">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>          Data Points</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1000">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>          Parity</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1000" baseline="0">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> line</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-IN" sz="1000">
-            <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Flowchart: Connector 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A948245-57F8-4E7D-AD65-B1D3241C0275}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="37398960" y="2072640"/>
-          <a:ext cx="114300" cy="121920"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartConnector">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Straight Connector 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4BB4C71-0B4B-49CD-A103-E59F98AE8902}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="37338000" y="2308860"/>
-          <a:ext cx="266700" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.17669</cdr:x>
-      <cdr:y>0.0638</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.9506</cdr:x>
-      <cdr:y>0.77463</cdr:y>
-    </cdr:to>
-    <cdr:cxnSp macro="">
-      <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="3" name="Straight Connector 2">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E1D867C-CA09-DA2C-47BA-8FD241010119}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvCxnSpPr/>
-      </cdr:nvCxnSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="763304" y="275616"/>
-          <a:ext cx="3343298" cy="3070772"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </cdr:style>
-    </cdr:cxnSp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18100,7 +18031,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18285,7 +18216,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18805,21 +18736,21 @@
       <selection activeCell="E5" sqref="E5:G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.81640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.08984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="15" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.36328125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.36328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -18830,7 +18761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -18841,7 +18772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -18857,7 +18788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -18889,7 +18820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>0.2</v>
       </c>
@@ -18921,7 +18852,7 @@
         <v>0.89070000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0.3</v>
       </c>
@@ -18954,7 +18885,7 @@
         <v>0.88539999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>0.4</v>
       </c>
@@ -18987,7 +18918,7 @@
         <v>0.87590000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
@@ -19020,7 +18951,7 @@
         <v>0.86209999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>0.6</v>
       </c>
@@ -19053,7 +18984,7 @@
         <v>0.84289999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>0.7</v>
       </c>
@@ -19086,7 +19017,7 @@
         <v>0.81669999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>0.8</v>
       </c>
@@ -19119,7 +19050,7 @@
         <v>0.78169999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>0.9</v>
       </c>
@@ -19151,7 +19082,7 @@
         <v>0.74619999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -19184,7 +19115,7 @@
         <v>0.73799999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1.2</v>
       </c>
@@ -19217,7 +19148,7 @@
         <v>0.72309999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1.4</v>
       </c>
@@ -19250,7 +19181,7 @@
         <v>0.70269999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1.6</v>
       </c>
@@ -19283,7 +19214,7 @@
         <v>0.67730000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1.8</v>
       </c>
@@ -19316,7 +19247,7 @@
         <v>0.64759999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -19349,7 +19280,7 @@
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2.5</v>
       </c>
@@ -19381,7 +19312,7 @@
         <v>0.60250000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>3</v>
       </c>
@@ -19414,7 +19345,7 @@
         <v>0.59550000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E21" s="1">
         <v>2.4</v>
       </c>
@@ -19438,7 +19369,7 @@
         <v>0.57889999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E22" s="1">
         <v>2.6</v>
       </c>
@@ -19462,7 +19393,7 @@
         <v>0.5554</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E23" s="1">
         <v>2.8</v>
       </c>
@@ -19486,7 +19417,7 @@
         <v>0.52690000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E24" s="1">
         <v>3</v>
       </c>
@@ -19510,7 +19441,7 @@
         <v>0.49530000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E25" s="1">
         <v>3.2</v>
       </c>
@@ -19534,7 +19465,7 @@
         <v>0.4622</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E26" s="1">
         <v>3.4</v>
       </c>
@@ -19557,7 +19488,7 @@
         <v>0.52400000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E27" s="1">
         <v>3.6</v>
       </c>
@@ -19581,7 +19512,7 @@
         <v>0.52290000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E28" s="1">
         <v>3.6175999999999999</v>
       </c>
@@ -19605,7 +19536,7 @@
         <v>0.50470000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I29" s="1">
         <v>0.5</v>
       </c>
@@ -19620,7 +19551,7 @@
         <v>0.47570000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I30" s="1">
         <v>0.5</v>
       </c>
@@ -19635,7 +19566,7 @@
         <v>0.439</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I31" s="1">
         <v>0.5</v>
       </c>
@@ -19650,7 +19581,7 @@
         <v>0.3967</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I32" s="1">
         <v>0.5</v>
       </c>
@@ -19665,7 +19596,7 @@
         <v>0.35249999999999998</v>
       </c>
     </row>
-    <row r="33" spans="9:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I33" s="1">
         <v>1</v>
       </c>
@@ -19679,7 +19610,7 @@
         <v>0.52890000000000004</v>
       </c>
     </row>
-    <row r="34" spans="9:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I34" s="1">
         <v>1</v>
       </c>
@@ -19694,7 +19625,7 @@
         <v>0.5292</v>
       </c>
     </row>
-    <row r="35" spans="9:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I35" s="1">
         <v>1</v>
       </c>
@@ -19709,7 +19640,7 @@
         <v>0.5071</v>
       </c>
     </row>
-    <row r="36" spans="9:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I36" s="1">
         <v>1</v>
       </c>
@@ -19724,7 +19655,7 @@
         <v>0.47099999999999997</v>
       </c>
     </row>
-    <row r="37" spans="9:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I37" s="1">
         <v>1</v>
       </c>
@@ -19739,7 +19670,7 @@
         <v>0.42559999999999998</v>
       </c>
     </row>
-    <row r="38" spans="9:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I38" s="1">
         <v>1</v>
       </c>
@@ -19754,7 +19685,7 @@
         <v>0.37490000000000001</v>
       </c>
     </row>
-    <row r="39" spans="9:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I39" s="1">
         <v>1</v>
       </c>
@@ -19769,7 +19700,7 @@
         <v>0.32369999999999999</v>
       </c>
     </row>
-    <row r="40" spans="9:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I40" s="1">
         <v>2</v>
       </c>
@@ -19783,7 +19714,7 @@
         <v>0.67910000000000004</v>
       </c>
     </row>
-    <row r="41" spans="9:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I41" s="1">
         <v>2</v>
       </c>
@@ -19798,7 +19729,7 @@
         <v>0.66269999999999996</v>
       </c>
     </row>
-    <row r="42" spans="9:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I42" s="1">
         <v>2</v>
       </c>
@@ -19813,7 +19744,7 @@
         <v>0.61980000000000002</v>
       </c>
     </row>
-    <row r="43" spans="9:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I43" s="1">
         <v>2</v>
       </c>
@@ -19828,7 +19759,7 @@
         <v>0.55940000000000001</v>
       </c>
     </row>
-    <row r="44" spans="9:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I44" s="1">
         <v>2</v>
       </c>
@@ -19843,7 +19774,7 @@
         <v>0.48780000000000001</v>
       </c>
     </row>
-    <row r="45" spans="9:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I45" s="1">
         <v>2</v>
       </c>
@@ -19858,7 +19789,7 @@
         <v>0.41020000000000001</v>
       </c>
     </row>
-    <row r="46" spans="9:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I46" s="1">
         <v>2</v>
       </c>
@@ -19873,7 +19804,7 @@
         <v>0.33160000000000001</v>
       </c>
     </row>
-    <row r="47" spans="9:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I47" s="1">
         <v>3</v>
       </c>
@@ -19887,7 +19818,7 @@
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="48" spans="9:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I48" s="1">
         <v>3</v>
       </c>
@@ -19902,7 +19833,7 @@
         <v>0.92579999999999996</v>
       </c>
     </row>
-    <row r="49" spans="9:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I49" s="1">
         <v>3</v>
       </c>
@@ -19917,7 +19848,7 @@
         <v>0.84470000000000001</v>
       </c>
     </row>
-    <row r="50" spans="9:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I50" s="1">
         <v>3</v>
       </c>
@@ -19932,7 +19863,7 @@
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="51" spans="9:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I51" s="1">
         <v>3</v>
       </c>
@@ -19947,7 +19878,7 @@
         <v>0.62719999999999998</v>
       </c>
     </row>
-    <row r="52" spans="9:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I52" s="1">
         <v>3</v>
       </c>
@@ -19962,7 +19893,7 @@
         <v>0.50309999999999999</v>
       </c>
     </row>
-    <row r="53" spans="9:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I53" s="1">
         <v>3</v>
       </c>
@@ -19977,7 +19908,7 @@
         <v>0.37540000000000001</v>
       </c>
     </row>
-    <row r="54" spans="9:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I54" s="1">
         <v>5</v>
       </c>
@@ -19991,7 +19922,7 @@
         <v>1.3436999999999999</v>
       </c>
     </row>
-    <row r="55" spans="9:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I55" s="1">
         <v>5</v>
       </c>
@@ -20005,7 +19936,7 @@
         <v>1.0866</v>
       </c>
     </row>
-    <row r="56" spans="9:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I56" s="1">
         <v>5</v>
       </c>
@@ -20026,46 +19957,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CF3460-0F13-4869-941B-1FBF8E166A15}">
-  <dimension ref="A1:AU72"/>
+  <dimension ref="A1:AX72"/>
   <sheetViews>
-    <sheetView topLeftCell="AO10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BD14" sqref="BD14"/>
+    <sheetView tabSelected="1" topLeftCell="AR7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BI15" sqref="BI15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="9"/>
-    <col min="10" max="11" width="8.90625" style="1"/>
-    <col min="12" max="12" width="7.08984375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.90625" style="1"/>
-    <col min="14" max="14" width="11.90625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.453125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.54296875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.90625" style="9"/>
-    <col min="19" max="19" width="9.08984375" customWidth="1"/>
-    <col min="21" max="21" width="14.1796875" customWidth="1"/>
-    <col min="22" max="22" width="8.90625" style="9"/>
-    <col min="25" max="25" width="8.90625" style="9"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="9"/>
+    <col min="10" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="7.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="11.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" style="9"/>
+    <col min="19" max="19" width="9.109375" customWidth="1"/>
+    <col min="21" max="21" width="14.21875" customWidth="1"/>
+    <col min="22" max="22" width="8.88671875" style="9"/>
+    <col min="25" max="25" width="8.88671875" style="9"/>
     <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="12" style="9" customWidth="1"/>
     <col min="31" max="32" width="12" customWidth="1"/>
     <col min="33" max="33" width="12" style="11" customWidth="1"/>
     <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.1796875" customWidth="1"/>
-    <col min="38" max="38" width="8.90625" style="9"/>
-    <col min="40" max="42" width="21.54296875" style="1" customWidth="1"/>
-    <col min="44" max="44" width="13.453125" style="1" customWidth="1"/>
+    <col min="37" max="37" width="13.21875" customWidth="1"/>
+    <col min="38" max="38" width="8.88671875" style="9"/>
+    <col min="40" max="42" width="21.5546875" style="1" customWidth="1"/>
+    <col min="44" max="44" width="13.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:50" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B1" s="6" t="s">
         <v>38</v>
       </c>
@@ -20084,7 +20015,7 @@
       <c r="AG1"/>
       <c r="AL1"/>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
       <c r="H2"/>
       <c r="K2" s="8" t="s">
         <v>12</v>
@@ -20107,7 +20038,7 @@
       <c r="AG2" s="1"/>
       <c r="AL2"/>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="H3"/>
       <c r="K3" s="8" t="s">
         <v>13</v>
@@ -20130,7 +20061,7 @@
       <c r="AG3" s="1"/>
       <c r="AL3"/>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="H4"/>
       <c r="R4"/>
       <c r="V4"/>
@@ -20147,7 +20078,7 @@
       <c r="AG4" s="1"/>
       <c r="AL4"/>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="H5"/>
       <c r="R5"/>
       <c r="V5"/>
@@ -20156,7 +20087,7 @@
       <c r="AG5"/>
       <c r="AL5"/>
     </row>
-    <row r="6" spans="1:46" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:50" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -20266,7 +20197,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>0.1</v>
       </c>
@@ -20402,7 +20333,7 @@
         <v>0.60050000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>0.1</v>
       </c>
@@ -20535,7 +20466,7 @@
         <v>0.59550000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>0.1</v>
       </c>
@@ -20674,7 +20605,7 @@
         <v>0.57840000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>0.1</v>
       </c>
@@ -20812,8 +20743,14 @@
       <c r="AR10" s="1">
         <v>0.55569999999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>0.1</v>
       </c>
@@ -20951,8 +20888,16 @@
       <c r="AR11" s="1">
         <v>0.52980000000000005</v>
       </c>
-    </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="AW11">
+        <f>AW10+0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="AX11">
+        <f>AX10+0.1</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>0.1</v>
       </c>
@@ -21090,8 +21035,16 @@
       <c r="AR12" s="1">
         <v>0.50129999999999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="AW12">
+        <f t="shared" ref="AW12:AW28" si="29">AW11+0.1</f>
+        <v>0.2</v>
+      </c>
+      <c r="AX12">
+        <f t="shared" ref="AX12:AX28" si="30">AX11+0.1</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>0.1</v>
       </c>
@@ -21229,8 +21182,16 @@
       <c r="AR13" s="1">
         <v>0.47010000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="AW13">
+        <f t="shared" si="29"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AX13">
+        <f t="shared" si="30"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>0.5</v>
       </c>
@@ -21367,8 +21328,16 @@
       <c r="AR14" s="1">
         <v>0.51680000000000004</v>
       </c>
-    </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="AW14">
+        <f t="shared" si="29"/>
+        <v>0.4</v>
+      </c>
+      <c r="AX14">
+        <f t="shared" si="30"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>0.5</v>
       </c>
@@ -21506,13 +21475,21 @@
       <c r="AR15" s="1">
         <v>0.52439999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="AW15">
+        <f t="shared" si="29"/>
+        <v>0.5</v>
+      </c>
+      <c r="AX15">
+        <f t="shared" si="30"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>0.5</v>
       </c>
       <c r="B16" s="1">
-        <f t="shared" ref="B16:B20" si="29">B15+25</f>
+        <f t="shared" ref="B16:B20" si="31">B15+25</f>
         <v>323.14999999999998</v>
       </c>
       <c r="C16">
@@ -21645,13 +21622,21 @@
       <c r="AR16" s="1">
         <v>0.50670000000000004</v>
       </c>
-    </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AW16">
+        <f t="shared" si="29"/>
+        <v>0.6</v>
+      </c>
+      <c r="AX16">
+        <f t="shared" si="30"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>0.5</v>
       </c>
       <c r="B17" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>348.15</v>
       </c>
       <c r="C17">
@@ -21784,13 +21769,21 @@
       <c r="AR17" s="1">
         <v>0.47789999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AW17">
+        <f t="shared" si="29"/>
+        <v>0.7</v>
+      </c>
+      <c r="AX17">
+        <f t="shared" si="30"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>0.5</v>
       </c>
       <c r="B18" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>373.15</v>
       </c>
       <c r="C18">
@@ -21923,13 +21916,21 @@
       <c r="AR18" s="1">
         <v>0.44280000000000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AW18">
+        <f t="shared" si="29"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="AX18">
+        <f t="shared" si="30"/>
+        <v>0.79999999999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>0.5</v>
       </c>
       <c r="B19" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>398.15</v>
       </c>
       <c r="C19">
@@ -22062,13 +22063,21 @@
       <c r="AR19" s="1">
         <v>0.40350000000000003</v>
       </c>
-    </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AW19">
+        <f t="shared" si="29"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="AX19">
+        <f t="shared" si="30"/>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="20" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>0.5</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>423.15</v>
       </c>
       <c r="C20">
@@ -22202,15 +22211,23 @@
         <v>0.36070000000000002</v>
       </c>
       <c r="AT20">
-        <f t="shared" ref="AT20:AT60" si="30">AQ20</f>
+        <f t="shared" ref="AT20:AT60" si="32">AQ20</f>
         <v>0.33882982419368091</v>
       </c>
       <c r="AU20">
-        <f t="shared" ref="AU20:AU60" si="31">AR20</f>
+        <f t="shared" ref="AU20:AU60" si="33">AR20</f>
         <v>0.36070000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AW20">
+        <f t="shared" si="29"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AX20">
+        <f t="shared" si="30"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="21" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -22341,8 +22358,16 @@
       <c r="AR21" s="1">
         <v>0.52459999999999996</v>
       </c>
-    </row>
-    <row r="22" spans="1:47" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AW21">
+        <f t="shared" si="29"/>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="AX21">
+        <f t="shared" si="30"/>
+        <v>1.0999999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:50" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -22474,13 +22499,21 @@
       <c r="AR22" s="1">
         <v>0.52990000000000004</v>
       </c>
-    </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AW22">
+        <f t="shared" si="29"/>
+        <v>1.2</v>
+      </c>
+      <c r="AX22">
+        <f t="shared" si="30"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" ref="B23:B27" si="32">B22+25</f>
+        <f t="shared" ref="B23:B27" si="34">B22+25</f>
         <v>323.14999999999998</v>
       </c>
       <c r="C23">
@@ -22608,20 +22641,28 @@
         <v>0.505</v>
       </c>
       <c r="AT23">
+        <f t="shared" si="32"/>
+        <v>0.4885909835396281</v>
+      </c>
+      <c r="AU23">
+        <f t="shared" si="33"/>
+        <v>0.505</v>
+      </c>
+      <c r="AW23">
+        <f t="shared" si="29"/>
+        <v>1.3</v>
+      </c>
+      <c r="AX23">
         <f t="shared" si="30"/>
-        <v>0.4885909835396281</v>
-      </c>
-      <c r="AU23">
-        <f t="shared" si="31"/>
-        <v>0.505</v>
-      </c>
-    </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>1</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>348.15</v>
       </c>
       <c r="C24">
@@ -22749,20 +22790,28 @@
         <v>0.46679999999999999</v>
       </c>
       <c r="AT24">
+        <f t="shared" si="32"/>
+        <v>0.46529034042537709</v>
+      </c>
+      <c r="AU24">
+        <f t="shared" si="33"/>
+        <v>0.46679999999999999</v>
+      </c>
+      <c r="AW24">
+        <f t="shared" si="29"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="AX24">
         <f t="shared" si="30"/>
-        <v>0.46529034042537709</v>
-      </c>
-      <c r="AU24">
-        <f t="shared" si="31"/>
-        <v>0.46679999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
+        <v>1.4000000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1</v>
       </c>
       <c r="B25" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>373.15</v>
       </c>
       <c r="C25">
@@ -22890,20 +22939,28 @@
         <v>0.42130000000000001</v>
       </c>
       <c r="AT25">
+        <f t="shared" si="32"/>
+        <v>0.43159935862008247</v>
+      </c>
+      <c r="AU25">
+        <f t="shared" si="33"/>
+        <v>0.42130000000000001</v>
+      </c>
+      <c r="AW25">
+        <f t="shared" si="29"/>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="AX25">
         <f t="shared" si="30"/>
-        <v>0.43159935862008247</v>
-      </c>
-      <c r="AU25">
-        <f t="shared" si="31"/>
-        <v>0.42130000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
+        <v>1.5000000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>1</v>
       </c>
       <c r="B26" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>398.15</v>
       </c>
       <c r="C26">
@@ -23031,20 +23088,28 @@
         <v>0.37169999999999997</v>
       </c>
       <c r="AT26">
+        <f t="shared" si="32"/>
+        <v>0.39032505283072777</v>
+      </c>
+      <c r="AU26">
+        <f t="shared" si="33"/>
+        <v>0.37169999999999997</v>
+      </c>
+      <c r="AW26">
+        <f t="shared" si="29"/>
+        <v>1.6000000000000003</v>
+      </c>
+      <c r="AX26">
         <f t="shared" si="30"/>
-        <v>0.39032505283072777</v>
-      </c>
-      <c r="AU26">
-        <f t="shared" si="31"/>
-        <v>0.37169999999999997</v>
-      </c>
-    </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
+        <v>1.6000000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>1</v>
       </c>
       <c r="B27" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>423.15</v>
       </c>
       <c r="C27">
@@ -23172,15 +23237,23 @@
         <v>0.31979999999999997</v>
       </c>
       <c r="AT27">
+        <f t="shared" si="32"/>
+        <v>0.34351045304447325</v>
+      </c>
+      <c r="AU27">
+        <f t="shared" si="33"/>
+        <v>0.31979999999999997</v>
+      </c>
+      <c r="AW27">
+        <f t="shared" si="29"/>
+        <v>1.7000000000000004</v>
+      </c>
+      <c r="AX27">
         <f t="shared" si="30"/>
-        <v>0.34351045304447325</v>
-      </c>
-      <c r="AU27">
-        <f t="shared" si="31"/>
-        <v>0.31979999999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
+        <v>1.7000000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -23312,15 +23385,23 @@
         <v>0.67179999999999995</v>
       </c>
       <c r="AT28">
+        <f t="shared" si="32"/>
+        <v>0.70896869587052913</v>
+      </c>
+      <c r="AU28">
+        <f t="shared" si="33"/>
+        <v>0.67179999999999995</v>
+      </c>
+      <c r="AW28">
+        <f t="shared" si="29"/>
+        <v>1.8000000000000005</v>
+      </c>
+      <c r="AX28">
         <f t="shared" si="30"/>
-        <v>0.70896869587052913</v>
-      </c>
-      <c r="AU28">
-        <f t="shared" si="31"/>
-        <v>0.67179999999999995</v>
-      </c>
-    </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
+        <v>1.8000000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -23453,20 +23534,20 @@
         <v>0.66320000000000001</v>
       </c>
       <c r="AT29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.68675894326169229</v>
       </c>
       <c r="AU29">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.66320000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2</v>
       </c>
       <c r="B30" s="1">
-        <f t="shared" ref="B30:B34" si="33">B29+25</f>
+        <f t="shared" ref="B30:B34" si="35">B29+25</f>
         <v>323.14999999999998</v>
       </c>
       <c r="C30">
@@ -23594,20 +23675,20 @@
         <v>0.61760000000000004</v>
       </c>
       <c r="AT30">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.64218191753121168</v>
       </c>
       <c r="AU30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.61760000000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2</v>
       </c>
       <c r="B31" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>348.15</v>
       </c>
       <c r="C31">
@@ -23735,20 +23816,20 @@
         <v>0.55449999999999999</v>
       </c>
       <c r="AT31">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.58191285879502175</v>
       </c>
       <c r="AU31">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.55449999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2</v>
       </c>
       <c r="B32" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>373.15</v>
       </c>
       <c r="C32">
@@ -23876,20 +23957,20 @@
         <v>0.48220000000000002</v>
       </c>
       <c r="AT32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.51058862212650835</v>
       </c>
       <c r="AU32">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.48220000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2</v>
       </c>
       <c r="B33" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>398.15</v>
       </c>
       <c r="C33">
@@ -24017,20 +24098,20 @@
         <v>0.40620000000000001</v>
       </c>
       <c r="AT33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.43149478878548408</v>
       </c>
       <c r="AU33">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.40620000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2</v>
       </c>
       <c r="B34" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>423.15</v>
       </c>
       <c r="C34">
@@ -24158,15 +24239,15 @@
         <v>0.33119999999999999</v>
       </c>
       <c r="AT34">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.34699802074818664</v>
       </c>
       <c r="AU34">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.33119999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>3</v>
       </c>
@@ -24298,15 +24379,15 @@
         <v>0.97589999999999999</v>
       </c>
       <c r="AT35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.95623978471377524</v>
       </c>
       <c r="AU35">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.97589999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>3</v>
       </c>
@@ -24439,20 +24520,20 @@
         <v>0.92400000000000004</v>
       </c>
       <c r="AT36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.89807908189679975</v>
       </c>
       <c r="AU36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>3</v>
       </c>
       <c r="B37" s="1">
-        <f t="shared" ref="B37:B41" si="34">B36+25</f>
+        <f t="shared" ref="B37:B41" si="36">B36+25</f>
         <v>323.14999999999998</v>
       </c>
       <c r="C37">
@@ -24580,20 +24661,20 @@
         <v>0.83540000000000003</v>
       </c>
       <c r="AT37">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.82093328220846029</v>
       </c>
       <c r="AU37">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.83540000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>3</v>
       </c>
       <c r="B38" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>348.15</v>
       </c>
       <c r="C38">
@@ -24721,20 +24802,20 @@
         <v>0.73170000000000002</v>
       </c>
       <c r="AT38">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.73090591996676979</v>
       </c>
       <c r="AU38">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.73170000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>3</v>
       </c>
       <c r="B39" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>373.15</v>
       </c>
       <c r="C39">
@@ -24862,20 +24943,20 @@
         <v>0.62429999999999997</v>
       </c>
       <c r="AT39">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.63219427287724639</v>
       </c>
       <c r="AU39">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.62429999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>3</v>
       </c>
       <c r="B40" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>398.15</v>
       </c>
       <c r="C40">
@@ -25003,20 +25084,20 @@
         <v>0.52170000000000005</v>
       </c>
       <c r="AT40">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.52773897594454833</v>
       </c>
       <c r="AU40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.52170000000000005</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>3</v>
       </c>
       <c r="B41" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>423.15</v>
       </c>
       <c r="C41">
@@ -25144,15 +25225,15 @@
         <v>0.43290000000000001</v>
       </c>
       <c r="AT41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.41963122562790683</v>
       </c>
       <c r="AU41">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.43290000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>0.2</v>
       </c>
@@ -25284,15 +25365,15 @@
         <v>0.55779999999999996</v>
       </c>
       <c r="AT42">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.54313964465345221</v>
       </c>
       <c r="AU42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.55779999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>0.3</v>
       </c>
@@ -25424,7 +25505,7 @@
         <v>0.53959999999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>0.4</v>
       </c>
@@ -25556,7 +25637,7 @@
         <v>0.52859999999999996</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>0.6</v>
       </c>
@@ -25688,7 +25769,7 @@
         <v>0.51880000000000004</v>
       </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>0.7</v>
       </c>
@@ -25820,7 +25901,7 @@
         <v>0.51829999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>0.8</v>
       </c>
@@ -25952,7 +26033,7 @@
         <v>0.51990000000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>0.9</v>
       </c>
@@ -26084,7 +26165,7 @@
         <v>0.52359999999999995</v>
       </c>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>1.2</v>
       </c>
@@ -26216,15 +26297,15 @@
         <v>0.54479999999999995</v>
       </c>
       <c r="AT49">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.54452610086194142</v>
       </c>
       <c r="AU49">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.54479999999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>1.4</v>
       </c>
@@ -26356,15 +26437,15 @@
         <v>0.56630000000000003</v>
       </c>
       <c r="AT50">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.58659696173132636</v>
       </c>
       <c r="AU50">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.56630000000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>1.6</v>
       </c>
@@ -26496,15 +26577,15 @@
         <v>0.59309999999999996</v>
       </c>
       <c r="AT51">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.62337552066480839</v>
       </c>
       <c r="AU51">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.59309999999999996</v>
       </c>
     </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>1.8</v>
       </c>
@@ -26636,15 +26717,15 @@
         <v>0.62490000000000001</v>
       </c>
       <c r="AT52">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.6560748184417915</v>
       </c>
       <c r="AU52">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.62490000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -26776,15 +26857,15 @@
         <v>0.70320000000000005</v>
       </c>
       <c r="AT53">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.7178969309348997</v>
       </c>
       <c r="AU53">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.70320000000000005</v>
       </c>
     </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>2.4</v>
       </c>
@@ -26916,15 +26997,15 @@
         <v>0.74960000000000004</v>
       </c>
       <c r="AT54">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.75209346014204403</v>
       </c>
       <c r="AU54">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.74960000000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>2.6</v>
       </c>
@@ -27056,15 +27137,15 @@
         <v>0.80100000000000005</v>
       </c>
       <c r="AT55">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.79192367299121036</v>
       </c>
       <c r="AU55">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.80100000000000005</v>
       </c>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>2.8</v>
       </c>
@@ -27196,15 +27277,15 @@
         <v>0.85750000000000004</v>
       </c>
       <c r="AT56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.83983301268228883</v>
       </c>
       <c r="AU56">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.85750000000000004</v>
       </c>
     </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>3.2</v>
       </c>
@@ -27336,15 +27417,15 @@
         <v>0.98660000000000003</v>
       </c>
       <c r="AT57">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.96870114181847888</v>
       </c>
       <c r="AU57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.98660000000000003</v>
       </c>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>3.4</v>
       </c>
@@ -27476,15 +27557,15 @@
         <v>1.0596000000000001</v>
       </c>
       <c r="AT58">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1.0535078775985336</v>
       </c>
       <c r="AU58">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1.0596000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>3.6</v>
       </c>
@@ -27616,15 +27697,15 @@
         <v>1.1384000000000001</v>
       </c>
       <c r="AT59">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1.1540771503407514</v>
       </c>
       <c r="AU59">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1.1384000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>3.6175999999999999</v>
       </c>
@@ -27756,59 +27837,59 @@
         <v>1.1456</v>
       </c>
       <c r="AT60">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1.1637286054694109</v>
       </c>
       <c r="AU60">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1.1456</v>
       </c>
     </row>
-    <row r="61" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
     </row>
@@ -27826,13 +27907,13 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -27840,7 +27921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3.940093261019946E-2</v>
       </c>
@@ -27848,7 +27929,7 @@
         <v>272.19626168224198</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5.8075911624839695E-2</v>
       </c>
@@ -27856,7 +27937,7 @@
         <v>270.09345794392499</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>6.4606194837027023E-2</v>
       </c>
@@ -27864,7 +27945,7 @@
         <v>270.09345794392499</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7.2425751990408904E-2</v>
       </c>
@@ -27872,7 +27953,7 @@
         <v>273.59813084112102</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>7.9673742064779007E-2</v>
       </c>
@@ -27880,7 +27961,7 @@
         <v>279.20560747663501</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>8.4150645386805334E-2</v>
       </c>
@@ -27888,7 +27969,7 @@
         <v>284.11214953271002</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8.9901610308777843E-2</v>
       </c>
@@ -27896,7 +27977,7 @@
         <v>289.01869158878498</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9.1223386184597008E-2</v>
       </c>
@@ -27904,7 +27985,7 @@
         <v>291.822429906541</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9.6442023145290726E-2</v>
       </c>
@@ -27912,7 +27993,7 @@
         <v>292.52336448598101</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9.9477533598176196E-2</v>
       </c>
@@ -27920,7 +28001,7 @@
         <v>299.53271028037301</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9.6884126112510627E-2</v>
       </c>
@@ -27928,7 +28009,7 @@
         <v>296.02803738317698</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>9.471388056444241E-2</v>
       </c>
@@ -27936,7 +28017,7 @@
         <v>293.92523364485902</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>9.254540266239869E-2</v>
       </c>
@@ -27944,7 +28025,7 @@
         <v>296.02803738317698</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.10289507447968271</v>
       </c>
@@ -27952,7 +28033,7 @@
         <v>298.130841121495</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.10672719379747495</v>
       </c>
@@ -27960,7 +28041,7 @@
         <v>303.03738317757001</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0.10290901110390512</v>
       </c>
@@ -27968,7 +28049,7 @@
         <v>303.03738317757001</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.11220286676966544</v>
       </c>
@@ -27976,7 +28057,7 @@
         <v>309.34579439252298</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0.10968430012204518</v>
       </c>
@@ -27984,7 +28065,7 @@
         <v>306.54205607476598</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0.11966420440438919</v>
       </c>
@@ -27992,7 +28073,7 @@
         <v>314.25233644859799</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0.11719556472063039</v>
       </c>
@@ -28000,7 +28081,7 @@
         <v>314.25233644859799</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0.12497342208992307</v>
       </c>
@@ -28008,7 +28089,7 @@
         <v>317.05607476635498</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0.13022459953393611</v>
       </c>
@@ -28016,7 +28097,7 @@
         <v>321.96261682242903</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.1346227723613071</v>
       </c>
@@ -28024,7 +28105,7 @@
         <v>327.57009345794302</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0.13897668870504512</v>
       </c>
@@ -28032,7 +28113,7 @@
         <v>333.17757009345701</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.1452254450266946</v>
       </c>
@@ -28040,7 +28121,7 @@
         <v>338.785046728971</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0.1517652399550746</v>
       </c>
@@ -28048,7 +28129,7 @@
         <v>344.39252336448499</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0.14717491728440613</v>
       </c>
@@ -28056,7 +28137,7 @@
         <v>346.495327102803</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0.14525617175323022</v>
       </c>
@@ -28064,7 +28145,7 @@
         <v>350.70093457943898</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0.14294006894173114</v>
       </c>
@@ -28072,7 +28153,7 @@
         <v>354.90654205607399</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0.13983050546898024</v>
       </c>
@@ -28080,7 +28161,7 @@
         <v>359.813084112149</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0.13511344325649974</v>
       </c>
@@ -28088,7 +28169,7 @@
         <v>363.31775700934497</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0.13313811864284408</v>
       </c>
@@ -28096,7 +28177,7 @@
         <v>366.822429906541</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0.13195790735523699</v>
       </c>
@@ -28104,7 +28185,7 @@
         <v>372.42990654205602</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0.11409605166393115</v>
       </c>
@@ -28112,7 +28193,7 @@
         <v>391.35514018691498</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0.10573316483687741</v>
       </c>
@@ -28120,7 +28201,7 @@
         <v>400.46728971962602</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0.10020318391545151</v>
       </c>
@@ -28128,7 +28209,7 @@
         <v>403.27102803738302</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>8.7637920155527863E-2</v>
       </c>
@@ -28136,7 +28217,7 @@
         <v>416.58878504672799</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>6.7856844539121858E-2</v>
       </c>
@@ -28144,7 +28225,7 @@
         <v>426.40186915887801</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>5.6691101599657748E-2</v>
       </c>
@@ -28152,7 +28233,7 @@
         <v>428.50467289719597</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>4.3820512652031338E-2</v>
       </c>
@@ -28160,7 +28241,7 @@
         <v>435.51401869158798</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3.7500188504979277E-2</v>
       </c>
@@ -28168,7 +28249,7 @@
         <v>439.71962616822401</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2.8102218641202464E-2</v>
       </c>
@@ -28176,7 +28257,7 @@
         <v>443.22429906541998</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2.2071139351636924E-2</v>
       </c>
@@ -28184,7 +28265,7 @@
         <v>445.327102803738</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2.056411522452042E-2</v>
       </c>
@@ -28192,7 +28273,7 @@
         <v>449.53271028037301</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1.5478208863131698E-2</v>
       </c>
@@ -28200,7 +28281,7 @@
         <v>455.140186915887</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1.2401715239417915E-2</v>
       </c>
@@ -28208,7 +28289,7 @@
         <v>458.644859813084</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>9.8252660039917054E-3</v>
       </c>
@@ -28216,7 +28297,7 @@
         <v>462.14953271028003</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>8.2899653283124413E-3</v>
       </c>
@@ -28224,7 +28305,7 @@
         <v>469.15887850467197</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>6.2200028955656577E-3</v>
       </c>
@@ -28232,7 +28313,7 @@
         <v>474.06542056074699</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>5.1854503313268213E-3</v>
       </c>
@@ -28240,7 +28321,7 @@
         <v>477.57009345794302</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>6.2688646389597938E-3</v>
       </c>
@@ -28248,7 +28329,7 @@
         <v>488.08411214953202</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>3.682376789907313E-3</v>
       </c>
@@ -28256,7 +28337,7 @@
         <v>497.89719626168198</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0.16936979186525777</v>
       </c>
@@ -28264,7 +28345,7 @@
         <v>373.83177570093397</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0.16678957932722038</v>
       </c>
@@ -28272,7 +28353,7 @@
         <v>367.52336448598101</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0.16419674321610564</v>
       </c>
@@ -28280,7 +28361,7 @@
         <v>362.61682242990599</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0.16270613010506427</v>
       </c>
@@ -28288,7 +28369,7 @@
         <v>359.11214953271002</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0.16232092825340913</v>
       </c>
@@ -28296,7 +28377,7 @@
         <v>353.50467289719597</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0.16786675620829028</v>
       </c>
@@ -28304,7 +28385,7 @@
         <v>357.71028037383098</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>0.17261374229897372</v>
       </c>
@@ -28312,7 +28393,7 @@
         <v>361.21495327102798</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0.17694840158764344</v>
       </c>
@@ -28320,7 +28401,7 @@
         <v>364.71962616822401</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>0.17874766920552052</v>
       </c>
@@ -28328,7 +28409,7 @@
         <v>368.92523364485902</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0.1833667199715546</v>
       </c>
@@ -28336,7 +28417,7 @@
         <v>370.327102803738</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>0.11672681001201546</v>
       </c>
@@ -28344,7 +28425,7 @@
         <v>293.92523364485902</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0.11296266811466504</v>
       </c>
@@ -28352,7 +28433,7 @@
         <v>282.71028037383098</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0.10747865664497834</v>
       </c>
@@ -28360,7 +28441,7 @@
         <v>270.09345794392499</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0.10627491799126541</v>
       </c>
@@ -28368,7 +28449,7 @@
         <v>292.52336448598101</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0.11384746094644395</v>
       </c>
@@ -28376,7 +28457,7 @@
         <v>301.63551401869103</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>0.11386300195349584</v>
       </c>
@@ -28384,7 +28465,7 @@
         <v>307.24299065420502</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>7.789131638745278E-2</v>
       </c>
@@ -28406,17 +28487,17 @@
       <selection activeCell="M4" sqref="M4:N87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" customWidth="1"/>
-    <col min="8" max="8" width="12.36328125" customWidth="1"/>
-    <col min="11" max="11" width="12.36328125" customWidth="1"/>
-    <col min="14" max="14" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -28424,7 +28505,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -28444,7 +28525,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3.940093261019946E-2</v>
       </c>
@@ -28476,7 +28557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5.8075911624839695E-2</v>
       </c>
@@ -28508,7 +28589,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6.4606194837027023E-2</v>
       </c>
@@ -28540,7 +28621,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>7.2425751990408904E-2</v>
       </c>
@@ -28572,7 +28653,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7.9673742064779007E-2</v>
       </c>
@@ -28604,7 +28685,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8.4150645386805334E-2</v>
       </c>
@@ -28636,7 +28717,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8.9901610308777843E-2</v>
       </c>
@@ -28668,7 +28749,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9.1223386184597008E-2</v>
       </c>
@@ -28700,7 +28781,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9.6442023145290726E-2</v>
       </c>
@@ -28732,7 +28813,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9.9477533598176196E-2</v>
       </c>
@@ -28764,7 +28845,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>9.6884126112510627E-2</v>
       </c>
@@ -28796,7 +28877,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>9.471388056444241E-2</v>
       </c>
@@ -28828,7 +28909,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>9.254540266239869E-2</v>
       </c>
@@ -28860,7 +28941,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.10289507447968271</v>
       </c>
@@ -28892,7 +28973,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0.10672719379747495</v>
       </c>
@@ -28924,7 +29005,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.10290901110390512</v>
       </c>
@@ -28956,7 +29037,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0.11220286676966544</v>
       </c>
@@ -28988,7 +29069,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0.10968430012204518</v>
       </c>
@@ -29020,7 +29101,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0.11966420440438919</v>
       </c>
@@ -29052,7 +29133,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0.11719556472063039</v>
       </c>
@@ -29084,7 +29165,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0.12497342208992307</v>
       </c>
@@ -29116,7 +29197,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.13022459953393611</v>
       </c>
@@ -29148,7 +29229,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0.1346227723613071</v>
       </c>
@@ -29180,7 +29261,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.13897668870504512</v>
       </c>
@@ -29212,7 +29293,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0.1452254450266946</v>
       </c>
@@ -29244,7 +29325,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0.1517652399550746</v>
       </c>
@@ -29276,7 +29357,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0.14717491728440613</v>
       </c>
@@ -29308,7 +29389,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0.14525617175323022</v>
       </c>
@@ -29340,7 +29421,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0.14294006894173114</v>
       </c>
@@ -29372,7 +29453,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0.13983050546898024</v>
       </c>
@@ -29404,7 +29485,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0.13511344325649974</v>
       </c>
@@ -29436,7 +29517,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0.13313811864284408</v>
       </c>
@@ -29468,7 +29549,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0.13195790735523699</v>
       </c>
@@ -29500,7 +29581,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0.11409605166393115</v>
       </c>
@@ -29532,7 +29613,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0.10573316483687741</v>
       </c>
@@ -29564,7 +29645,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0.10020318391545151</v>
       </c>
@@ -29596,7 +29677,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>8.7637920155527863E-2</v>
       </c>
@@ -29628,7 +29709,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>6.7856844539121858E-2</v>
       </c>
@@ -29660,7 +29741,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>5.6691101599657748E-2</v>
       </c>
@@ -29692,7 +29773,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>4.3820512652031338E-2</v>
       </c>
@@ -29724,7 +29805,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>3.7500188504979277E-2</v>
       </c>
@@ -29750,7 +29831,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2.8102218641202464E-2</v>
       </c>
@@ -29776,7 +29857,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2.2071139351636924E-2</v>
       </c>
@@ -29802,7 +29883,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2.056411522452042E-2</v>
       </c>
@@ -29828,7 +29909,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1.5478208863131698E-2</v>
       </c>
@@ -29854,7 +29935,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1.2401715239417915E-2</v>
       </c>
@@ -29880,7 +29961,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>9.8252660039917054E-3</v>
       </c>
@@ -29906,7 +29987,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>8.2899653283124413E-3</v>
       </c>
@@ -29932,7 +30013,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>6.2200028955656577E-3</v>
       </c>
@@ -29958,7 +30039,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>5.1854503313268213E-3</v>
       </c>
@@ -29984,7 +30065,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>6.2688646389597938E-3</v>
       </c>
@@ -30010,7 +30091,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>3.682376789907313E-3</v>
       </c>
@@ -30036,7 +30117,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0.16936979186525777</v>
       </c>
@@ -30062,7 +30143,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0.16678957932722038</v>
       </c>
@@ -30088,7 +30169,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0.16419674321610564</v>
       </c>
@@ -30114,7 +30195,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0.16270613010506427</v>
       </c>
@@ -30140,7 +30221,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0.16232092825340913</v>
       </c>
@@ -30166,7 +30247,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>0.16786675620829028</v>
       </c>
@@ -30192,7 +30273,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0.17261374229897372</v>
       </c>
@@ -30218,7 +30299,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>0.17694840158764344</v>
       </c>
@@ -30244,7 +30325,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0.17874766920552052</v>
       </c>
@@ -30270,7 +30351,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>0.1833667199715546</v>
       </c>
@@ -30296,7 +30377,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0.11672681001201546</v>
       </c>
@@ -30322,7 +30403,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0.11296266811466504</v>
       </c>
@@ -30348,7 +30429,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0.10747865664497834</v>
       </c>
@@ -30374,7 +30455,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0.10627491799126541</v>
       </c>
@@ -30400,7 +30481,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>0.11384746094644395</v>
       </c>
@@ -30426,7 +30507,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>0.11386300195349584</v>
       </c>
@@ -30452,7 +30533,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>7.789131638745278E-2</v>
       </c>
@@ -30478,7 +30559,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D72">
         <v>8.8831999999999994E-2</v>
       </c>
@@ -30498,7 +30579,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D73">
         <v>8.7299100000000004E-2</v>
       </c>
@@ -30518,7 +30599,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D74">
         <v>8.5748099999999994E-2</v>
       </c>
@@ -30538,7 +30619,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D75">
         <v>8.4179100000000007E-2</v>
       </c>
@@ -30558,7 +30639,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D76">
         <v>8.2592100000000002E-2</v>
       </c>
@@ -30578,7 +30659,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D77">
         <v>8.0987100000000006E-2</v>
       </c>
@@ -30598,7 +30679,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D78">
         <v>7.9364100000000007E-2</v>
       </c>
@@ -30618,7 +30699,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D79">
         <v>7.7723100000000003E-2</v>
       </c>
@@ -30638,7 +30719,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D80">
         <v>7.6064099999999996E-2</v>
       </c>
@@ -30658,7 +30739,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="81" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D81">
         <v>7.4387099999999998E-2</v>
       </c>
@@ -30678,7 +30759,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="82" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D82">
         <v>7.2692099999999996E-2</v>
       </c>
@@ -30698,7 +30779,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="83" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D83">
         <v>7.0979100000000003E-2</v>
       </c>
@@ -30718,7 +30799,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="84" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D84">
         <v>6.9248100000000007E-2</v>
       </c>
@@ -30738,7 +30819,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="85" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D85">
         <v>6.7499199999999995E-2</v>
       </c>
@@ -30758,7 +30839,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="86" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D86">
         <v>6.5732200000000005E-2</v>
       </c>
@@ -30778,7 +30859,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="87" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D87">
         <v>6.3947199999999996E-2</v>
       </c>
@@ -30798,7 +30879,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="88" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D88">
         <v>6.2144199999999997E-2</v>
       </c>
@@ -30812,7 +30893,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="89" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D89">
         <v>6.03232E-2</v>
       </c>
@@ -30826,7 +30907,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="90" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D90">
         <v>5.84842E-2</v>
       </c>
@@ -30840,7 +30921,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="91" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D91">
         <v>5.6627200000000003E-2</v>
       </c>
@@ -30854,7 +30935,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="92" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D92">
         <v>5.4752200000000001E-2</v>
       </c>
@@ -30868,7 +30949,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="93" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D93">
         <v>5.2859200000000002E-2</v>
       </c>
@@ -30882,7 +30963,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="94" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D94">
         <v>5.0948199999999999E-2</v>
       </c>
@@ -30896,7 +30977,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="95" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D95">
         <v>4.9019199999999999E-2</v>
       </c>
@@ -30910,7 +30991,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="96" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="96" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D96">
         <v>4.7072200000000002E-2</v>
       </c>
@@ -30924,7 +31005,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="97" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D97">
         <v>4.5107300000000003E-2</v>
       </c>
@@ -30938,7 +31019,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="98" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D98">
         <v>4.3124299999999997E-2</v>
       </c>
@@ -30952,7 +31033,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="99" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D99">
         <v>4.1123300000000002E-2</v>
       </c>
@@ -30966,7 +31047,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="100" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D100">
         <v>3.9104300000000002E-2</v>
       </c>
@@ -30980,7 +31061,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="101" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D101">
         <v>3.7067299999999997E-2</v>
       </c>
@@ -30994,7 +31075,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="102" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="102" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D102">
         <v>3.5012300000000003E-2</v>
       </c>
@@ -31008,7 +31089,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="103" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D103">
         <v>3.2939299999999998E-2</v>
       </c>
@@ -31022,7 +31103,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="104" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D104">
         <v>3.0848299999999999E-2</v>
       </c>
@@ -31036,7 +31117,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="105" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="105" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D105">
         <v>2.8739299999999999E-2</v>
       </c>
@@ -31050,7 +31131,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="106" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="106" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D106">
         <v>2.6612299999999998E-2</v>
       </c>
@@ -31064,7 +31145,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="107" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="107" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D107">
         <v>2.4467300000000001E-2</v>
       </c>
@@ -31078,7 +31159,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="108" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="108" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D108">
         <v>2.2304299999999999E-2</v>
       </c>
@@ -31092,7 +31173,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="109" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="109" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D109">
         <v>2.01234E-2</v>
       </c>
@@ -31106,7 +31187,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="110" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="110" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D110">
         <v>1.79244E-2</v>
       </c>
@@ -31120,7 +31201,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="111" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="111" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D111">
         <v>1.57074E-2</v>
       </c>
@@ -31134,7 +31215,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="112" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="112" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D112">
         <v>1.3472400000000001E-2</v>
       </c>
@@ -31148,7 +31229,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="113" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="113" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D113">
         <v>1.1219399999999999E-2</v>
       </c>
@@ -31162,7 +31243,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="114" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="114" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D114">
         <v>8.9483900000000005E-3</v>
       </c>
@@ -31176,7 +31257,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="115" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="115" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D115">
         <v>6.6593900000000003E-3</v>
       </c>
@@ -31190,7 +31271,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="116" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="116" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D116">
         <v>4.3523700000000004E-3</v>
       </c>
@@ -31204,7 +31285,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="117" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="117" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D117">
         <v>2.0271099999999999E-3</v>
       </c>
@@ -31218,7 +31299,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="118" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="118" spans="4:11" x14ac:dyDescent="0.3">
       <c r="J118">
         <v>0.16517200000000001</v>
       </c>
@@ -31226,7 +31307,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="119" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="119" spans="4:11" x14ac:dyDescent="0.3">
       <c r="J119">
         <v>0.16569800000000001</v>
       </c>
@@ -31234,7 +31315,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="120" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="120" spans="4:11" x14ac:dyDescent="0.3">
       <c r="J120">
         <v>0.166212</v>
       </c>
@@ -31242,7 +31323,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="121" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="121" spans="4:11" x14ac:dyDescent="0.3">
       <c r="J121">
         <v>0.166714</v>
       </c>
@@ -31250,7 +31331,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="122" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="122" spans="4:11" x14ac:dyDescent="0.3">
       <c r="J122">
         <v>0.16720399999999999</v>
       </c>
@@ -31258,7 +31339,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="123" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="123" spans="4:11" x14ac:dyDescent="0.3">
       <c r="J123">
         <v>0.167682</v>
       </c>
@@ -31266,7 +31347,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="124" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="124" spans="4:11" x14ac:dyDescent="0.3">
       <c r="J124">
         <v>0.16814799999999999</v>
       </c>
@@ -31274,7 +31355,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="125" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="125" spans="4:11" x14ac:dyDescent="0.3">
       <c r="J125">
         <v>0.168602</v>
       </c>
@@ -31282,7 +31363,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="126" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="126" spans="4:11" x14ac:dyDescent="0.3">
       <c r="J126">
         <v>0.169044</v>
       </c>
@@ -31290,7 +31371,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="127" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="127" spans="4:11" x14ac:dyDescent="0.3">
       <c r="J127">
         <v>0.16947400000000001</v>
       </c>
@@ -31298,7 +31379,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="128" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="128" spans="4:11" x14ac:dyDescent="0.3">
       <c r="J128">
         <v>0.16989099999999999</v>
       </c>
@@ -31306,7 +31387,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="129" spans="10:11" x14ac:dyDescent="0.35">
+    <row r="129" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J129">
         <v>0.170297</v>
       </c>
@@ -31314,7 +31395,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="130" spans="10:11" x14ac:dyDescent="0.35">
+    <row r="130" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J130">
         <v>0.17069100000000001</v>
       </c>
@@ -31322,7 +31403,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="131" spans="10:11" x14ac:dyDescent="0.35">
+    <row r="131" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J131">
         <v>0.171073</v>
       </c>
@@ -31330,7 +31411,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="132" spans="10:11" x14ac:dyDescent="0.35">
+    <row r="132" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J132">
         <v>0.17144300000000001</v>
       </c>
@@ -31338,7 +31419,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="133" spans="10:11" x14ac:dyDescent="0.35">
+    <row r="133" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J133">
         <v>0.17180100000000001</v>
       </c>
@@ -31346,7 +31427,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="134" spans="10:11" x14ac:dyDescent="0.35">
+    <row r="134" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J134">
         <v>0.17214699999999999</v>
       </c>
@@ -31354,7 +31435,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="135" spans="10:11" x14ac:dyDescent="0.35">
+    <row r="135" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J135">
         <v>0.172481</v>
       </c>
@@ -31362,7 +31443,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="136" spans="10:11" x14ac:dyDescent="0.35">
+    <row r="136" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J136">
         <v>0.17280300000000001</v>
       </c>
@@ -31370,7 +31451,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="137" spans="10:11" x14ac:dyDescent="0.35">
+    <row r="137" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J137">
         <v>0.17311299999999999</v>
       </c>
@@ -31378,7 +31459,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="138" spans="10:11" x14ac:dyDescent="0.35">
+    <row r="138" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J138">
         <v>0.17341100000000001</v>
       </c>
@@ -31386,7 +31467,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="139" spans="10:11" x14ac:dyDescent="0.35">
+    <row r="139" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J139">
         <v>0.17369699999999999</v>
       </c>
@@ -31394,7 +31475,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="140" spans="10:11" x14ac:dyDescent="0.35">
+    <row r="140" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J140">
         <v>0.17397099999999999</v>
       </c>
@@ -31402,7 +31483,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="141" spans="10:11" x14ac:dyDescent="0.35">
+    <row r="141" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J141">
         <v>0.174233</v>
       </c>
@@ -31410,7 +31491,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="142" spans="10:11" x14ac:dyDescent="0.35">
+    <row r="142" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J142">
         <v>0.174483</v>
       </c>
@@ -31418,7 +31499,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="143" spans="10:11" x14ac:dyDescent="0.35">
+    <row r="143" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J143">
         <v>0.17472099999999999</v>
       </c>
@@ -31426,7 +31507,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="144" spans="10:11" x14ac:dyDescent="0.35">
+    <row r="144" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J144">
         <v>0.17494699999999999</v>
       </c>
@@ -31434,7 +31515,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="145" spans="10:11" x14ac:dyDescent="0.35">
+    <row r="145" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J145">
         <v>0.17516100000000001</v>
       </c>
@@ -31442,7 +31523,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="146" spans="10:11" x14ac:dyDescent="0.35">
+    <row r="146" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J146">
         <v>0.17536299999999999</v>
       </c>
@@ -31450,7 +31531,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="147" spans="10:11" x14ac:dyDescent="0.35">
+    <row r="147" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J147">
         <v>0.17555299999999999</v>
       </c>
@@ -31458,7 +31539,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="148" spans="10:11" x14ac:dyDescent="0.35">
+    <row r="148" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J148">
         <v>0.175731</v>
       </c>
@@ -31466,7 +31547,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="149" spans="10:11" x14ac:dyDescent="0.35">
+    <row r="149" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J149">
         <v>0.175897</v>
       </c>
@@ -31474,7 +31555,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="150" spans="10:11" x14ac:dyDescent="0.35">
+    <row r="150" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J150">
         <v>0.17605100000000001</v>
       </c>
@@ -31482,7 +31563,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="151" spans="10:11" x14ac:dyDescent="0.35">
+    <row r="151" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J151">
         <v>0.17619299999999999</v>
       </c>
@@ -31490,7 +31571,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="152" spans="10:11" x14ac:dyDescent="0.35">
+    <row r="152" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J152">
         <v>0.17632300000000001</v>
       </c>
@@ -31498,7 +31579,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="153" spans="10:11" x14ac:dyDescent="0.35">
+    <row r="153" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J153">
         <v>0.17644099999999999</v>
       </c>
@@ -31516,18 +31597,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556E2A7A-4B7B-4A50-AF35-9F50D05A118E}">
   <dimension ref="A1:F354"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -31535,7 +31616,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -31549,7 +31630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3.940093261019946E-2</v>
       </c>
@@ -31566,7 +31647,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5.8075911624839695E-2</v>
       </c>
@@ -31580,7 +31661,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6.4606194837027023E-2</v>
       </c>
@@ -31594,7 +31675,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>7.2425751990408904E-2</v>
       </c>
@@ -31608,7 +31689,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7.9673742064779007E-2</v>
       </c>
@@ -31622,7 +31703,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8.4150645386805334E-2</v>
       </c>
@@ -31636,7 +31717,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8.9901610308777843E-2</v>
       </c>
@@ -31650,7 +31731,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9.1223386184597008E-2</v>
       </c>
@@ -31664,7 +31745,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9.6442023145290726E-2</v>
       </c>
@@ -31678,7 +31759,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9.9477533598176196E-2</v>
       </c>
@@ -31692,7 +31773,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>9.6884126112510627E-2</v>
       </c>
@@ -31706,7 +31787,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>9.471388056444241E-2</v>
       </c>
@@ -31720,7 +31801,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>9.254540266239869E-2</v>
       </c>
@@ -31734,7 +31815,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.10289507447968271</v>
       </c>
@@ -31748,7 +31829,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0.10672719379747495</v>
       </c>
@@ -31762,7 +31843,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.10290901110390512</v>
       </c>
@@ -31776,7 +31857,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0.11220286676966544</v>
       </c>
@@ -31790,7 +31871,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0.10968430012204518</v>
       </c>
@@ -31804,7 +31885,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0.11966420440438919</v>
       </c>
@@ -31818,7 +31899,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0.11719556472063039</v>
       </c>
@@ -31832,7 +31913,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0.12497342208992307</v>
       </c>
@@ -31846,7 +31927,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.13022459953393611</v>
       </c>
@@ -31860,7 +31941,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0.1346227723613071</v>
       </c>
@@ -31874,7 +31955,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.13897668870504512</v>
       </c>
@@ -31888,7 +31969,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0.1452254450266946</v>
       </c>
@@ -31902,7 +31983,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0.1517652399550746</v>
       </c>
@@ -31916,7 +31997,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0.14717491728440613</v>
       </c>
@@ -31930,7 +32011,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0.14525617175323022</v>
       </c>
@@ -31944,7 +32025,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0.14294006894173114</v>
       </c>
@@ -31958,7 +32039,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0.13983050546898024</v>
       </c>
@@ -31972,7 +32053,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0.13511344325649974</v>
       </c>
@@ -31986,7 +32067,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0.13313811864284408</v>
       </c>
@@ -32000,7 +32081,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0.13195790735523699</v>
       </c>
@@ -32014,7 +32095,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0.11409605166393115</v>
       </c>
@@ -32028,7 +32109,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0.10573316483687741</v>
       </c>
@@ -32042,7 +32123,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0.10020318391545151</v>
       </c>
@@ -32056,7 +32137,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>8.7637920155527863E-2</v>
       </c>
@@ -32070,7 +32151,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>6.7856844539121858E-2</v>
       </c>
@@ -32084,7 +32165,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>5.6691101599657748E-2</v>
       </c>
@@ -32098,7 +32179,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>4.3820512652031338E-2</v>
       </c>
@@ -32112,7 +32193,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>3.7500188504979277E-2</v>
       </c>
@@ -32126,7 +32207,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2.8102218641202464E-2</v>
       </c>
@@ -32140,7 +32221,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2.2071139351636924E-2</v>
       </c>
@@ -32154,7 +32235,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2.056411522452042E-2</v>
       </c>
@@ -32168,7 +32249,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1.5478208863131698E-2</v>
       </c>
@@ -32182,7 +32263,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1.2401715239417915E-2</v>
       </c>
@@ -32196,7 +32277,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>9.8252660039917054E-3</v>
       </c>
@@ -32210,7 +32291,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>8.2899653283124413E-3</v>
       </c>
@@ -32224,7 +32305,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>6.2200028955656577E-3</v>
       </c>
@@ -32238,7 +32319,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>5.1854503313268213E-3</v>
       </c>
@@ -32252,7 +32333,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>6.2688646389597938E-3</v>
       </c>
@@ -32266,7 +32347,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>3.682376789907313E-3</v>
       </c>
@@ -32280,7 +32361,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0.16936979186525777</v>
       </c>
@@ -32294,7 +32375,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0.16678957932722038</v>
       </c>
@@ -32308,7 +32389,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0.16419674321610564</v>
       </c>
@@ -32322,7 +32403,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0.16270613010506427</v>
       </c>
@@ -32336,7 +32417,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0.16232092825340913</v>
       </c>
@@ -32350,7 +32431,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>0.16786675620829028</v>
       </c>
@@ -32364,7 +32445,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0.17261374229897372</v>
       </c>
@@ -32378,7 +32459,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>0.17694840158764344</v>
       </c>
@@ -32392,7 +32473,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0.17874766920552052</v>
       </c>
@@ -32406,7 +32487,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>0.1833667199715546</v>
       </c>
@@ -32420,7 +32501,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0.11672681001201546</v>
       </c>
@@ -32434,7 +32515,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0.11296266811466504</v>
       </c>
@@ -32448,7 +32529,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0.10747865664497834</v>
       </c>
@@ -32462,7 +32543,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0.10627491799126541</v>
       </c>
@@ -32476,7 +32557,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>0.11384746094644395</v>
       </c>
@@ -32490,7 +32571,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>0.11386300195349584</v>
       </c>
@@ -32504,7 +32585,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>7.789131638745278E-2</v>
       </c>
@@ -32518,7 +32599,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D72" s="19">
         <v>8.7299100000000004E-2</v>
       </c>
@@ -32526,7 +32607,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D73" s="19">
         <v>8.5748099999999994E-2</v>
       </c>
@@ -32534,7 +32615,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D74" s="19">
         <v>8.4179100000000007E-2</v>
       </c>
@@ -32542,7 +32623,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D75" s="19">
         <v>8.2592100000000002E-2</v>
       </c>
@@ -32550,7 +32631,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D76" s="19">
         <v>8.0987100000000006E-2</v>
       </c>
@@ -32558,7 +32639,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D77" s="19">
         <v>7.9364100000000007E-2</v>
       </c>
@@ -32566,7 +32647,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D78" s="19">
         <v>7.7723100000000003E-2</v>
       </c>
@@ -32574,7 +32655,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D79" s="19">
         <v>7.6064099999999996E-2</v>
       </c>
@@ -32582,7 +32663,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D80" s="19">
         <v>7.4387099999999998E-2</v>
       </c>
@@ -32590,7 +32671,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D81" s="19">
         <v>7.2692099999999996E-2</v>
       </c>
@@ -32598,7 +32679,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D82" s="19">
         <v>7.0979100000000003E-2</v>
       </c>
@@ -32606,7 +32687,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D83" s="19">
         <v>6.9248100000000007E-2</v>
       </c>
@@ -32614,7 +32695,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D84" s="19">
         <v>6.7499199999999995E-2</v>
       </c>
@@ -32622,7 +32703,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D85" s="19">
         <v>6.5732200000000005E-2</v>
       </c>
@@ -32630,7 +32711,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D86" s="19">
         <v>6.3947199999999996E-2</v>
       </c>
@@ -32638,7 +32719,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D87" s="19">
         <v>6.2144199999999997E-2</v>
       </c>
@@ -32646,7 +32727,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D88" s="19">
         <v>6.03232E-2</v>
       </c>
@@ -32654,7 +32735,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D89" s="19">
         <v>5.84842E-2</v>
       </c>
@@ -32662,7 +32743,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D90" s="19">
         <v>5.6627200000000003E-2</v>
       </c>
@@ -32670,7 +32751,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D91" s="19">
         <v>5.4752200000000001E-2</v>
       </c>
@@ -32678,7 +32759,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D92" s="19">
         <v>5.2859200000000002E-2</v>
       </c>
@@ -32686,7 +32767,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D93" s="19">
         <v>5.0948199999999999E-2</v>
       </c>
@@ -32694,7 +32775,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D94" s="19">
         <v>4.9019199999999999E-2</v>
       </c>
@@ -32702,7 +32783,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D95" s="19">
         <v>4.7072200000000002E-2</v>
       </c>
@@ -32710,7 +32791,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D96" s="19">
         <v>4.5107300000000003E-2</v>
       </c>
@@ -32718,7 +32799,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D97" s="19">
         <v>4.3124299999999997E-2</v>
       </c>
@@ -32726,7 +32807,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D98" s="19">
         <v>4.1123300000000002E-2</v>
       </c>
@@ -32734,7 +32815,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D99" s="19">
         <v>3.9104300000000002E-2</v>
       </c>
@@ -32742,7 +32823,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D100" s="19">
         <v>3.7067299999999997E-2</v>
       </c>
@@ -32750,7 +32831,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D101" s="19">
         <v>3.5012300000000003E-2</v>
       </c>
@@ -32758,7 +32839,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D102" s="19">
         <v>3.2939299999999998E-2</v>
       </c>
@@ -32766,7 +32847,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="103" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D103" s="19">
         <v>3.0848299999999999E-2</v>
       </c>
@@ -32774,7 +32855,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D104" s="19">
         <v>2.8739299999999999E-2</v>
       </c>
@@ -32782,7 +32863,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="105" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D105" s="19">
         <v>2.6612299999999998E-2</v>
       </c>
@@ -32790,7 +32871,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D106" s="19">
         <v>2.4467300000000001E-2</v>
       </c>
@@ -32798,7 +32879,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D107" s="19">
         <v>2.2304299999999999E-2</v>
       </c>
@@ -32806,7 +32887,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D108" s="19">
         <v>2.01234E-2</v>
       </c>
@@ -32814,7 +32895,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D109" s="19">
         <v>1.79244E-2</v>
       </c>
@@ -32822,7 +32903,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D110" s="19">
         <v>1.57074E-2</v>
       </c>
@@ -32830,7 +32911,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D111" s="19">
         <v>1.3472400000000001E-2</v>
       </c>
@@ -32838,7 +32919,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D112" s="19">
         <v>1.1219399999999999E-2</v>
       </c>
@@ -32846,7 +32927,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="113" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D113" s="19">
         <v>8.9483900000000005E-3</v>
       </c>
@@ -32854,7 +32935,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="114" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D114" s="19">
         <v>6.6593900000000003E-3</v>
       </c>
@@ -32862,7 +32943,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="115" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D115" s="19">
         <v>4.3523700000000004E-3</v>
       </c>
@@ -32870,7 +32951,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="116" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D116" s="21">
         <v>2.0271099999999999E-3</v>
       </c>
@@ -32878,22 +32959,22 @@
         <v>463</v>
       </c>
     </row>
-    <row r="117" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D117" s="15"/>
       <c r="E117" s="16"/>
       <c r="F117" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="118" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D118" s="15"/>
       <c r="E118" s="16"/>
     </row>
-    <row r="119" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D119" s="15"/>
       <c r="E119" s="16"/>
     </row>
-    <row r="120" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D120" s="23">
         <v>2.65483E-2</v>
       </c>
@@ -32904,7 +32985,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="121" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D121" s="25">
         <v>2.84423E-2</v>
       </c>
@@ -32912,7 +32993,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="122" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D122" s="25">
         <v>3.0324299999999998E-2</v>
       </c>
@@ -32920,7 +33001,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="123" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D123" s="25">
         <v>3.2194300000000002E-2</v>
       </c>
@@ -32928,7 +33009,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="124" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D124" s="25">
         <v>3.4052300000000001E-2</v>
       </c>
@@ -32936,7 +33017,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="125" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D125" s="25">
         <v>3.5898300000000001E-2</v>
       </c>
@@ -32944,7 +33025,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="126" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D126" s="25">
         <v>3.7732300000000003E-2</v>
       </c>
@@ -32952,7 +33033,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="127" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D127" s="25">
         <v>3.9554300000000001E-2</v>
       </c>
@@ -32960,7 +33041,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="128" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D128" s="25">
         <v>4.13643E-2</v>
       </c>
@@ -32968,7 +33049,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D129" s="25">
         <v>4.3162300000000001E-2</v>
       </c>
@@ -32976,7 +33057,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D130" s="25">
         <v>4.4948299999999997E-2</v>
       </c>
@@ -32984,7 +33065,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D131" s="25">
         <v>4.6722199999999998E-2</v>
       </c>
@@ -32992,7 +33073,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D132" s="25">
         <v>4.8484199999999998E-2</v>
       </c>
@@ -33000,7 +33081,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="133" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D133" s="25">
         <v>5.02342E-2</v>
       </c>
@@ -33008,7 +33089,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="134" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D134" s="25">
         <v>5.1972200000000003E-2</v>
       </c>
@@ -33016,7 +33097,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="135" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D135" s="25">
         <v>5.3698200000000001E-2</v>
       </c>
@@ -33024,7 +33105,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="136" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D136" s="25">
         <v>5.5412200000000002E-2</v>
       </c>
@@ -33032,7 +33113,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="137" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D137" s="25">
         <v>5.7114199999999997E-2</v>
       </c>
@@ -33040,7 +33121,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="138" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D138" s="25">
         <v>5.8804200000000001E-2</v>
       </c>
@@ -33048,7 +33129,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="139" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D139" s="25">
         <v>6.04822E-2</v>
       </c>
@@ -33056,7 +33137,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="140" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D140" s="25">
         <v>6.2148200000000001E-2</v>
       </c>
@@ -33064,7 +33145,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="141" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D141" s="25">
         <v>6.3802200000000003E-2</v>
       </c>
@@ -33072,7 +33153,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="142" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D142" s="25">
         <v>6.5444199999999994E-2</v>
       </c>
@@ -33080,7 +33161,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="143" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D143" s="25">
         <v>6.70742E-2</v>
       </c>
@@ -33088,7 +33169,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="144" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D144" s="25">
         <v>6.8692100000000006E-2</v>
       </c>
@@ -33096,7 +33177,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="145" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D145" s="25">
         <v>7.0298100000000002E-2</v>
       </c>
@@ -33104,7 +33185,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="146" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D146" s="25">
         <v>7.18921E-2</v>
       </c>
@@ -33112,7 +33193,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="147" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D147" s="25">
         <v>7.3474100000000001E-2</v>
       </c>
@@ -33120,7 +33201,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="148" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D148" s="25">
         <v>7.5044100000000002E-2</v>
       </c>
@@ -33128,7 +33209,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="149" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D149" s="25">
         <v>7.6602100000000006E-2</v>
       </c>
@@ -33136,7 +33217,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="150" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D150" s="25">
         <v>7.8148099999999998E-2</v>
       </c>
@@ -33144,7 +33225,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="151" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D151" s="25">
         <v>7.9682100000000006E-2</v>
       </c>
@@ -33152,7 +33233,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="152" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D152" s="25">
         <v>8.1204100000000001E-2</v>
       </c>
@@ -33160,7 +33241,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="153" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D153" s="25">
         <v>8.2714099999999999E-2</v>
       </c>
@@ -33168,7 +33249,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="154" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D154" s="25">
         <v>8.4212099999999998E-2</v>
       </c>
@@ -33176,7 +33257,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="155" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D155" s="25">
         <v>8.5698099999999999E-2</v>
       </c>
@@ -33184,7 +33265,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="156" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D156" s="25">
         <v>8.7172100000000002E-2</v>
       </c>
@@ -33192,7 +33273,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="157" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D157" s="25">
         <v>8.8634000000000004E-2</v>
       </c>
@@ -33200,7 +33281,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="158" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D158" s="25">
         <v>9.0083999999999997E-2</v>
       </c>
@@ -33208,7 +33289,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="159" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D159" s="25">
         <v>9.1522000000000006E-2</v>
       </c>
@@ -33216,7 +33297,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="160" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D160" s="25">
         <v>9.2948000000000003E-2</v>
       </c>
@@ -33224,7 +33305,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="161" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D161" s="25">
         <v>9.4362000000000001E-2</v>
       </c>
@@ -33232,7 +33313,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="162" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D162" s="25">
         <v>9.5764000000000002E-2</v>
       </c>
@@ -33240,7 +33321,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="163" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D163" s="25">
         <v>9.7154000000000004E-2</v>
       </c>
@@ -33248,7 +33329,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D164" s="25">
         <v>9.8531999999999995E-2</v>
       </c>
@@ -33256,7 +33337,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="165" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D165" s="25">
         <v>9.9898000000000001E-2</v>
       </c>
@@ -33264,7 +33345,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D166" s="25">
         <v>0.10125199999999999</v>
       </c>
@@ -33272,7 +33353,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D167" s="25">
         <v>0.102594</v>
       </c>
@@ -33280,7 +33361,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D168" s="25">
         <v>0.103924</v>
       </c>
@@ -33288,7 +33369,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="169" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D169" s="25">
         <v>0.105242</v>
       </c>
@@ -33296,7 +33377,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="170" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D170" s="25">
         <v>0.106548</v>
       </c>
@@ -33304,7 +33385,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D171" s="25">
         <v>0.10784199999999999</v>
       </c>
@@ -33312,7 +33393,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="172" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D172" s="25">
         <v>0.109124</v>
       </c>
@@ -33320,7 +33401,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="173" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D173" s="25">
         <v>0.11039400000000001</v>
       </c>
@@ -33328,7 +33409,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="174" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D174" s="25">
         <v>0.111652</v>
       </c>
@@ -33336,7 +33417,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="175" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D175" s="25">
         <v>0.112898</v>
       </c>
@@ -33344,7 +33425,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="176" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D176" s="25">
         <v>0.114132</v>
       </c>
@@ -33352,7 +33433,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D177" s="25">
         <v>0.115354</v>
       </c>
@@ -33360,7 +33441,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D178" s="25">
         <v>0.116564</v>
       </c>
@@ -33368,7 +33449,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D179" s="25">
         <v>0.11776200000000001</v>
       </c>
@@ -33376,7 +33457,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="180" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D180" s="25">
         <v>0.118948</v>
       </c>
@@ -33384,7 +33465,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="181" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D181" s="25">
         <v>0.12012200000000001</v>
       </c>
@@ -33392,7 +33473,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="182" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D182" s="25">
         <v>0.121284</v>
       </c>
@@ -33400,7 +33481,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="183" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D183" s="25">
         <v>0.122434</v>
       </c>
@@ -33408,7 +33489,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="184" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D184" s="25">
         <v>0.123572</v>
       </c>
@@ -33416,7 +33497,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="185" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D185" s="25">
         <v>0.124698</v>
       </c>
@@ -33424,7 +33505,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="186" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D186" s="25">
         <v>0.12581200000000001</v>
       </c>
@@ -33432,7 +33513,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="187" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D187" s="25">
         <v>0.126914</v>
       </c>
@@ -33440,7 +33521,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="188" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D188" s="25">
         <v>0.12800400000000001</v>
       </c>
@@ -33448,7 +33529,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="189" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D189" s="25">
         <v>0.129082</v>
       </c>
@@ -33456,7 +33537,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="190" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D190" s="25">
         <v>0.13014800000000001</v>
       </c>
@@ -33464,7 +33545,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="191" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D191" s="25">
         <v>0.13120200000000001</v>
       </c>
@@ -33472,7 +33553,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="192" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D192" s="25">
         <v>0.132244</v>
       </c>
@@ -33480,7 +33561,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="193" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D193" s="25">
         <v>0.133274</v>
       </c>
@@ -33488,7 +33569,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="194" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D194" s="25">
         <v>0.13429199999999999</v>
       </c>
@@ -33496,7 +33577,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="195" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D195" s="25">
         <v>0.135298</v>
       </c>
@@ -33504,7 +33585,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="196" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D196" s="25">
         <v>0.136292</v>
       </c>
@@ -33512,7 +33593,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="197" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D197" s="25">
         <v>0.13727400000000001</v>
       </c>
@@ -33520,7 +33601,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="198" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D198" s="25">
         <v>0.13824400000000001</v>
       </c>
@@ -33528,7 +33609,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="199" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D199" s="25">
         <v>0.13920199999999999</v>
       </c>
@@ -33536,7 +33617,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="200" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D200" s="25">
         <v>0.14014799999999999</v>
       </c>
@@ -33544,7 +33625,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="201" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D201" s="25">
         <v>0.14108200000000001</v>
       </c>
@@ -33552,7 +33633,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="202" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D202" s="25">
         <v>0.14200399999999999</v>
       </c>
@@ -33560,7 +33641,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="203" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D203" s="25">
         <v>0.14291400000000001</v>
       </c>
@@ -33568,7 +33649,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="204" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D204" s="25">
         <v>0.143812</v>
       </c>
@@ -33576,7 +33657,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="205" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D205" s="25">
         <v>0.14469799999999999</v>
       </c>
@@ -33584,7 +33665,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="206" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="206" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D206" s="25">
         <v>0.14557200000000001</v>
       </c>
@@ -33592,7 +33673,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="207" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D207" s="25">
         <v>0.14643400000000001</v>
       </c>
@@ -33600,7 +33681,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="208" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D208" s="25">
         <v>0.147284</v>
       </c>
@@ -33608,7 +33689,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="209" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D209" s="25">
         <v>0.148122</v>
       </c>
@@ -33616,7 +33697,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="210" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D210" s="25">
         <v>0.148948</v>
       </c>
@@ -33624,7 +33705,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="211" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D211" s="25">
         <v>0.14976200000000001</v>
       </c>
@@ -33632,7 +33713,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="212" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D212" s="25">
         <v>0.150564</v>
       </c>
@@ -33640,7 +33721,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="213" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D213" s="25">
         <v>0.15135399999999999</v>
       </c>
@@ -33648,7 +33729,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="214" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D214" s="25">
         <v>0.15213199999999999</v>
       </c>
@@ -33656,7 +33737,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="215" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D215" s="25">
         <v>0.15289800000000001</v>
       </c>
@@ -33664,7 +33745,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="216" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D216" s="25">
         <v>0.15365200000000001</v>
       </c>
@@ -33672,7 +33753,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="217" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D217" s="25">
         <v>0.154394</v>
       </c>
@@ -33680,7 +33761,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="218" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D218" s="25">
         <v>0.15512400000000001</v>
       </c>
@@ -33688,7 +33769,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="219" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D219" s="25">
         <v>0.15584200000000001</v>
       </c>
@@ -33696,7 +33777,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="220" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D220" s="25">
         <v>0.15654799999999999</v>
       </c>
@@ -33704,7 +33785,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="221" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D221" s="25">
         <v>0.15724199999999999</v>
       </c>
@@ -33712,7 +33793,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="222" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D222" s="25">
         <v>0.15792400000000001</v>
       </c>
@@ -33720,7 +33801,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="223" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D223" s="25">
         <v>0.15859400000000001</v>
       </c>
@@ -33728,7 +33809,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="224" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D224" s="25">
         <v>0.159252</v>
       </c>
@@ -33736,7 +33817,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="225" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D225" s="25">
         <v>0.15989800000000001</v>
       </c>
@@ -33744,7 +33825,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="226" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D226" s="25">
         <v>0.16053200000000001</v>
       </c>
@@ -33752,7 +33833,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="227" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="227" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D227" s="25">
         <v>0.16115399999999999</v>
       </c>
@@ -33760,7 +33841,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="228" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D228" s="25">
         <v>0.16176399999999999</v>
       </c>
@@ -33768,7 +33849,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="229" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="229" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D229" s="25">
         <v>0.16236200000000001</v>
       </c>
@@ -33776,7 +33857,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="230" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="230" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D230" s="25">
         <v>0.16294800000000001</v>
       </c>
@@ -33784,7 +33865,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="231" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D231" s="25">
         <v>0.163522</v>
       </c>
@@ -33792,7 +33873,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="232" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="232" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D232" s="25">
         <v>0.16408400000000001</v>
       </c>
@@ -33800,7 +33881,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="233" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D233" s="25">
         <v>0.164634</v>
       </c>
@@ -33808,7 +33889,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="234" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="234" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D234" s="25">
         <v>0.16517200000000001</v>
       </c>
@@ -33816,7 +33897,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="235" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D235" s="25">
         <v>0.16569800000000001</v>
       </c>
@@ -33824,7 +33905,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="236" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="236" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D236" s="25">
         <v>0.166212</v>
       </c>
@@ -33832,7 +33913,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="237" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="237" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D237" s="25">
         <v>0.166714</v>
       </c>
@@ -33840,7 +33921,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="238" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D238" s="25">
         <v>0.16720399999999999</v>
       </c>
@@ -33848,7 +33929,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="239" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D239" s="25">
         <v>0.167682</v>
       </c>
@@ -33856,7 +33937,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="240" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="240" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D240" s="25">
         <v>0.16814799999999999</v>
       </c>
@@ -33864,7 +33945,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="241" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D241" s="25">
         <v>0.168602</v>
       </c>
@@ -33872,7 +33953,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="242" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="242" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D242" s="25">
         <v>0.169044</v>
       </c>
@@ -33880,7 +33961,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="243" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="243" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D243" s="25">
         <v>0.16947400000000001</v>
       </c>
@@ -33888,7 +33969,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="244" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D244" s="25">
         <v>0.16989099999999999</v>
       </c>
@@ -33896,7 +33977,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="245" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="245" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D245" s="25">
         <v>0.170297</v>
       </c>
@@ -33904,7 +33985,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="246" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D246" s="25">
         <v>0.17069100000000001</v>
       </c>
@@ -33912,7 +33993,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="247" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="247" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D247" s="25">
         <v>0.171073</v>
       </c>
@@ -33920,7 +34001,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="248" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="248" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D248" s="25">
         <v>0.17144300000000001</v>
       </c>
@@ -33928,7 +34009,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="249" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D249" s="25">
         <v>0.17180100000000001</v>
       </c>
@@ -33936,7 +34017,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="250" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="250" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D250" s="25">
         <v>0.17214699999999999</v>
       </c>
@@ -33944,7 +34025,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="251" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="251" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D251" s="25">
         <v>0.172481</v>
       </c>
@@ -33952,7 +34033,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="252" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="252" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D252" s="25">
         <v>0.17280300000000001</v>
       </c>
@@ -33960,7 +34041,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="253" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="253" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D253" s="25">
         <v>0.17311299999999999</v>
       </c>
@@ -33968,7 +34049,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="254" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="254" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D254" s="25">
         <v>0.17341100000000001</v>
       </c>
@@ -33976,7 +34057,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="255" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="255" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D255" s="25">
         <v>0.17369699999999999</v>
       </c>
@@ -33984,7 +34065,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="256" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="256" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D256" s="25">
         <v>0.17397099999999999</v>
       </c>
@@ -33992,7 +34073,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="257" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="257" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D257" s="25">
         <v>0.174233</v>
       </c>
@@ -34000,7 +34081,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="258" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="258" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D258" s="25">
         <v>0.174483</v>
       </c>
@@ -34008,7 +34089,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="259" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="259" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D259" s="25">
         <v>0.17472099999999999</v>
       </c>
@@ -34016,7 +34097,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="260" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="260" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D260" s="25">
         <v>0.17494699999999999</v>
       </c>
@@ -34024,7 +34105,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="261" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="261" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D261" s="25">
         <v>0.17516100000000001</v>
       </c>
@@ -34032,7 +34113,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="262" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="262" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D262" s="25">
         <v>0.17536299999999999</v>
       </c>
@@ -34040,7 +34121,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="263" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="263" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D263" s="25">
         <v>0.17555299999999999</v>
       </c>
@@ -34048,7 +34129,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="264" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="264" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D264" s="25">
         <v>0.175731</v>
       </c>
@@ -34056,7 +34137,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="265" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="265" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D265" s="25">
         <v>0.175897</v>
       </c>
@@ -34064,7 +34145,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="266" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="266" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D266" s="25">
         <v>0.17605100000000001</v>
       </c>
@@ -34072,7 +34153,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="267" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="267" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D267" s="25">
         <v>0.17619299999999999</v>
       </c>
@@ -34080,7 +34161,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="268" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="268" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D268" s="25">
         <v>0.17632300000000001</v>
       </c>
@@ -34088,7 +34169,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="269" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="269" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D269" s="25">
         <v>0.17644099999999999</v>
       </c>
@@ -34096,7 +34177,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="271" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="271" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D271">
         <v>0.13967299999999999</v>
       </c>
@@ -34107,7 +34188,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="272" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="272" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D272">
         <v>0.13952800000000001</v>
       </c>
@@ -34115,7 +34196,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="273" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="273" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D273">
         <v>0.13939299999999999</v>
       </c>
@@ -34123,7 +34204,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="274" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="274" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D274">
         <v>0.139268</v>
       </c>
@@ -34131,7 +34212,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="275" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="275" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D275">
         <v>0.139153</v>
       </c>
@@ -34139,7 +34220,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="276" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="276" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D276">
         <v>0.139048</v>
       </c>
@@ -34147,7 +34228,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="277" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="277" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D277">
         <v>0.13895299999999999</v>
       </c>
@@ -34155,7 +34236,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="278" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="278" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D278">
         <v>0.13886799999999999</v>
       </c>
@@ -34163,7 +34244,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="279" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="279" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D279">
         <v>0.138793</v>
       </c>
@@ -34171,7 +34252,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="280" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="280" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D280">
         <v>0.13872799999999999</v>
       </c>
@@ -34179,7 +34260,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="281" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="281" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D281">
         <v>0.13867299999999999</v>
       </c>
@@ -34187,7 +34268,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="282" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="282" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D282">
         <v>0.138628</v>
       </c>
@@ -34195,7 +34276,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="283" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="283" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D283">
         <v>0.13859299999999999</v>
       </c>
@@ -34203,7 +34284,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="284" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="284" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D284">
         <v>0.138568</v>
       </c>
@@ -34211,7 +34292,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="285" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="285" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D285">
         <v>0.13855300000000001</v>
       </c>
@@ -34219,7 +34300,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="286" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="286" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D286">
         <v>0.138548</v>
       </c>
@@ -34227,7 +34308,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="287" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="287" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D287">
         <v>0.13855300000000001</v>
       </c>
@@ -34235,7 +34316,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="288" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="288" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D288">
         <v>0.138568</v>
       </c>
@@ -34243,7 +34324,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="289" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="289" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D289">
         <v>0.13859299999999999</v>
       </c>
@@ -34251,7 +34332,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="290" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="290" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D290">
         <v>0.138628</v>
       </c>
@@ -34259,7 +34340,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="291" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="291" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D291">
         <v>0.13867299999999999</v>
       </c>
@@ -34267,7 +34348,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="292" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="292" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D292">
         <v>0.13872799999999999</v>
       </c>
@@ -34275,7 +34356,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="293" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="293" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D293">
         <v>0.138793</v>
       </c>
@@ -34283,7 +34364,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="294" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="294" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D294">
         <v>0.13886799999999999</v>
       </c>
@@ -34291,7 +34372,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="295" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="295" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D295">
         <v>0.13895299999999999</v>
       </c>
@@ -34299,7 +34380,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="296" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="296" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D296">
         <v>0.139048</v>
       </c>
@@ -34307,7 +34388,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="297" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="297" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D297">
         <v>0.139153</v>
       </c>
@@ -34315,7 +34396,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="298" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="298" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D298">
         <v>0.139268</v>
       </c>
@@ -34323,7 +34404,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="299" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="299" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D299">
         <v>0.13939299999999999</v>
       </c>
@@ -34331,7 +34412,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="300" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="300" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D300">
         <v>0.13952800000000001</v>
       </c>
@@ -34339,7 +34420,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="301" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="301" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D301">
         <v>0.13967299999999999</v>
       </c>
@@ -34347,7 +34428,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="302" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="302" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D302">
         <v>0.13982800000000001</v>
       </c>
@@ -34355,7 +34436,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="303" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="303" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D303">
         <v>0.13999300000000001</v>
       </c>
@@ -34363,7 +34444,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="304" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="304" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D304">
         <v>0.14016799999999999</v>
       </c>
@@ -34371,7 +34452,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="305" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="305" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D305">
         <v>0.14035300000000001</v>
       </c>
@@ -34379,7 +34460,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="306" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="306" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D306">
         <v>0.14054800000000001</v>
       </c>
@@ -34387,7 +34468,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="307" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="307" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D307">
         <v>0.14075299999999999</v>
       </c>
@@ -34395,7 +34476,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="308" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="308" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D308">
         <v>0.14096800000000001</v>
       </c>
@@ -34403,7 +34484,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="309" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="309" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D309">
         <v>0.14119300000000001</v>
       </c>
@@ -34411,7 +34492,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="310" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="310" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D310">
         <v>0.141428</v>
       </c>
@@ -34419,7 +34500,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="311" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="311" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D311">
         <v>0.14167299999999999</v>
       </c>
@@ -34427,7 +34508,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="312" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="312" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D312">
         <v>0.141928</v>
       </c>
@@ -34435,7 +34516,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="313" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="313" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D313">
         <v>0.14219300000000001</v>
       </c>
@@ -34443,7 +34524,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="314" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="314" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D314">
         <v>0.14246800000000001</v>
       </c>
@@ -34451,7 +34532,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="315" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="315" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D315">
         <v>0.14275299999999999</v>
       </c>
@@ -34459,7 +34540,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="316" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="316" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D316">
         <v>0.14304800000000001</v>
       </c>
@@ -34467,7 +34548,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="317" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="317" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D317">
         <v>0.14335300000000001</v>
       </c>
@@ -34475,7 +34556,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="318" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="318" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D318">
         <v>0.14366799999999999</v>
       </c>
@@ -34483,7 +34564,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="319" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="319" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D319">
         <v>0.14399300000000001</v>
       </c>
@@ -34491,7 +34572,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="320" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="320" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D320">
         <v>0.14432800000000001</v>
       </c>
@@ -34499,7 +34580,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="321" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="321" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D321">
         <v>0.144673</v>
       </c>
@@ -34507,7 +34588,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="322" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="322" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D322">
         <v>0.14502799999999999</v>
       </c>
@@ -34515,7 +34596,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="323" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="323" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D323">
         <v>0.14539299999999999</v>
       </c>
@@ -34523,7 +34604,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="324" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="324" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D324">
         <v>0.14576800000000001</v>
       </c>
@@ -34531,7 +34612,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="325" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="325" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D325">
         <v>0.14615300000000001</v>
       </c>
@@ -34539,7 +34620,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="326" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="326" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D326">
         <v>0.14654800000000001</v>
       </c>
@@ -34547,7 +34628,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="327" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="327" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D327">
         <v>0.146953</v>
       </c>
@@ -34555,7 +34636,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="328" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="328" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D328">
         <v>0.147368</v>
       </c>
@@ -34563,7 +34644,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="329" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="329" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D329">
         <v>0.14779300000000001</v>
       </c>
@@ -34571,7 +34652,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="330" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="330" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D330">
         <v>0.148228</v>
       </c>
@@ -34579,7 +34660,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="331" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="331" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D331">
         <v>0.148673</v>
       </c>
@@ -34587,7 +34668,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="332" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="332" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D332">
         <v>0.14912800000000001</v>
       </c>
@@ -34595,7 +34676,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="333" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="333" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D333">
         <v>0.149593</v>
       </c>
@@ -34603,7 +34684,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="334" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="334" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D334">
         <v>0.15006800000000001</v>
       </c>
@@ -34611,7 +34692,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="335" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="335" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D335">
         <v>0.15055299999999999</v>
       </c>
@@ -34619,7 +34700,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="336" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="336" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D336">
         <v>0.15104799999999999</v>
       </c>
@@ -34627,7 +34708,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="337" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="337" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D337">
         <v>0.15155299999999999</v>
       </c>
@@ -34635,7 +34716,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="338" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="338" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D338">
         <v>0.15206800000000001</v>
       </c>
@@ -34643,7 +34724,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="339" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="339" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D339">
         <v>0.15259300000000001</v>
       </c>
@@ -34651,7 +34732,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="340" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="340" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D340">
         <v>0.15312799999999999</v>
       </c>
@@ -34659,7 +34740,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="341" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="341" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D341">
         <v>0.153673</v>
       </c>
@@ -34667,7 +34748,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="342" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="342" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D342">
         <v>0.154228</v>
       </c>
@@ -34675,7 +34756,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="343" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="343" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D343">
         <v>0.15479299999999999</v>
       </c>
@@ -34683,7 +34764,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="344" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="344" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D344">
         <v>0.15536800000000001</v>
       </c>
@@ -34691,7 +34772,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="345" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="345" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D345">
         <v>0.15595300000000001</v>
       </c>
@@ -34699,7 +34780,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="346" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="346" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D346">
         <v>0.15654799999999999</v>
       </c>
@@ -34707,7 +34788,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="347" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="347" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D347">
         <v>0.15715299999999999</v>
       </c>
@@ -34715,7 +34796,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="348" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="348" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D348">
         <v>0.15776799999999999</v>
       </c>
@@ -34723,7 +34804,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="349" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="349" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D349">
         <v>0.15839300000000001</v>
       </c>
@@ -34731,7 +34812,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="350" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="350" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D350">
         <v>0.159028</v>
       </c>
@@ -34739,7 +34820,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="351" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="351" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D351">
         <v>0.15967300000000001</v>
       </c>
@@ -34747,7 +34828,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="352" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="352" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D352">
         <v>0.160328</v>
       </c>
@@ -34755,7 +34836,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="353" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="353" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D353">
         <v>0.160993</v>
       </c>
@@ -34763,7 +34844,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="354" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="354" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D354">
         <v>0.16166800000000001</v>
       </c>
@@ -34778,23 +34859,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010054E8EBE579ED724DA6862405C7970F81" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="86c5e3b6225d101e522740491cefce85">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xmlns:ns4="5d848a0f-dbe6-471c-a407-bb7a402dc859" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6c024ab2e87b0647c7181ba4225cb0c" ns3:_="" ns4:_="">
     <xsd:import namespace="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
@@ -35023,10 +35087,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{621CF4D0-A048-4BAF-9D55-9260AD6C0748}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E5E9353-D2AC-43E7-9389-832F28C1F153}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
+    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -35049,20 +35141,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E5E9353-D2AC-43E7-9389-832F28C1F153}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{621CF4D0-A048-4BAF-9D55-9260AD6C0748}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
-    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/CURRENT WORK/SALT WORK - CODES/N = 3/MgSO4 - Done/Test_excelsheet for MgSO4 n=3.xlsx
+++ b/CURRENT WORK/SALT WORK - CODES/N = 3/MgSO4 - Done/Test_excelsheet for MgSO4 n=3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\Final-Year-Project\CURRENT WORK\SALT WORK - CODES\N = 3\MgSO4 - Done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jda365-my.sharepoint.com/personal/dhanush_tamilselvan_jda_com/Documents/Desktop/Final-Year-Project/CURRENT WORK/SALT WORK - CODES/N = 3/MgSO4 - Done/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FD5317-8E3C-4277-B403-8DF1FCC482FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{66FD5317-8E3C-4277-B403-8DF1FCC482FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FD7566F-1B56-42B9-9FCA-14F4CEDAC959}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="794" activeTab="1" xr2:uid="{9CF19269-4578-4920-A34F-84FB49B64E6E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="794" activeTab="1" xr2:uid="{9CF19269-4578-4920-A34F-84FB49B64E6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp - Osmotic Coefficient" sheetId="1" r:id="rId1"/>
@@ -748,72 +748,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1320"/>
-              <a:t>Fig 10.Parity Plot for MgSO</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-IN" sz="900"/>
-              <a:t>4</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1320"/>
-              <a:t> for n=3</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.23892962962962963"/>
-          <c:y val="0.92604166666666665"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -18736,21 +18671,21 @@
       <selection activeCell="E5" sqref="E5:G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.08984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.08984375" style="1" customWidth="1"/>
     <col min="10" max="10" width="15" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.36328125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.36328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -18761,7 +18696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -18772,7 +18707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -18788,7 +18723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -18820,7 +18755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>0.2</v>
       </c>
@@ -18852,7 +18787,7 @@
         <v>0.89070000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>0.3</v>
       </c>
@@ -18885,7 +18820,7 @@
         <v>0.88539999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>0.4</v>
       </c>
@@ -18918,7 +18853,7 @@
         <v>0.87590000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
@@ -18951,7 +18886,7 @@
         <v>0.86209999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>0.6</v>
       </c>
@@ -18984,7 +18919,7 @@
         <v>0.84289999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0.7</v>
       </c>
@@ -19017,7 +18952,7 @@
         <v>0.81669999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0.8</v>
       </c>
@@ -19050,7 +18985,7 @@
         <v>0.78169999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>0.9</v>
       </c>
@@ -19082,7 +19017,7 @@
         <v>0.74619999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -19115,7 +19050,7 @@
         <v>0.73799999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1.2</v>
       </c>
@@ -19148,7 +19083,7 @@
         <v>0.72309999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1.4</v>
       </c>
@@ -19181,7 +19116,7 @@
         <v>0.70269999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1.6</v>
       </c>
@@ -19214,7 +19149,7 @@
         <v>0.67730000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1.8</v>
       </c>
@@ -19247,7 +19182,7 @@
         <v>0.64759999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -19280,7 +19215,7 @@
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2.5</v>
       </c>
@@ -19312,7 +19247,7 @@
         <v>0.60250000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>3</v>
       </c>
@@ -19345,7 +19280,7 @@
         <v>0.59550000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E21" s="1">
         <v>2.4</v>
       </c>
@@ -19369,7 +19304,7 @@
         <v>0.57889999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E22" s="1">
         <v>2.6</v>
       </c>
@@ -19393,7 +19328,7 @@
         <v>0.5554</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E23" s="1">
         <v>2.8</v>
       </c>
@@ -19417,7 +19352,7 @@
         <v>0.52690000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E24" s="1">
         <v>3</v>
       </c>
@@ -19441,7 +19376,7 @@
         <v>0.49530000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E25" s="1">
         <v>3.2</v>
       </c>
@@ -19465,7 +19400,7 @@
         <v>0.4622</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E26" s="1">
         <v>3.4</v>
       </c>
@@ -19488,7 +19423,7 @@
         <v>0.52400000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E27" s="1">
         <v>3.6</v>
       </c>
@@ -19512,7 +19447,7 @@
         <v>0.52290000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E28" s="1">
         <v>3.6175999999999999</v>
       </c>
@@ -19536,7 +19471,7 @@
         <v>0.50470000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="I29" s="1">
         <v>0.5</v>
       </c>
@@ -19551,7 +19486,7 @@
         <v>0.47570000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="I30" s="1">
         <v>0.5</v>
       </c>
@@ -19566,7 +19501,7 @@
         <v>0.439</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="I31" s="1">
         <v>0.5</v>
       </c>
@@ -19581,7 +19516,7 @@
         <v>0.3967</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="I32" s="1">
         <v>0.5</v>
       </c>
@@ -19596,7 +19531,7 @@
         <v>0.35249999999999998</v>
       </c>
     </row>
-    <row r="33" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I33" s="1">
         <v>1</v>
       </c>
@@ -19610,7 +19545,7 @@
         <v>0.52890000000000004</v>
       </c>
     </row>
-    <row r="34" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I34" s="1">
         <v>1</v>
       </c>
@@ -19625,7 +19560,7 @@
         <v>0.5292</v>
       </c>
     </row>
-    <row r="35" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I35" s="1">
         <v>1</v>
       </c>
@@ -19640,7 +19575,7 @@
         <v>0.5071</v>
       </c>
     </row>
-    <row r="36" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I36" s="1">
         <v>1</v>
       </c>
@@ -19655,7 +19590,7 @@
         <v>0.47099999999999997</v>
       </c>
     </row>
-    <row r="37" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I37" s="1">
         <v>1</v>
       </c>
@@ -19670,7 +19605,7 @@
         <v>0.42559999999999998</v>
       </c>
     </row>
-    <row r="38" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I38" s="1">
         <v>1</v>
       </c>
@@ -19685,7 +19620,7 @@
         <v>0.37490000000000001</v>
       </c>
     </row>
-    <row r="39" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I39" s="1">
         <v>1</v>
       </c>
@@ -19700,7 +19635,7 @@
         <v>0.32369999999999999</v>
       </c>
     </row>
-    <row r="40" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I40" s="1">
         <v>2</v>
       </c>
@@ -19714,7 +19649,7 @@
         <v>0.67910000000000004</v>
       </c>
     </row>
-    <row r="41" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I41" s="1">
         <v>2</v>
       </c>
@@ -19729,7 +19664,7 @@
         <v>0.66269999999999996</v>
       </c>
     </row>
-    <row r="42" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I42" s="1">
         <v>2</v>
       </c>
@@ -19744,7 +19679,7 @@
         <v>0.61980000000000002</v>
       </c>
     </row>
-    <row r="43" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I43" s="1">
         <v>2</v>
       </c>
@@ -19759,7 +19694,7 @@
         <v>0.55940000000000001</v>
       </c>
     </row>
-    <row r="44" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I44" s="1">
         <v>2</v>
       </c>
@@ -19774,7 +19709,7 @@
         <v>0.48780000000000001</v>
       </c>
     </row>
-    <row r="45" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I45" s="1">
         <v>2</v>
       </c>
@@ -19789,7 +19724,7 @@
         <v>0.41020000000000001</v>
       </c>
     </row>
-    <row r="46" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I46" s="1">
         <v>2</v>
       </c>
@@ -19804,7 +19739,7 @@
         <v>0.33160000000000001</v>
       </c>
     </row>
-    <row r="47" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I47" s="1">
         <v>3</v>
       </c>
@@ -19818,7 +19753,7 @@
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="48" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I48" s="1">
         <v>3</v>
       </c>
@@ -19833,7 +19768,7 @@
         <v>0.92579999999999996</v>
       </c>
     </row>
-    <row r="49" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I49" s="1">
         <v>3</v>
       </c>
@@ -19848,7 +19783,7 @@
         <v>0.84470000000000001</v>
       </c>
     </row>
-    <row r="50" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I50" s="1">
         <v>3</v>
       </c>
@@ -19863,7 +19798,7 @@
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="51" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I51" s="1">
         <v>3</v>
       </c>
@@ -19878,7 +19813,7 @@
         <v>0.62719999999999998</v>
       </c>
     </row>
-    <row r="52" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I52" s="1">
         <v>3</v>
       </c>
@@ -19893,7 +19828,7 @@
         <v>0.50309999999999999</v>
       </c>
     </row>
-    <row r="53" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I53" s="1">
         <v>3</v>
       </c>
@@ -19908,7 +19843,7 @@
         <v>0.37540000000000001</v>
       </c>
     </row>
-    <row r="54" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I54" s="1">
         <v>5</v>
       </c>
@@ -19922,7 +19857,7 @@
         <v>1.3436999999999999</v>
       </c>
     </row>
-    <row r="55" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I55" s="1">
         <v>5</v>
       </c>
@@ -19936,7 +19871,7 @@
         <v>1.0866</v>
       </c>
     </row>
-    <row r="56" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I56" s="1">
         <v>5</v>
       </c>
@@ -19959,44 +19894,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CF3460-0F13-4869-941B-1FBF8E166A15}">
   <dimension ref="A1:AX72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AR22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BI15" sqref="BI15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="9"/>
-    <col min="10" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="7.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="1"/>
-    <col min="14" max="14" width="11.88671875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.44140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.88671875" style="9"/>
-    <col min="19" max="19" width="9.109375" customWidth="1"/>
-    <col min="21" max="21" width="14.21875" customWidth="1"/>
-    <col min="22" max="22" width="8.88671875" style="9"/>
-    <col min="25" max="25" width="8.88671875" style="9"/>
+    <col min="3" max="3" width="9.08984375" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="9"/>
+    <col min="10" max="11" width="8.90625" style="1"/>
+    <col min="12" max="12" width="7.08984375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.90625" style="1"/>
+    <col min="14" max="14" width="11.90625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.54296875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.90625" style="9"/>
+    <col min="19" max="19" width="9.08984375" customWidth="1"/>
+    <col min="21" max="21" width="14.1796875" customWidth="1"/>
+    <col min="22" max="22" width="8.90625" style="9"/>
+    <col min="25" max="25" width="8.90625" style="9"/>
     <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="12" style="9" customWidth="1"/>
     <col min="31" max="32" width="12" customWidth="1"/>
     <col min="33" max="33" width="12" style="11" customWidth="1"/>
     <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.21875" customWidth="1"/>
-    <col min="38" max="38" width="8.88671875" style="9"/>
-    <col min="40" max="42" width="21.5546875" style="1" customWidth="1"/>
-    <col min="44" max="44" width="13.44140625" style="1" customWidth="1"/>
+    <col min="37" max="37" width="13.1796875" customWidth="1"/>
+    <col min="38" max="38" width="8.90625" style="9"/>
+    <col min="40" max="42" width="21.54296875" style="1" customWidth="1"/>
+    <col min="44" max="44" width="13.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:50" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="6" t="s">
         <v>38</v>
       </c>
@@ -20015,7 +19950,7 @@
       <c r="AG1"/>
       <c r="AL1"/>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
       <c r="H2"/>
       <c r="K2" s="8" t="s">
         <v>12</v>
@@ -20038,7 +19973,7 @@
       <c r="AG2" s="1"/>
       <c r="AL2"/>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="H3"/>
       <c r="K3" s="8" t="s">
         <v>13</v>
@@ -20061,7 +19996,7 @@
       <c r="AG3" s="1"/>
       <c r="AL3"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="H4"/>
       <c r="R4"/>
       <c r="V4"/>
@@ -20078,7 +20013,7 @@
       <c r="AG4" s="1"/>
       <c r="AL4"/>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="H5"/>
       <c r="R5"/>
       <c r="V5"/>
@@ -20087,7 +20022,7 @@
       <c r="AG5"/>
       <c r="AL5"/>
     </row>
-    <row r="6" spans="1:50" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:50" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -20197,7 +20132,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>0.1</v>
       </c>
@@ -20333,7 +20268,7 @@
         <v>0.60050000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>0.1</v>
       </c>
@@ -20466,7 +20401,7 @@
         <v>0.59550000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>0.1</v>
       </c>
@@ -20605,7 +20540,7 @@
         <v>0.57840000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0.1</v>
       </c>
@@ -20750,7 +20685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0.1</v>
       </c>
@@ -20897,7 +20832,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>0.1</v>
       </c>
@@ -21044,7 +20979,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>0.1</v>
       </c>
@@ -21191,7 +21126,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>0.5</v>
       </c>
@@ -21337,7 +21272,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>0.5</v>
       </c>
@@ -21484,7 +21419,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>0.5</v>
       </c>
@@ -21631,7 +21566,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>0.5</v>
       </c>
@@ -21778,7 +21713,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>0.5</v>
       </c>
@@ -21925,7 +21860,7 @@
         <v>0.79999999999999993</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>0.5</v>
       </c>
@@ -22072,7 +22007,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>0.5</v>
       </c>
@@ -22227,7 +22162,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -22367,7 +22302,7 @@
         <v>1.0999999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:50" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:50" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -22508,7 +22443,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -22657,7 +22592,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -22806,7 +22741,7 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -22955,7 +22890,7 @@
         <v>1.5000000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -23104,7 +23039,7 @@
         <v>1.6000000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -23253,7 +23188,7 @@
         <v>1.7000000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -23401,7 +23336,7 @@
         <v>1.8000000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -23542,7 +23477,7 @@
         <v>0.66320000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>2</v>
       </c>
@@ -23683,7 +23618,7 @@
         <v>0.61760000000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>2</v>
       </c>
@@ -23824,7 +23759,7 @@
         <v>0.55449999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>2</v>
       </c>
@@ -23965,7 +23900,7 @@
         <v>0.48220000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -24106,7 +24041,7 @@
         <v>0.40620000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -24247,7 +24182,7 @@
         <v>0.33119999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>3</v>
       </c>
@@ -24387,7 +24322,7 @@
         <v>0.97589999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>3</v>
       </c>
@@ -24528,7 +24463,7 @@
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>3</v>
       </c>
@@ -24669,7 +24604,7 @@
         <v>0.83540000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>3</v>
       </c>
@@ -24810,7 +24745,7 @@
         <v>0.73170000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>3</v>
       </c>
@@ -24951,7 +24886,7 @@
         <v>0.62429999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>3</v>
       </c>
@@ -25092,7 +25027,7 @@
         <v>0.52170000000000005</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>3</v>
       </c>
@@ -25233,7 +25168,7 @@
         <v>0.43290000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>0.2</v>
       </c>
@@ -25373,7 +25308,7 @@
         <v>0.55779999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>0.3</v>
       </c>
@@ -25505,7 +25440,7 @@
         <v>0.53959999999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>0.4</v>
       </c>
@@ -25637,7 +25572,7 @@
         <v>0.52859999999999996</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>0.6</v>
       </c>
@@ -25769,7 +25704,7 @@
         <v>0.51880000000000004</v>
       </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>0.7</v>
       </c>
@@ -25901,7 +25836,7 @@
         <v>0.51829999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>0.8</v>
       </c>
@@ -26033,7 +25968,7 @@
         <v>0.51990000000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>0.9</v>
       </c>
@@ -26165,7 +26100,7 @@
         <v>0.52359999999999995</v>
       </c>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>1.2</v>
       </c>
@@ -26305,7 +26240,7 @@
         <v>0.54479999999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>1.4</v>
       </c>
@@ -26445,7 +26380,7 @@
         <v>0.56630000000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>1.6</v>
       </c>
@@ -26585,7 +26520,7 @@
         <v>0.59309999999999996</v>
       </c>
     </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>1.8</v>
       </c>
@@ -26725,7 +26660,7 @@
         <v>0.62490000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -26865,7 +26800,7 @@
         <v>0.70320000000000005</v>
       </c>
     </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>2.4</v>
       </c>
@@ -27005,7 +26940,7 @@
         <v>0.74960000000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>2.6</v>
       </c>
@@ -27145,7 +27080,7 @@
         <v>0.80100000000000005</v>
       </c>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>2.8</v>
       </c>
@@ -27285,7 +27220,7 @@
         <v>0.85750000000000004</v>
       </c>
     </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>3.2</v>
       </c>
@@ -27425,7 +27360,7 @@
         <v>0.98660000000000003</v>
       </c>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>3.4</v>
       </c>
@@ -27565,7 +27500,7 @@
         <v>1.0596000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>3.6</v>
       </c>
@@ -27705,7 +27640,7 @@
         <v>1.1384000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>3.6175999999999999</v>
       </c>
@@ -27845,51 +27780,51 @@
         <v>1.1456</v>
       </c>
     </row>
-    <row r="61" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
     </row>
@@ -27907,13 +27842,13 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -27921,7 +27856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>3.940093261019946E-2</v>
       </c>
@@ -27929,7 +27864,7 @@
         <v>272.19626168224198</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>5.8075911624839695E-2</v>
       </c>
@@ -27937,7 +27872,7 @@
         <v>270.09345794392499</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>6.4606194837027023E-2</v>
       </c>
@@ -27945,7 +27880,7 @@
         <v>270.09345794392499</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>7.2425751990408904E-2</v>
       </c>
@@ -27953,7 +27888,7 @@
         <v>273.59813084112102</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>7.9673742064779007E-2</v>
       </c>
@@ -27961,7 +27896,7 @@
         <v>279.20560747663501</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>8.4150645386805334E-2</v>
       </c>
@@ -27969,7 +27904,7 @@
         <v>284.11214953271002</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8.9901610308777843E-2</v>
       </c>
@@ -27977,7 +27912,7 @@
         <v>289.01869158878498</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9.1223386184597008E-2</v>
       </c>
@@ -27985,7 +27920,7 @@
         <v>291.822429906541</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9.6442023145290726E-2</v>
       </c>
@@ -27993,7 +27928,7 @@
         <v>292.52336448598101</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9.9477533598176196E-2</v>
       </c>
@@ -28001,7 +27936,7 @@
         <v>299.53271028037301</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>9.6884126112510627E-2</v>
       </c>
@@ -28009,7 +27944,7 @@
         <v>296.02803738317698</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>9.471388056444241E-2</v>
       </c>
@@ -28017,7 +27952,7 @@
         <v>293.92523364485902</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>9.254540266239869E-2</v>
       </c>
@@ -28025,7 +27960,7 @@
         <v>296.02803738317698</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0.10289507447968271</v>
       </c>
@@ -28033,7 +27968,7 @@
         <v>298.130841121495</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.10672719379747495</v>
       </c>
@@ -28041,7 +27976,7 @@
         <v>303.03738317757001</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.10290901110390512</v>
       </c>
@@ -28049,7 +27984,7 @@
         <v>303.03738317757001</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.11220286676966544</v>
       </c>
@@ -28057,7 +27992,7 @@
         <v>309.34579439252298</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.10968430012204518</v>
       </c>
@@ -28065,7 +28000,7 @@
         <v>306.54205607476598</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.11966420440438919</v>
       </c>
@@ -28073,7 +28008,7 @@
         <v>314.25233644859799</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.11719556472063039</v>
       </c>
@@ -28081,7 +28016,7 @@
         <v>314.25233644859799</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.12497342208992307</v>
       </c>
@@ -28089,7 +28024,7 @@
         <v>317.05607476635498</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.13022459953393611</v>
       </c>
@@ -28097,7 +28032,7 @@
         <v>321.96261682242903</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.1346227723613071</v>
       </c>
@@ -28105,7 +28040,7 @@
         <v>327.57009345794302</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.13897668870504512</v>
       </c>
@@ -28113,7 +28048,7 @@
         <v>333.17757009345701</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.1452254450266946</v>
       </c>
@@ -28121,7 +28056,7 @@
         <v>338.785046728971</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.1517652399550746</v>
       </c>
@@ -28129,7 +28064,7 @@
         <v>344.39252336448499</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.14717491728440613</v>
       </c>
@@ -28137,7 +28072,7 @@
         <v>346.495327102803</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.14525617175323022</v>
       </c>
@@ -28145,7 +28080,7 @@
         <v>350.70093457943898</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.14294006894173114</v>
       </c>
@@ -28153,7 +28088,7 @@
         <v>354.90654205607399</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.13983050546898024</v>
       </c>
@@ -28161,7 +28096,7 @@
         <v>359.813084112149</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.13511344325649974</v>
       </c>
@@ -28169,7 +28104,7 @@
         <v>363.31775700934497</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.13313811864284408</v>
       </c>
@@ -28177,7 +28112,7 @@
         <v>366.822429906541</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.13195790735523699</v>
       </c>
@@ -28185,7 +28120,7 @@
         <v>372.42990654205602</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.11409605166393115</v>
       </c>
@@ -28193,7 +28128,7 @@
         <v>391.35514018691498</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.10573316483687741</v>
       </c>
@@ -28201,7 +28136,7 @@
         <v>400.46728971962602</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.10020318391545151</v>
       </c>
@@ -28209,7 +28144,7 @@
         <v>403.27102803738302</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>8.7637920155527863E-2</v>
       </c>
@@ -28217,7 +28152,7 @@
         <v>416.58878504672799</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>6.7856844539121858E-2</v>
       </c>
@@ -28225,7 +28160,7 @@
         <v>426.40186915887801</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>5.6691101599657748E-2</v>
       </c>
@@ -28233,7 +28168,7 @@
         <v>428.50467289719597</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>4.3820512652031338E-2</v>
       </c>
@@ -28241,7 +28176,7 @@
         <v>435.51401869158798</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>3.7500188504979277E-2</v>
       </c>
@@ -28249,7 +28184,7 @@
         <v>439.71962616822401</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2.8102218641202464E-2</v>
       </c>
@@ -28257,7 +28192,7 @@
         <v>443.22429906541998</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2.2071139351636924E-2</v>
       </c>
@@ -28265,7 +28200,7 @@
         <v>445.327102803738</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2.056411522452042E-2</v>
       </c>
@@ -28273,7 +28208,7 @@
         <v>449.53271028037301</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1.5478208863131698E-2</v>
       </c>
@@ -28281,7 +28216,7 @@
         <v>455.140186915887</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1.2401715239417915E-2</v>
       </c>
@@ -28289,7 +28224,7 @@
         <v>458.644859813084</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>9.8252660039917054E-3</v>
       </c>
@@ -28297,7 +28232,7 @@
         <v>462.14953271028003</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>8.2899653283124413E-3</v>
       </c>
@@ -28305,7 +28240,7 @@
         <v>469.15887850467197</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>6.2200028955656577E-3</v>
       </c>
@@ -28313,7 +28248,7 @@
         <v>474.06542056074699</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>5.1854503313268213E-3</v>
       </c>
@@ -28321,7 +28256,7 @@
         <v>477.57009345794302</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>6.2688646389597938E-3</v>
       </c>
@@ -28329,7 +28264,7 @@
         <v>488.08411214953202</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>3.682376789907313E-3</v>
       </c>
@@ -28337,7 +28272,7 @@
         <v>497.89719626168198</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.16936979186525777</v>
       </c>
@@ -28345,7 +28280,7 @@
         <v>373.83177570093397</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0.16678957932722038</v>
       </c>
@@ -28353,7 +28288,7 @@
         <v>367.52336448598101</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.16419674321610564</v>
       </c>
@@ -28361,7 +28296,7 @@
         <v>362.61682242990599</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.16270613010506427</v>
       </c>
@@ -28369,7 +28304,7 @@
         <v>359.11214953271002</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0.16232092825340913</v>
       </c>
@@ -28377,7 +28312,7 @@
         <v>353.50467289719597</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0.16786675620829028</v>
       </c>
@@ -28385,7 +28320,7 @@
         <v>357.71028037383098</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0.17261374229897372</v>
       </c>
@@ -28393,7 +28328,7 @@
         <v>361.21495327102798</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0.17694840158764344</v>
       </c>
@@ -28401,7 +28336,7 @@
         <v>364.71962616822401</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0.17874766920552052</v>
       </c>
@@ -28409,7 +28344,7 @@
         <v>368.92523364485902</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0.1833667199715546</v>
       </c>
@@ -28417,7 +28352,7 @@
         <v>370.327102803738</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.11672681001201546</v>
       </c>
@@ -28425,7 +28360,7 @@
         <v>293.92523364485902</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.11296266811466504</v>
       </c>
@@ -28433,7 +28368,7 @@
         <v>282.71028037383098</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0.10747865664497834</v>
       </c>
@@ -28441,7 +28376,7 @@
         <v>270.09345794392499</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0.10627491799126541</v>
       </c>
@@ -28449,7 +28384,7 @@
         <v>292.52336448598101</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0.11384746094644395</v>
       </c>
@@ -28457,7 +28392,7 @@
         <v>301.63551401869103</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0.11386300195349584</v>
       </c>
@@ -28465,7 +28400,7 @@
         <v>307.24299065420502</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>7.789131638745278E-2</v>
       </c>
@@ -28487,17 +28422,17 @@
       <selection activeCell="M4" sqref="M4:N87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" customWidth="1"/>
+    <col min="8" max="8" width="12.36328125" customWidth="1"/>
+    <col min="11" max="11" width="12.36328125" customWidth="1"/>
+    <col min="14" max="14" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -28505,7 +28440,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -28525,7 +28460,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3.940093261019946E-2</v>
       </c>
@@ -28557,7 +28492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>5.8075911624839695E-2</v>
       </c>
@@ -28589,7 +28524,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>6.4606194837027023E-2</v>
       </c>
@@ -28621,7 +28556,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>7.2425751990408904E-2</v>
       </c>
@@ -28653,7 +28588,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7.9673742064779007E-2</v>
       </c>
@@ -28685,7 +28620,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8.4150645386805334E-2</v>
       </c>
@@ -28717,7 +28652,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8.9901610308777843E-2</v>
       </c>
@@ -28749,7 +28684,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9.1223386184597008E-2</v>
       </c>
@@ -28781,7 +28716,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9.6442023145290726E-2</v>
       </c>
@@ -28813,7 +28748,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>9.9477533598176196E-2</v>
       </c>
@@ -28845,7 +28780,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>9.6884126112510627E-2</v>
       </c>
@@ -28877,7 +28812,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>9.471388056444241E-2</v>
       </c>
@@ -28909,7 +28844,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>9.254540266239869E-2</v>
       </c>
@@ -28941,7 +28876,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.10289507447968271</v>
       </c>
@@ -28973,7 +28908,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.10672719379747495</v>
       </c>
@@ -29005,7 +28940,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.10290901110390512</v>
       </c>
@@ -29037,7 +28972,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.11220286676966544</v>
       </c>
@@ -29069,7 +29004,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.10968430012204518</v>
       </c>
@@ -29101,7 +29036,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.11966420440438919</v>
       </c>
@@ -29133,7 +29068,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.11719556472063039</v>
       </c>
@@ -29165,7 +29100,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.12497342208992307</v>
       </c>
@@ -29197,7 +29132,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.13022459953393611</v>
       </c>
@@ -29229,7 +29164,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.1346227723613071</v>
       </c>
@@ -29261,7 +29196,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.13897668870504512</v>
       </c>
@@ -29293,7 +29228,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.1452254450266946</v>
       </c>
@@ -29325,7 +29260,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.1517652399550746</v>
       </c>
@@ -29357,7 +29292,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.14717491728440613</v>
       </c>
@@ -29389,7 +29324,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.14525617175323022</v>
       </c>
@@ -29421,7 +29356,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.14294006894173114</v>
       </c>
@@ -29453,7 +29388,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.13983050546898024</v>
       </c>
@@ -29485,7 +29420,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.13511344325649974</v>
       </c>
@@ -29517,7 +29452,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.13313811864284408</v>
       </c>
@@ -29549,7 +29484,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.13195790735523699</v>
       </c>
@@ -29581,7 +29516,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.11409605166393115</v>
       </c>
@@ -29613,7 +29548,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.10573316483687741</v>
       </c>
@@ -29645,7 +29580,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.10020318391545151</v>
       </c>
@@ -29677,7 +29612,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>8.7637920155527863E-2</v>
       </c>
@@ -29709,7 +29644,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>6.7856844539121858E-2</v>
       </c>
@@ -29741,7 +29676,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>5.6691101599657748E-2</v>
       </c>
@@ -29773,7 +29708,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>4.3820512652031338E-2</v>
       </c>
@@ -29805,7 +29740,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>3.7500188504979277E-2</v>
       </c>
@@ -29831,7 +29766,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2.8102218641202464E-2</v>
       </c>
@@ -29857,7 +29792,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2.2071139351636924E-2</v>
       </c>
@@ -29883,7 +29818,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2.056411522452042E-2</v>
       </c>
@@ -29909,7 +29844,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1.5478208863131698E-2</v>
       </c>
@@ -29935,7 +29870,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>1.2401715239417915E-2</v>
       </c>
@@ -29961,7 +29896,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>9.8252660039917054E-3</v>
       </c>
@@ -29987,7 +29922,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>8.2899653283124413E-3</v>
       </c>
@@ -30013,7 +29948,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>6.2200028955656577E-3</v>
       </c>
@@ -30039,7 +29974,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>5.1854503313268213E-3</v>
       </c>
@@ -30065,7 +30000,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>6.2688646389597938E-3</v>
       </c>
@@ -30091,7 +30026,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>3.682376789907313E-3</v>
       </c>
@@ -30117,7 +30052,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0.16936979186525777</v>
       </c>
@@ -30143,7 +30078,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.16678957932722038</v>
       </c>
@@ -30169,7 +30104,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.16419674321610564</v>
       </c>
@@ -30195,7 +30130,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0.16270613010506427</v>
       </c>
@@ -30221,7 +30156,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0.16232092825340913</v>
       </c>
@@ -30247,7 +30182,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0.16786675620829028</v>
       </c>
@@ -30273,7 +30208,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0.17261374229897372</v>
       </c>
@@ -30299,7 +30234,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0.17694840158764344</v>
       </c>
@@ -30325,7 +30260,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0.17874766920552052</v>
       </c>
@@ -30351,7 +30286,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.1833667199715546</v>
       </c>
@@ -30377,7 +30312,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.11672681001201546</v>
       </c>
@@ -30403,7 +30338,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0.11296266811466504</v>
       </c>
@@ -30429,7 +30364,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0.10747865664497834</v>
       </c>
@@ -30455,7 +30390,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0.10627491799126541</v>
       </c>
@@ -30481,7 +30416,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0.11384746094644395</v>
       </c>
@@ -30507,7 +30442,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0.11386300195349584</v>
       </c>
@@ -30533,7 +30468,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>7.789131638745278E-2</v>
       </c>
@@ -30559,7 +30494,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D72">
         <v>8.8831999999999994E-2</v>
       </c>
@@ -30579,7 +30514,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D73">
         <v>8.7299100000000004E-2</v>
       </c>
@@ -30599,7 +30534,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D74">
         <v>8.5748099999999994E-2</v>
       </c>
@@ -30619,7 +30554,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D75">
         <v>8.4179100000000007E-2</v>
       </c>
@@ -30639,7 +30574,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D76">
         <v>8.2592100000000002E-2</v>
       </c>
@@ -30659,7 +30594,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D77">
         <v>8.0987100000000006E-2</v>
       </c>
@@ -30679,7 +30614,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D78">
         <v>7.9364100000000007E-2</v>
       </c>
@@ -30699,7 +30634,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D79">
         <v>7.7723100000000003E-2</v>
       </c>
@@ -30719,7 +30654,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D80">
         <v>7.6064099999999996E-2</v>
       </c>
@@ -30739,7 +30674,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="81" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D81">
         <v>7.4387099999999998E-2</v>
       </c>
@@ -30759,7 +30694,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="82" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D82">
         <v>7.2692099999999996E-2</v>
       </c>
@@ -30779,7 +30714,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="83" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D83">
         <v>7.0979100000000003E-2</v>
       </c>
@@ -30799,7 +30734,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="84" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D84">
         <v>6.9248100000000007E-2</v>
       </c>
@@ -30819,7 +30754,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="85" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D85">
         <v>6.7499199999999995E-2</v>
       </c>
@@ -30839,7 +30774,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="86" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D86">
         <v>6.5732200000000005E-2</v>
       </c>
@@ -30859,7 +30794,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="87" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D87">
         <v>6.3947199999999996E-2</v>
       </c>
@@ -30879,7 +30814,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="88" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D88">
         <v>6.2144199999999997E-2</v>
       </c>
@@ -30893,7 +30828,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="89" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D89">
         <v>6.03232E-2</v>
       </c>
@@ -30907,7 +30842,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="90" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D90">
         <v>5.84842E-2</v>
       </c>
@@ -30921,7 +30856,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="91" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D91">
         <v>5.6627200000000003E-2</v>
       </c>
@@ -30935,7 +30870,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="92" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D92">
         <v>5.4752200000000001E-2</v>
       </c>
@@ -30949,7 +30884,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="93" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D93">
         <v>5.2859200000000002E-2</v>
       </c>
@@ -30963,7 +30898,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="94" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D94">
         <v>5.0948199999999999E-2</v>
       </c>
@@ -30977,7 +30912,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="95" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D95">
         <v>4.9019199999999999E-2</v>
       </c>
@@ -30991,7 +30926,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="96" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D96">
         <v>4.7072200000000002E-2</v>
       </c>
@@ -31005,7 +30940,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="97" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D97">
         <v>4.5107300000000003E-2</v>
       </c>
@@ -31019,7 +30954,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="98" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D98">
         <v>4.3124299999999997E-2</v>
       </c>
@@ -31033,7 +30968,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="99" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D99">
         <v>4.1123300000000002E-2</v>
       </c>
@@ -31047,7 +30982,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="100" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D100">
         <v>3.9104300000000002E-2</v>
       </c>
@@ -31061,7 +30996,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="101" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D101">
         <v>3.7067299999999997E-2</v>
       </c>
@@ -31075,7 +31010,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="102" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D102">
         <v>3.5012300000000003E-2</v>
       </c>
@@ -31089,7 +31024,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="103" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D103">
         <v>3.2939299999999998E-2</v>
       </c>
@@ -31103,7 +31038,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="104" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D104">
         <v>3.0848299999999999E-2</v>
       </c>
@@ -31117,7 +31052,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="105" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D105">
         <v>2.8739299999999999E-2</v>
       </c>
@@ -31131,7 +31066,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="106" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D106">
         <v>2.6612299999999998E-2</v>
       </c>
@@ -31145,7 +31080,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="107" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D107">
         <v>2.4467300000000001E-2</v>
       </c>
@@ -31159,7 +31094,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="108" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D108">
         <v>2.2304299999999999E-2</v>
       </c>
@@ -31173,7 +31108,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="109" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D109">
         <v>2.01234E-2</v>
       </c>
@@ -31187,7 +31122,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="110" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D110">
         <v>1.79244E-2</v>
       </c>
@@ -31201,7 +31136,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="111" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D111">
         <v>1.57074E-2</v>
       </c>
@@ -31215,7 +31150,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="112" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D112">
         <v>1.3472400000000001E-2</v>
       </c>
@@ -31229,7 +31164,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="113" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D113">
         <v>1.1219399999999999E-2</v>
       </c>
@@ -31243,7 +31178,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="114" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D114">
         <v>8.9483900000000005E-3</v>
       </c>
@@ -31257,7 +31192,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="115" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D115">
         <v>6.6593900000000003E-3</v>
       </c>
@@ -31271,7 +31206,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="116" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D116">
         <v>4.3523700000000004E-3</v>
       </c>
@@ -31285,7 +31220,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="117" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D117">
         <v>2.0271099999999999E-3</v>
       </c>
@@ -31299,7 +31234,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="118" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:11" x14ac:dyDescent="0.35">
       <c r="J118">
         <v>0.16517200000000001</v>
       </c>
@@ -31307,7 +31242,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="119" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:11" x14ac:dyDescent="0.35">
       <c r="J119">
         <v>0.16569800000000001</v>
       </c>
@@ -31315,7 +31250,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="120" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:11" x14ac:dyDescent="0.35">
       <c r="J120">
         <v>0.166212</v>
       </c>
@@ -31323,7 +31258,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="121" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:11" x14ac:dyDescent="0.35">
       <c r="J121">
         <v>0.166714</v>
       </c>
@@ -31331,7 +31266,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="122" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:11" x14ac:dyDescent="0.35">
       <c r="J122">
         <v>0.16720399999999999</v>
       </c>
@@ -31339,7 +31274,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="123" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:11" x14ac:dyDescent="0.35">
       <c r="J123">
         <v>0.167682</v>
       </c>
@@ -31347,7 +31282,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="124" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:11" x14ac:dyDescent="0.35">
       <c r="J124">
         <v>0.16814799999999999</v>
       </c>
@@ -31355,7 +31290,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="125" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:11" x14ac:dyDescent="0.35">
       <c r="J125">
         <v>0.168602</v>
       </c>
@@ -31363,7 +31298,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="126" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:11" x14ac:dyDescent="0.35">
       <c r="J126">
         <v>0.169044</v>
       </c>
@@ -31371,7 +31306,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="127" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:11" x14ac:dyDescent="0.35">
       <c r="J127">
         <v>0.16947400000000001</v>
       </c>
@@ -31379,7 +31314,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="128" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="4:11" x14ac:dyDescent="0.35">
       <c r="J128">
         <v>0.16989099999999999</v>
       </c>
@@ -31387,7 +31322,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="129" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J129">
         <v>0.170297</v>
       </c>
@@ -31395,7 +31330,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="130" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J130">
         <v>0.17069100000000001</v>
       </c>
@@ -31403,7 +31338,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="131" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J131">
         <v>0.171073</v>
       </c>
@@ -31411,7 +31346,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="132" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J132">
         <v>0.17144300000000001</v>
       </c>
@@ -31419,7 +31354,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="133" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J133">
         <v>0.17180100000000001</v>
       </c>
@@ -31427,7 +31362,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="134" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J134">
         <v>0.17214699999999999</v>
       </c>
@@ -31435,7 +31370,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="135" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J135">
         <v>0.172481</v>
       </c>
@@ -31443,7 +31378,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="136" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J136">
         <v>0.17280300000000001</v>
       </c>
@@ -31451,7 +31386,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="137" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J137">
         <v>0.17311299999999999</v>
       </c>
@@ -31459,7 +31394,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="138" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J138">
         <v>0.17341100000000001</v>
       </c>
@@ -31467,7 +31402,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="139" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J139">
         <v>0.17369699999999999</v>
       </c>
@@ -31475,7 +31410,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="140" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J140">
         <v>0.17397099999999999</v>
       </c>
@@ -31483,7 +31418,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="141" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J141">
         <v>0.174233</v>
       </c>
@@ -31491,7 +31426,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="142" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J142">
         <v>0.174483</v>
       </c>
@@ -31499,7 +31434,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="143" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J143">
         <v>0.17472099999999999</v>
       </c>
@@ -31507,7 +31442,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="144" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J144">
         <v>0.17494699999999999</v>
       </c>
@@ -31515,7 +31450,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="145" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J145">
         <v>0.17516100000000001</v>
       </c>
@@ -31523,7 +31458,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="146" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J146">
         <v>0.17536299999999999</v>
       </c>
@@ -31531,7 +31466,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="147" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J147">
         <v>0.17555299999999999</v>
       </c>
@@ -31539,7 +31474,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="148" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J148">
         <v>0.175731</v>
       </c>
@@ -31547,7 +31482,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="149" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J149">
         <v>0.175897</v>
       </c>
@@ -31555,7 +31490,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="150" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J150">
         <v>0.17605100000000001</v>
       </c>
@@ -31563,7 +31498,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="151" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J151">
         <v>0.17619299999999999</v>
       </c>
@@ -31571,7 +31506,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="152" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J152">
         <v>0.17632300000000001</v>
       </c>
@@ -31579,7 +31514,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="153" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J153">
         <v>0.17644099999999999</v>
       </c>
@@ -31601,14 +31536,14 @@
       <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -31616,7 +31551,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -31630,7 +31565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3.940093261019946E-2</v>
       </c>
@@ -31647,7 +31582,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>5.8075911624839695E-2</v>
       </c>
@@ -31661,7 +31596,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>6.4606194837027023E-2</v>
       </c>
@@ -31675,7 +31610,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>7.2425751990408904E-2</v>
       </c>
@@ -31689,7 +31624,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7.9673742064779007E-2</v>
       </c>
@@ -31703,7 +31638,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8.4150645386805334E-2</v>
       </c>
@@ -31717,7 +31652,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8.9901610308777843E-2</v>
       </c>
@@ -31731,7 +31666,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9.1223386184597008E-2</v>
       </c>
@@ -31745,7 +31680,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9.6442023145290726E-2</v>
       </c>
@@ -31759,7 +31694,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>9.9477533598176196E-2</v>
       </c>
@@ -31773,7 +31708,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>9.6884126112510627E-2</v>
       </c>
@@ -31787,7 +31722,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>9.471388056444241E-2</v>
       </c>
@@ -31801,7 +31736,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>9.254540266239869E-2</v>
       </c>
@@ -31815,7 +31750,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.10289507447968271</v>
       </c>
@@ -31829,7 +31764,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.10672719379747495</v>
       </c>
@@ -31843,7 +31778,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.10290901110390512</v>
       </c>
@@ -31857,7 +31792,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.11220286676966544</v>
       </c>
@@ -31871,7 +31806,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.10968430012204518</v>
       </c>
@@ -31885,7 +31820,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.11966420440438919</v>
       </c>
@@ -31899,7 +31834,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.11719556472063039</v>
       </c>
@@ -31913,7 +31848,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.12497342208992307</v>
       </c>
@@ -31927,7 +31862,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.13022459953393611</v>
       </c>
@@ -31941,7 +31876,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.1346227723613071</v>
       </c>
@@ -31955,7 +31890,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.13897668870504512</v>
       </c>
@@ -31969,7 +31904,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.1452254450266946</v>
       </c>
@@ -31983,7 +31918,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.1517652399550746</v>
       </c>
@@ -31997,7 +31932,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.14717491728440613</v>
       </c>
@@ -32011,7 +31946,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.14525617175323022</v>
       </c>
@@ -32025,7 +31960,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.14294006894173114</v>
       </c>
@@ -32039,7 +31974,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.13983050546898024</v>
       </c>
@@ -32053,7 +31988,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.13511344325649974</v>
       </c>
@@ -32067,7 +32002,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.13313811864284408</v>
       </c>
@@ -32081,7 +32016,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.13195790735523699</v>
       </c>
@@ -32095,7 +32030,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.11409605166393115</v>
       </c>
@@ -32109,7 +32044,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.10573316483687741</v>
       </c>
@@ -32123,7 +32058,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.10020318391545151</v>
       </c>
@@ -32137,7 +32072,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>8.7637920155527863E-2</v>
       </c>
@@ -32151,7 +32086,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>6.7856844539121858E-2</v>
       </c>
@@ -32165,7 +32100,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>5.6691101599657748E-2</v>
       </c>
@@ -32179,7 +32114,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>4.3820512652031338E-2</v>
       </c>
@@ -32193,7 +32128,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>3.7500188504979277E-2</v>
       </c>
@@ -32207,7 +32142,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2.8102218641202464E-2</v>
       </c>
@@ -32221,7 +32156,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2.2071139351636924E-2</v>
       </c>
@@ -32235,7 +32170,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2.056411522452042E-2</v>
       </c>
@@ -32249,7 +32184,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1.5478208863131698E-2</v>
       </c>
@@ -32263,7 +32198,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>1.2401715239417915E-2</v>
       </c>
@@ -32277,7 +32212,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>9.8252660039917054E-3</v>
       </c>
@@ -32291,7 +32226,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>8.2899653283124413E-3</v>
       </c>
@@ -32305,7 +32240,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>6.2200028955656577E-3</v>
       </c>
@@ -32319,7 +32254,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>5.1854503313268213E-3</v>
       </c>
@@ -32333,7 +32268,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>6.2688646389597938E-3</v>
       </c>
@@ -32347,7 +32282,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>3.682376789907313E-3</v>
       </c>
@@ -32361,7 +32296,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0.16936979186525777</v>
       </c>
@@ -32375,7 +32310,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.16678957932722038</v>
       </c>
@@ -32389,7 +32324,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.16419674321610564</v>
       </c>
@@ -32403,7 +32338,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0.16270613010506427</v>
       </c>
@@ -32417,7 +32352,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0.16232092825340913</v>
       </c>
@@ -32431,7 +32366,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0.16786675620829028</v>
       </c>
@@ -32445,7 +32380,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0.17261374229897372</v>
       </c>
@@ -32459,7 +32394,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0.17694840158764344</v>
       </c>
@@ -32473,7 +32408,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0.17874766920552052</v>
       </c>
@@ -32487,7 +32422,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.1833667199715546</v>
       </c>
@@ -32501,7 +32436,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.11672681001201546</v>
       </c>
@@ -32515,7 +32450,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0.11296266811466504</v>
       </c>
@@ -32529,7 +32464,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0.10747865664497834</v>
       </c>
@@ -32543,7 +32478,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0.10627491799126541</v>
       </c>
@@ -32557,7 +32492,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0.11384746094644395</v>
       </c>
@@ -32571,7 +32506,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0.11386300195349584</v>
       </c>
@@ -32585,7 +32520,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>7.789131638745278E-2</v>
       </c>
@@ -32599,7 +32534,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D72" s="19">
         <v>8.7299100000000004E-2</v>
       </c>
@@ -32607,7 +32542,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D73" s="19">
         <v>8.5748099999999994E-2</v>
       </c>
@@ -32615,7 +32550,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D74" s="19">
         <v>8.4179100000000007E-2</v>
       </c>
@@ -32623,7 +32558,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D75" s="19">
         <v>8.2592100000000002E-2</v>
       </c>
@@ -32631,7 +32566,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D76" s="19">
         <v>8.0987100000000006E-2</v>
       </c>
@@ -32639,7 +32574,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D77" s="19">
         <v>7.9364100000000007E-2</v>
       </c>
@@ -32647,7 +32582,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D78" s="19">
         <v>7.7723100000000003E-2</v>
       </c>
@@ -32655,7 +32590,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D79" s="19">
         <v>7.6064099999999996E-2</v>
       </c>
@@ -32663,7 +32598,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D80" s="19">
         <v>7.4387099999999998E-2</v>
       </c>
@@ -32671,7 +32606,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D81" s="19">
         <v>7.2692099999999996E-2</v>
       </c>
@@ -32679,7 +32614,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D82" s="19">
         <v>7.0979100000000003E-2</v>
       </c>
@@ -32687,7 +32622,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D83" s="19">
         <v>6.9248100000000007E-2</v>
       </c>
@@ -32695,7 +32630,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D84" s="19">
         <v>6.7499199999999995E-2</v>
       </c>
@@ -32703,7 +32638,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D85" s="19">
         <v>6.5732200000000005E-2</v>
       </c>
@@ -32711,7 +32646,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D86" s="19">
         <v>6.3947199999999996E-2</v>
       </c>
@@ -32719,7 +32654,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D87" s="19">
         <v>6.2144199999999997E-2</v>
       </c>
@@ -32727,7 +32662,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D88" s="19">
         <v>6.03232E-2</v>
       </c>
@@ -32735,7 +32670,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D89" s="19">
         <v>5.84842E-2</v>
       </c>
@@ -32743,7 +32678,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D90" s="19">
         <v>5.6627200000000003E-2</v>
       </c>
@@ -32751,7 +32686,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D91" s="19">
         <v>5.4752200000000001E-2</v>
       </c>
@@ -32759,7 +32694,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D92" s="19">
         <v>5.2859200000000002E-2</v>
       </c>
@@ -32767,7 +32702,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D93" s="19">
         <v>5.0948199999999999E-2</v>
       </c>
@@ -32775,7 +32710,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D94" s="19">
         <v>4.9019199999999999E-2</v>
       </c>
@@ -32783,7 +32718,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D95" s="19">
         <v>4.7072200000000002E-2</v>
       </c>
@@ -32791,7 +32726,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D96" s="19">
         <v>4.5107300000000003E-2</v>
       </c>
@@ -32799,7 +32734,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D97" s="19">
         <v>4.3124299999999997E-2</v>
       </c>
@@ -32807,7 +32742,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D98" s="19">
         <v>4.1123300000000002E-2</v>
       </c>
@@ -32815,7 +32750,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D99" s="19">
         <v>3.9104300000000002E-2</v>
       </c>
@@ -32823,7 +32758,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D100" s="19">
         <v>3.7067299999999997E-2</v>
       </c>
@@ -32831,7 +32766,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D101" s="19">
         <v>3.5012300000000003E-2</v>
       </c>
@@ -32839,7 +32774,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D102" s="19">
         <v>3.2939299999999998E-2</v>
       </c>
@@ -32847,7 +32782,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="103" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D103" s="19">
         <v>3.0848299999999999E-2</v>
       </c>
@@ -32855,7 +32790,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D104" s="19">
         <v>2.8739299999999999E-2</v>
       </c>
@@ -32863,7 +32798,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="105" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D105" s="19">
         <v>2.6612299999999998E-2</v>
       </c>
@@ -32871,7 +32806,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D106" s="19">
         <v>2.4467300000000001E-2</v>
       </c>
@@ -32879,7 +32814,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D107" s="19">
         <v>2.2304299999999999E-2</v>
       </c>
@@ -32887,7 +32822,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D108" s="19">
         <v>2.01234E-2</v>
       </c>
@@ -32895,7 +32830,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D109" s="19">
         <v>1.79244E-2</v>
       </c>
@@ -32903,7 +32838,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D110" s="19">
         <v>1.57074E-2</v>
       </c>
@@ -32911,7 +32846,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D111" s="19">
         <v>1.3472400000000001E-2</v>
       </c>
@@ -32919,7 +32854,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D112" s="19">
         <v>1.1219399999999999E-2</v>
       </c>
@@ -32927,7 +32862,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="113" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D113" s="19">
         <v>8.9483900000000005E-3</v>
       </c>
@@ -32935,7 +32870,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="114" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D114" s="19">
         <v>6.6593900000000003E-3</v>
       </c>
@@ -32943,7 +32878,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="115" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D115" s="19">
         <v>4.3523700000000004E-3</v>
       </c>
@@ -32951,7 +32886,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="116" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D116" s="21">
         <v>2.0271099999999999E-3</v>
       </c>
@@ -32959,22 +32894,22 @@
         <v>463</v>
       </c>
     </row>
-    <row r="117" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D117" s="15"/>
       <c r="E117" s="16"/>
       <c r="F117" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="118" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D118" s="15"/>
       <c r="E118" s="16"/>
     </row>
-    <row r="119" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D119" s="15"/>
       <c r="E119" s="16"/>
     </row>
-    <row r="120" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D120" s="23">
         <v>2.65483E-2</v>
       </c>
@@ -32985,7 +32920,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="121" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D121" s="25">
         <v>2.84423E-2</v>
       </c>
@@ -32993,7 +32928,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="122" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D122" s="25">
         <v>3.0324299999999998E-2</v>
       </c>
@@ -33001,7 +32936,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="123" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D123" s="25">
         <v>3.2194300000000002E-2</v>
       </c>
@@ -33009,7 +32944,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="124" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D124" s="25">
         <v>3.4052300000000001E-2</v>
       </c>
@@ -33017,7 +32952,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="125" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D125" s="25">
         <v>3.5898300000000001E-2</v>
       </c>
@@ -33025,7 +32960,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="126" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D126" s="25">
         <v>3.7732300000000003E-2</v>
       </c>
@@ -33033,7 +32968,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="127" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D127" s="25">
         <v>3.9554300000000001E-2</v>
       </c>
@@ -33041,7 +32976,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="128" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D128" s="25">
         <v>4.13643E-2</v>
       </c>
@@ -33049,7 +32984,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D129" s="25">
         <v>4.3162300000000001E-2</v>
       </c>
@@ -33057,7 +32992,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D130" s="25">
         <v>4.4948299999999997E-2</v>
       </c>
@@ -33065,7 +33000,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D131" s="25">
         <v>4.6722199999999998E-2</v>
       </c>
@@ -33073,7 +33008,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D132" s="25">
         <v>4.8484199999999998E-2</v>
       </c>
@@ -33081,7 +33016,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="133" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D133" s="25">
         <v>5.02342E-2</v>
       </c>
@@ -33089,7 +33024,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="134" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D134" s="25">
         <v>5.1972200000000003E-2</v>
       </c>
@@ -33097,7 +33032,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="135" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D135" s="25">
         <v>5.3698200000000001E-2</v>
       </c>
@@ -33105,7 +33040,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="136" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D136" s="25">
         <v>5.5412200000000002E-2</v>
       </c>
@@ -33113,7 +33048,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="137" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D137" s="25">
         <v>5.7114199999999997E-2</v>
       </c>
@@ -33121,7 +33056,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="138" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D138" s="25">
         <v>5.8804200000000001E-2</v>
       </c>
@@ -33129,7 +33064,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="139" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D139" s="25">
         <v>6.04822E-2</v>
       </c>
@@ -33137,7 +33072,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="140" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D140" s="25">
         <v>6.2148200000000001E-2</v>
       </c>
@@ -33145,7 +33080,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="141" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D141" s="25">
         <v>6.3802200000000003E-2</v>
       </c>
@@ -33153,7 +33088,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="142" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D142" s="25">
         <v>6.5444199999999994E-2</v>
       </c>
@@ -33161,7 +33096,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="143" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D143" s="25">
         <v>6.70742E-2</v>
       </c>
@@ -33169,7 +33104,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="144" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D144" s="25">
         <v>6.8692100000000006E-2</v>
       </c>
@@ -33177,7 +33112,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="145" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D145" s="25">
         <v>7.0298100000000002E-2</v>
       </c>
@@ -33185,7 +33120,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="146" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D146" s="25">
         <v>7.18921E-2</v>
       </c>
@@ -33193,7 +33128,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="147" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D147" s="25">
         <v>7.3474100000000001E-2</v>
       </c>
@@ -33201,7 +33136,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="148" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D148" s="25">
         <v>7.5044100000000002E-2</v>
       </c>
@@ -33209,7 +33144,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="149" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D149" s="25">
         <v>7.6602100000000006E-2</v>
       </c>
@@ -33217,7 +33152,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="150" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D150" s="25">
         <v>7.8148099999999998E-2</v>
       </c>
@@ -33225,7 +33160,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="151" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D151" s="25">
         <v>7.9682100000000006E-2</v>
       </c>
@@ -33233,7 +33168,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="152" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D152" s="25">
         <v>8.1204100000000001E-2</v>
       </c>
@@ -33241,7 +33176,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="153" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D153" s="25">
         <v>8.2714099999999999E-2</v>
       </c>
@@ -33249,7 +33184,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="154" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D154" s="25">
         <v>8.4212099999999998E-2</v>
       </c>
@@ -33257,7 +33192,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="155" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D155" s="25">
         <v>8.5698099999999999E-2</v>
       </c>
@@ -33265,7 +33200,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="156" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D156" s="25">
         <v>8.7172100000000002E-2</v>
       </c>
@@ -33273,7 +33208,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="157" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D157" s="25">
         <v>8.8634000000000004E-2</v>
       </c>
@@ -33281,7 +33216,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="158" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D158" s="25">
         <v>9.0083999999999997E-2</v>
       </c>
@@ -33289,7 +33224,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="159" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D159" s="25">
         <v>9.1522000000000006E-2</v>
       </c>
@@ -33297,7 +33232,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="160" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D160" s="25">
         <v>9.2948000000000003E-2</v>
       </c>
@@ -33305,7 +33240,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="161" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D161" s="25">
         <v>9.4362000000000001E-2</v>
       </c>
@@ -33313,7 +33248,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="162" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D162" s="25">
         <v>9.5764000000000002E-2</v>
       </c>
@@ -33321,7 +33256,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="163" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D163" s="25">
         <v>9.7154000000000004E-2</v>
       </c>
@@ -33329,7 +33264,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D164" s="25">
         <v>9.8531999999999995E-2</v>
       </c>
@@ -33337,7 +33272,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="165" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D165" s="25">
         <v>9.9898000000000001E-2</v>
       </c>
@@ -33345,7 +33280,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D166" s="25">
         <v>0.10125199999999999</v>
       </c>
@@ -33353,7 +33288,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D167" s="25">
         <v>0.102594</v>
       </c>
@@ -33361,7 +33296,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D168" s="25">
         <v>0.103924</v>
       </c>
@@ -33369,7 +33304,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="169" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D169" s="25">
         <v>0.105242</v>
       </c>
@@ -33377,7 +33312,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="170" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D170" s="25">
         <v>0.106548</v>
       </c>
@@ -33385,7 +33320,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D171" s="25">
         <v>0.10784199999999999</v>
       </c>
@@ -33393,7 +33328,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="172" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D172" s="25">
         <v>0.109124</v>
       </c>
@@ -33401,7 +33336,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="173" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D173" s="25">
         <v>0.11039400000000001</v>
       </c>
@@ -33409,7 +33344,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="174" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D174" s="25">
         <v>0.111652</v>
       </c>
@@ -33417,7 +33352,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="175" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D175" s="25">
         <v>0.112898</v>
       </c>
@@ -33425,7 +33360,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="176" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D176" s="25">
         <v>0.114132</v>
       </c>
@@ -33433,7 +33368,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D177" s="25">
         <v>0.115354</v>
       </c>
@@ -33441,7 +33376,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D178" s="25">
         <v>0.116564</v>
       </c>
@@ -33449,7 +33384,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D179" s="25">
         <v>0.11776200000000001</v>
       </c>
@@ -33457,7 +33392,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="180" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D180" s="25">
         <v>0.118948</v>
       </c>
@@ -33465,7 +33400,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="181" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D181" s="25">
         <v>0.12012200000000001</v>
       </c>
@@ -33473,7 +33408,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="182" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D182" s="25">
         <v>0.121284</v>
       </c>
@@ -33481,7 +33416,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="183" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D183" s="25">
         <v>0.122434</v>
       </c>
@@ -33489,7 +33424,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="184" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D184" s="25">
         <v>0.123572</v>
       </c>
@@ -33497,7 +33432,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="185" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D185" s="25">
         <v>0.124698</v>
       </c>
@@ -33505,7 +33440,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="186" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D186" s="25">
         <v>0.12581200000000001</v>
       </c>
@@ -33513,7 +33448,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="187" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D187" s="25">
         <v>0.126914</v>
       </c>
@@ -33521,7 +33456,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="188" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D188" s="25">
         <v>0.12800400000000001</v>
       </c>
@@ -33529,7 +33464,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="189" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D189" s="25">
         <v>0.129082</v>
       </c>
@@ -33537,7 +33472,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="190" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D190" s="25">
         <v>0.13014800000000001</v>
       </c>
@@ -33545,7 +33480,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="191" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D191" s="25">
         <v>0.13120200000000001</v>
       </c>
@@ -33553,7 +33488,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="192" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D192" s="25">
         <v>0.132244</v>
       </c>
@@ -33561,7 +33496,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="193" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D193" s="25">
         <v>0.133274</v>
       </c>
@@ -33569,7 +33504,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="194" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D194" s="25">
         <v>0.13429199999999999</v>
       </c>
@@ -33577,7 +33512,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="195" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D195" s="25">
         <v>0.135298</v>
       </c>
@@ -33585,7 +33520,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="196" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D196" s="25">
         <v>0.136292</v>
       </c>
@@ -33593,7 +33528,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="197" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D197" s="25">
         <v>0.13727400000000001</v>
       </c>
@@ -33601,7 +33536,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="198" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D198" s="25">
         <v>0.13824400000000001</v>
       </c>
@@ -33609,7 +33544,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="199" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D199" s="25">
         <v>0.13920199999999999</v>
       </c>
@@ -33617,7 +33552,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="200" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D200" s="25">
         <v>0.14014799999999999</v>
       </c>
@@ -33625,7 +33560,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="201" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D201" s="25">
         <v>0.14108200000000001</v>
       </c>
@@ -33633,7 +33568,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="202" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D202" s="25">
         <v>0.14200399999999999</v>
       </c>
@@ -33641,7 +33576,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="203" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D203" s="25">
         <v>0.14291400000000001</v>
       </c>
@@ -33649,7 +33584,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="204" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D204" s="25">
         <v>0.143812</v>
       </c>
@@ -33657,7 +33592,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="205" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D205" s="25">
         <v>0.14469799999999999</v>
       </c>
@@ -33665,7 +33600,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="206" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D206" s="25">
         <v>0.14557200000000001</v>
       </c>
@@ -33673,7 +33608,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="207" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D207" s="25">
         <v>0.14643400000000001</v>
       </c>
@@ -33681,7 +33616,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="208" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D208" s="25">
         <v>0.147284</v>
       </c>
@@ -33689,7 +33624,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="209" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D209" s="25">
         <v>0.148122</v>
       </c>
@@ -33697,7 +33632,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="210" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D210" s="25">
         <v>0.148948</v>
       </c>
@@ -33705,7 +33640,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="211" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D211" s="25">
         <v>0.14976200000000001</v>
       </c>
@@ -33713,7 +33648,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="212" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D212" s="25">
         <v>0.150564</v>
       </c>
@@ -33721,7 +33656,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="213" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D213" s="25">
         <v>0.15135399999999999</v>
       </c>
@@ -33729,7 +33664,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="214" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D214" s="25">
         <v>0.15213199999999999</v>
       </c>
@@ -33737,7 +33672,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="215" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D215" s="25">
         <v>0.15289800000000001</v>
       </c>
@@ -33745,7 +33680,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="216" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D216" s="25">
         <v>0.15365200000000001</v>
       </c>
@@ -33753,7 +33688,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="217" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D217" s="25">
         <v>0.154394</v>
       </c>
@@ -33761,7 +33696,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="218" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D218" s="25">
         <v>0.15512400000000001</v>
       </c>
@@ -33769,7 +33704,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="219" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D219" s="25">
         <v>0.15584200000000001</v>
       </c>
@@ -33777,7 +33712,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="220" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D220" s="25">
         <v>0.15654799999999999</v>
       </c>
@@ -33785,7 +33720,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="221" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D221" s="25">
         <v>0.15724199999999999</v>
       </c>
@@ -33793,7 +33728,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="222" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D222" s="25">
         <v>0.15792400000000001</v>
       </c>
@@ -33801,7 +33736,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="223" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D223" s="25">
         <v>0.15859400000000001</v>
       </c>
@@ -33809,7 +33744,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="224" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D224" s="25">
         <v>0.159252</v>
       </c>
@@ -33817,7 +33752,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="225" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D225" s="25">
         <v>0.15989800000000001</v>
       </c>
@@ -33825,7 +33760,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="226" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D226" s="25">
         <v>0.16053200000000001</v>
       </c>
@@ -33833,7 +33768,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="227" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D227" s="25">
         <v>0.16115399999999999</v>
       </c>
@@ -33841,7 +33776,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="228" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D228" s="25">
         <v>0.16176399999999999</v>
       </c>
@@ -33849,7 +33784,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="229" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D229" s="25">
         <v>0.16236200000000001</v>
       </c>
@@ -33857,7 +33792,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="230" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D230" s="25">
         <v>0.16294800000000001</v>
       </c>
@@ -33865,7 +33800,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="231" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D231" s="25">
         <v>0.163522</v>
       </c>
@@ -33873,7 +33808,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="232" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D232" s="25">
         <v>0.16408400000000001</v>
       </c>
@@ -33881,7 +33816,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="233" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D233" s="25">
         <v>0.164634</v>
       </c>
@@ -33889,7 +33824,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="234" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D234" s="25">
         <v>0.16517200000000001</v>
       </c>
@@ -33897,7 +33832,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="235" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D235" s="25">
         <v>0.16569800000000001</v>
       </c>
@@ -33905,7 +33840,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="236" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D236" s="25">
         <v>0.166212</v>
       </c>
@@ -33913,7 +33848,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="237" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D237" s="25">
         <v>0.166714</v>
       </c>
@@ -33921,7 +33856,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="238" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D238" s="25">
         <v>0.16720399999999999</v>
       </c>
@@ -33929,7 +33864,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="239" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D239" s="25">
         <v>0.167682</v>
       </c>
@@ -33937,7 +33872,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="240" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D240" s="25">
         <v>0.16814799999999999</v>
       </c>
@@ -33945,7 +33880,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="241" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D241" s="25">
         <v>0.168602</v>
       </c>
@@ -33953,7 +33888,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="242" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D242" s="25">
         <v>0.169044</v>
       </c>
@@ -33961,7 +33896,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="243" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D243" s="25">
         <v>0.16947400000000001</v>
       </c>
@@ -33969,7 +33904,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="244" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D244" s="25">
         <v>0.16989099999999999</v>
       </c>
@@ -33977,7 +33912,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="245" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D245" s="25">
         <v>0.170297</v>
       </c>
@@ -33985,7 +33920,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="246" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D246" s="25">
         <v>0.17069100000000001</v>
       </c>
@@ -33993,7 +33928,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="247" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D247" s="25">
         <v>0.171073</v>
       </c>
@@ -34001,7 +33936,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="248" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D248" s="25">
         <v>0.17144300000000001</v>
       </c>
@@ -34009,7 +33944,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="249" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D249" s="25">
         <v>0.17180100000000001</v>
       </c>
@@ -34017,7 +33952,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="250" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D250" s="25">
         <v>0.17214699999999999</v>
       </c>
@@ -34025,7 +33960,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="251" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D251" s="25">
         <v>0.172481</v>
       </c>
@@ -34033,7 +33968,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="252" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D252" s="25">
         <v>0.17280300000000001</v>
       </c>
@@ -34041,7 +33976,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="253" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D253" s="25">
         <v>0.17311299999999999</v>
       </c>
@@ -34049,7 +33984,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="254" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D254" s="25">
         <v>0.17341100000000001</v>
       </c>
@@ -34057,7 +33992,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="255" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D255" s="25">
         <v>0.17369699999999999</v>
       </c>
@@ -34065,7 +34000,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="256" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D256" s="25">
         <v>0.17397099999999999</v>
       </c>
@@ -34073,7 +34008,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="257" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D257" s="25">
         <v>0.174233</v>
       </c>
@@ -34081,7 +34016,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="258" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D258" s="25">
         <v>0.174483</v>
       </c>
@@ -34089,7 +34024,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="259" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D259" s="25">
         <v>0.17472099999999999</v>
       </c>
@@ -34097,7 +34032,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="260" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D260" s="25">
         <v>0.17494699999999999</v>
       </c>
@@ -34105,7 +34040,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="261" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D261" s="25">
         <v>0.17516100000000001</v>
       </c>
@@ -34113,7 +34048,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="262" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D262" s="25">
         <v>0.17536299999999999</v>
       </c>
@@ -34121,7 +34056,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="263" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D263" s="25">
         <v>0.17555299999999999</v>
       </c>
@@ -34129,7 +34064,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="264" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D264" s="25">
         <v>0.175731</v>
       </c>
@@ -34137,7 +34072,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="265" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D265" s="25">
         <v>0.175897</v>
       </c>
@@ -34145,7 +34080,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="266" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D266" s="25">
         <v>0.17605100000000001</v>
       </c>
@@ -34153,7 +34088,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="267" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D267" s="25">
         <v>0.17619299999999999</v>
       </c>
@@ -34161,7 +34096,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="268" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D268" s="25">
         <v>0.17632300000000001</v>
       </c>
@@ -34169,7 +34104,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="269" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D269" s="25">
         <v>0.17644099999999999</v>
       </c>
@@ -34177,7 +34112,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="271" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D271">
         <v>0.13967299999999999</v>
       </c>
@@ -34188,7 +34123,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="272" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D272">
         <v>0.13952800000000001</v>
       </c>
@@ -34196,7 +34131,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="273" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D273">
         <v>0.13939299999999999</v>
       </c>
@@ -34204,7 +34139,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="274" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D274">
         <v>0.139268</v>
       </c>
@@ -34212,7 +34147,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="275" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D275">
         <v>0.139153</v>
       </c>
@@ -34220,7 +34155,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="276" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D276">
         <v>0.139048</v>
       </c>
@@ -34228,7 +34163,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="277" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D277">
         <v>0.13895299999999999</v>
       </c>
@@ -34236,7 +34171,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="278" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D278">
         <v>0.13886799999999999</v>
       </c>
@@ -34244,7 +34179,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="279" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D279">
         <v>0.138793</v>
       </c>
@@ -34252,7 +34187,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="280" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D280">
         <v>0.13872799999999999</v>
       </c>
@@ -34260,7 +34195,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="281" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D281">
         <v>0.13867299999999999</v>
       </c>
@@ -34268,7 +34203,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="282" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D282">
         <v>0.138628</v>
       </c>
@@ -34276,7 +34211,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="283" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D283">
         <v>0.13859299999999999</v>
       </c>
@@ -34284,7 +34219,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="284" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D284">
         <v>0.138568</v>
       </c>
@@ -34292,7 +34227,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="285" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D285">
         <v>0.13855300000000001</v>
       </c>
@@ -34300,7 +34235,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="286" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D286">
         <v>0.138548</v>
       </c>
@@ -34308,7 +34243,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="287" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D287">
         <v>0.13855300000000001</v>
       </c>
@@ -34316,7 +34251,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="288" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D288">
         <v>0.138568</v>
       </c>
@@ -34324,7 +34259,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="289" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D289">
         <v>0.13859299999999999</v>
       </c>
@@ -34332,7 +34267,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="290" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D290">
         <v>0.138628</v>
       </c>
@@ -34340,7 +34275,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="291" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D291">
         <v>0.13867299999999999</v>
       </c>
@@ -34348,7 +34283,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="292" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D292">
         <v>0.13872799999999999</v>
       </c>
@@ -34356,7 +34291,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="293" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D293">
         <v>0.138793</v>
       </c>
@@ -34364,7 +34299,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="294" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D294">
         <v>0.13886799999999999</v>
       </c>
@@ -34372,7 +34307,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="295" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D295">
         <v>0.13895299999999999</v>
       </c>
@@ -34380,7 +34315,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="296" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D296">
         <v>0.139048</v>
       </c>
@@ -34388,7 +34323,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="297" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D297">
         <v>0.139153</v>
       </c>
@@ -34396,7 +34331,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="298" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D298">
         <v>0.139268</v>
       </c>
@@ -34404,7 +34339,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="299" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D299">
         <v>0.13939299999999999</v>
       </c>
@@ -34412,7 +34347,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="300" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D300">
         <v>0.13952800000000001</v>
       </c>
@@ -34420,7 +34355,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="301" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D301">
         <v>0.13967299999999999</v>
       </c>
@@ -34428,7 +34363,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="302" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D302">
         <v>0.13982800000000001</v>
       </c>
@@ -34436,7 +34371,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="303" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D303">
         <v>0.13999300000000001</v>
       </c>
@@ -34444,7 +34379,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="304" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D304">
         <v>0.14016799999999999</v>
       </c>
@@ -34452,7 +34387,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="305" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D305">
         <v>0.14035300000000001</v>
       </c>
@@ -34460,7 +34395,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="306" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D306">
         <v>0.14054800000000001</v>
       </c>
@@ -34468,7 +34403,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="307" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D307">
         <v>0.14075299999999999</v>
       </c>
@@ -34476,7 +34411,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="308" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D308">
         <v>0.14096800000000001</v>
       </c>
@@ -34484,7 +34419,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="309" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D309">
         <v>0.14119300000000001</v>
       </c>
@@ -34492,7 +34427,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="310" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D310">
         <v>0.141428</v>
       </c>
@@ -34500,7 +34435,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="311" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D311">
         <v>0.14167299999999999</v>
       </c>
@@ -34508,7 +34443,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="312" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D312">
         <v>0.141928</v>
       </c>
@@ -34516,7 +34451,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="313" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D313">
         <v>0.14219300000000001</v>
       </c>
@@ -34524,7 +34459,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="314" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D314">
         <v>0.14246800000000001</v>
       </c>
@@ -34532,7 +34467,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="315" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D315">
         <v>0.14275299999999999</v>
       </c>
@@ -34540,7 +34475,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="316" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D316">
         <v>0.14304800000000001</v>
       </c>
@@ -34548,7 +34483,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="317" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D317">
         <v>0.14335300000000001</v>
       </c>
@@ -34556,7 +34491,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="318" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D318">
         <v>0.14366799999999999</v>
       </c>
@@ -34564,7 +34499,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="319" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D319">
         <v>0.14399300000000001</v>
       </c>
@@ -34572,7 +34507,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="320" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D320">
         <v>0.14432800000000001</v>
       </c>
@@ -34580,7 +34515,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="321" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D321">
         <v>0.144673</v>
       </c>
@@ -34588,7 +34523,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="322" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D322">
         <v>0.14502799999999999</v>
       </c>
@@ -34596,7 +34531,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="323" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D323">
         <v>0.14539299999999999</v>
       </c>
@@ -34604,7 +34539,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="324" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D324">
         <v>0.14576800000000001</v>
       </c>
@@ -34612,7 +34547,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="325" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D325">
         <v>0.14615300000000001</v>
       </c>
@@ -34620,7 +34555,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="326" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D326">
         <v>0.14654800000000001</v>
       </c>
@@ -34628,7 +34563,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="327" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D327">
         <v>0.146953</v>
       </c>
@@ -34636,7 +34571,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="328" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D328">
         <v>0.147368</v>
       </c>
@@ -34644,7 +34579,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="329" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D329">
         <v>0.14779300000000001</v>
       </c>
@@ -34652,7 +34587,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="330" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D330">
         <v>0.148228</v>
       </c>
@@ -34660,7 +34595,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="331" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D331">
         <v>0.148673</v>
       </c>
@@ -34668,7 +34603,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="332" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D332">
         <v>0.14912800000000001</v>
       </c>
@@ -34676,7 +34611,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="333" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D333">
         <v>0.149593</v>
       </c>
@@ -34684,7 +34619,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="334" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D334">
         <v>0.15006800000000001</v>
       </c>
@@ -34692,7 +34627,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="335" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D335">
         <v>0.15055299999999999</v>
       </c>
@@ -34700,7 +34635,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="336" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D336">
         <v>0.15104799999999999</v>
       </c>
@@ -34708,7 +34643,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="337" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D337">
         <v>0.15155299999999999</v>
       </c>
@@ -34716,7 +34651,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="338" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D338">
         <v>0.15206800000000001</v>
       </c>
@@ -34724,7 +34659,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="339" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D339">
         <v>0.15259300000000001</v>
       </c>
@@ -34732,7 +34667,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="340" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D340">
         <v>0.15312799999999999</v>
       </c>
@@ -34740,7 +34675,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="341" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D341">
         <v>0.153673</v>
       </c>
@@ -34748,7 +34683,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="342" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D342">
         <v>0.154228</v>
       </c>
@@ -34756,7 +34691,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="343" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D343">
         <v>0.15479299999999999</v>
       </c>
@@ -34764,7 +34699,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="344" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D344">
         <v>0.15536800000000001</v>
       </c>
@@ -34772,7 +34707,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="345" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D345">
         <v>0.15595300000000001</v>
       </c>
@@ -34780,7 +34715,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="346" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D346">
         <v>0.15654799999999999</v>
       </c>
@@ -34788,7 +34723,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="347" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D347">
         <v>0.15715299999999999</v>
       </c>
@@ -34796,7 +34731,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="348" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D348">
         <v>0.15776799999999999</v>
       </c>
@@ -34804,7 +34739,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="349" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D349">
         <v>0.15839300000000001</v>
       </c>
@@ -34812,7 +34747,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="350" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D350">
         <v>0.159028</v>
       </c>
@@ -34820,7 +34755,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="351" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D351">
         <v>0.15967300000000001</v>
       </c>
@@ -34828,7 +34763,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="352" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D352">
         <v>0.160328</v>
       </c>
@@ -34836,7 +34771,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="353" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D353">
         <v>0.160993</v>
       </c>
@@ -34844,7 +34779,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="354" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D354">
         <v>0.16166800000000001</v>
       </c>
@@ -34859,6 +34794,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010054E8EBE579ED724DA6862405C7970F81" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="86c5e3b6225d101e522740491cefce85">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xmlns:ns4="5d848a0f-dbe6-471c-a407-bb7a402dc859" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6c024ab2e87b0647c7181ba4225cb0c" ns3:_="" ns4:_="">
     <xsd:import namespace="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
@@ -35087,38 +35039,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E5E9353-D2AC-43E7-9389-832F28C1F153}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{621CF4D0-A048-4BAF-9D55-9260AD6C0748}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
-    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -35141,9 +35065,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{621CF4D0-A048-4BAF-9D55-9260AD6C0748}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E5E9353-D2AC-43E7-9389-832F28C1F153}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
+    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>